--- a/Result.xlsx
+++ b/Result.xlsx
@@ -9,23 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="By MeanMin" sheetId="2" r:id="rId1"/>
-    <sheet name="By STD" sheetId="4" r:id="rId2"/>
+    <sheet name="By STD" sheetId="5" r:id="rId1"/>
+    <sheet name="By MeanMin" sheetId="6" r:id="rId2"/>
     <sheet name="Result" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
-    <pivotCache cacheId="47" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="21" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="30">
   <si>
     <t>BencFunc</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Average of MeanMin</t>
+  </si>
+  <si>
+    <t>CMFoCSA</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,412 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Result.xlsx]By MeanMin!PivotTable9</c:name>
+    <c:name>[Result.xlsx]By STD!PivotTable7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg of STD by CMFunc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'By STD'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'By STD'!$A$4:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Bernoulli</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chebyshev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CMFoCSA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gauss</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GaussMap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ICMIC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Logistic</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Piecewise</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>rand</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>randn</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Singer</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sinus</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sinusoidal</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Tent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'By STD'!$B$4:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3979.4263488888882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>565.24159899999984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1979.3270755555559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>405.30888400000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3685.4516588888891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4633.2022715555549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3604.4191488888891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4670.102102222223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3774.4238711111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3659.7035055555557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>588.42780244444441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3386.8353322222224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3681.4626366666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3796.9158044444443</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4922.6881911111113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="297785040"/>
+        <c:axId val="297785600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="297785040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297785600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297785600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297785040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Result.xlsx]By MeanMin!PivotTable14</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -794,9 +1202,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'By MeanMin'!$A$4:$A$17</c:f>
+              <c:f>'By MeanMin'!$A$4:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Bernoulli</c:v>
                 </c:pt>
@@ -807,36 +1215,39 @@
                   <c:v>Circle</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>CMFoCSA</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Gauss</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>GaussMap</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ICMIC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Logistic</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Piecewise</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>rand</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>randn</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Singer</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Sinus</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Sinusoidal</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Tent</c:v>
                 </c:pt>
               </c:strCache>
@@ -844,10 +1255,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'By MeanMin'!$B$4:$B$17</c:f>
+              <c:f>'By MeanMin'!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10868.910777777779</c:v>
                 </c:pt>
@@ -858,36 +1269,39 @@
                   <c:v>4550.6451933333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>788.74876255555557</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>11431.007822222222</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7835.6577813333342</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>9925.4678888888884</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>11809.268411111114</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>11142.515555555556</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10248.426155555555</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>909.40174455555564</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11472.983455555554</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>10867.604666666668</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>10759.67782222222</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8351.1992044444414</c:v>
                 </c:pt>
               </c:numCache>
@@ -904,11 +1318,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="264011952"/>
-        <c:axId val="264010272"/>
+        <c:axId val="298741280"/>
+        <c:axId val="298741840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="264011952"/>
+        <c:axId val="298741280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +1365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264010272"/>
+        <c:crossAx val="298741840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -959,7 +1373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264010272"/>
+        <c:axId val="298741840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,406 +1424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264011952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Result.xlsx]By STD!PivotTable35</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Avg of STD by CMFunc</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'By STD'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'By STD'!$A$4:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>Bernoulli</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Chebyshev</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Circle</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Gauss</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GaussMap</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ICMIC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Logistic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Piecewise</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>rand</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>randn</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Singer</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sinus</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sinusoidal</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Tent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'By STD'!$B$4:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3979.4263488888882</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>565.24159899999984</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1979.3270755555559</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3685.4516588888891</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4633.2022715555549</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3604.4191488888891</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4670.102102222223</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3774.4238711111111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3659.7035055555557</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>588.42780244444441</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3386.8353322222224</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3681.4626366666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3796.9158044444443</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4922.6881911111113</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="310642048"/>
-        <c:axId val="310641488"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="310642048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="310641488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="310641488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="310642048"/>
+        <c:crossAx val="298741280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2558,16 +2573,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2593,16 +2608,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2625,7 +2640,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42694.487664120374" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="126">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42694.803973379632" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="135">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -2640,10 +2655,11 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="42225.669900000001"/>
     </cacheField>
     <cacheField name="CMFunc" numFmtId="0">
-      <sharedItems count="14">
+      <sharedItems count="15">
         <s v="Bernoulli"/>
         <s v="Chebyshev"/>
         <s v="Circle"/>
+        <s v="CMFoCSA"/>
         <s v="Gauss"/>
         <s v="GaussMap"/>
         <s v="ICMIC"/>
@@ -2667,7 +2683,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42694.528473611113" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="126">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42694.804132291669" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="135">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -2682,10 +2698,11 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="42225.669900000001"/>
     </cacheField>
     <cacheField name="CMFunc" numFmtId="0">
-      <sharedItems count="14">
+      <sharedItems count="15">
         <s v="Bernoulli"/>
         <s v="Chebyshev"/>
         <s v="Circle"/>
+        <s v="CMFoCSA"/>
         <s v="Gauss"/>
         <s v="GaussMap"/>
         <s v="ICMIC"/>
@@ -2709,7 +2726,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="126">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="135">
   <r>
     <s v="Ackley"/>
     <n v="17.814599999999999"/>
@@ -2717,1523 +2734,1638 @@
     <x v="0"/>
   </r>
   <r>
+    <s v="Ackley"/>
+    <n v="9.4169999999999998"/>
+    <n v="8.1226000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.528099999999998"/>
+    <n v="0.65871999999999997"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="4.7893999999999997"/>
+    <n v="6.3586999999999998"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.735199999999999"/>
+    <n v="0.71758"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.533799999999999"/>
+    <n v="0.94467999999999996"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.7986"/>
+    <n v="0.76871"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.6326"/>
+    <n v="0.98416999999999999"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.586200000000002"/>
+    <n v="0.81274000000000002"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.716699999999999"/>
+    <n v="0.90134000000000003"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="3.5251000000000001"/>
+    <n v="5.8986999999999998"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.547799999999999"/>
+    <n v="0.76019999999999999"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.550599999999999"/>
+    <n v="0.74551000000000001"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.774999999999999"/>
+    <n v="0.72187999999999997"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.602699999999999"/>
+    <n v="1.1600999999999999"/>
+    <x v="14"/>
+  </r>
+  <r>
     <s v="Fletcher"/>
     <n v="88149.692800000004"/>
     <n v="33734.974900000001"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="Fletcher"/>
+    <n v="5259.9321"/>
+    <n v="4745.6027999999997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="40439.322899999999"/>
+    <n v="17561.359100000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="5733.2456000000002"/>
+    <n v="3265.8589000000002"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="92307.647400000002"/>
+    <n v="30778.2889"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="61258.5095"/>
+    <n v="39465.4401"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="78717.401899999997"/>
+    <n v="30116.209900000002"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="95681.41"/>
+    <n v="39897.273300000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="90469.103300000002"/>
+    <n v="31617.6623"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="82281.052299999996"/>
+    <n v="30580.169900000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="6804.1028999999999"/>
+    <n v="4874.7995000000001"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="93505.923899999994"/>
+    <n v="28216.0324"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="87953.498600000006"/>
+    <n v="30945.2209"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="86447.258000000002"/>
+    <n v="32048.091"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="66349.778999999995"/>
+    <n v="42225.669900000001"/>
+    <x v="14"/>
+  </r>
+  <r>
     <s v="Griewank"/>
     <n v="64.671300000000002"/>
     <n v="16.489000000000001"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="Griewank"/>
+    <n v="6.8826000000000001"/>
+    <n v="4.3194999999999997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="0.93433999999999995"/>
+    <n v="0.59055000000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="1.1915"/>
+    <n v="1.3321000000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="69.713399999999993"/>
+    <n v="16.722200000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="65.059899999999999"/>
+    <n v="15.1282"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="65.658799999999999"/>
+    <n v="16.810700000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="62.771700000000003"/>
+    <n v="20.432400000000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="62.422499999999999"/>
+    <n v="13.2828"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="63.831400000000002"/>
+    <n v="20.3948"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="0.76382000000000005"/>
+    <n v="0.59633999999999998"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="67.244100000000003"/>
+    <n v="15.249599999999999"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="66.755499999999998"/>
+    <n v="17.0807"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="70.5839"/>
+    <n v="17.770499999999998"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="65.145700000000005"/>
+    <n v="17.023800000000001"/>
+    <x v="14"/>
+  </r>
+  <r>
     <s v="Quartic"/>
     <n v="1.7017"/>
     <n v="0.77936000000000005"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="Quartic"/>
+    <n v="1.5935000000000001E-2"/>
+    <n v="6.5560000000000002E-3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6879"/>
+    <n v="0.69164999999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="4.7692999999999999E-2"/>
+    <n v="2.0841999999999999E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.5251999999999999"/>
+    <n v="0.62275000000000003"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.4342000000000001E-2"/>
+    <n v="2.4414000000000002E-2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6891"/>
+    <n v="0.75512999999999997"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6738"/>
+    <n v="0.60714999999999997"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.5571999999999999"/>
+    <n v="0.65110000000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.9045000000000001"/>
+    <n v="0.65520999999999996"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="2.5391E-2"/>
+    <n v="1.3129E-2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6020000000000001"/>
+    <n v="0.69538999999999995"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6061000000000001"/>
+    <n v="0.54981999999999998"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6656"/>
+    <n v="0.70016"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="0.42403999999999997"/>
+    <n v="0.49142000000000002"/>
+    <x v="14"/>
+  </r>
+  <r>
     <s v="Rastrigin"/>
     <n v="86.671800000000005"/>
     <n v="8.6930999999999994"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="Rastrigin"/>
+    <n v="60.008800000000001"/>
+    <n v="11.6288"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="59.697800000000001"/>
+    <n v="9.4478000000000009"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="60.491599999999998"/>
+    <n v="7.4573999999999998"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="83.878399999999999"/>
+    <n v="12.8666"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="84.116299999999995"/>
+    <n v="8.5942000000000007"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="88.060699999999997"/>
+    <n v="9.4750999999999994"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="87.786900000000003"/>
+    <n v="9.9270999999999994"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="85.232699999999994"/>
+    <n v="10.3019"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="84.9298"/>
+    <n v="9.1187000000000005"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="47.538699999999999"/>
+    <n v="9.5109999999999992"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="86.158600000000007"/>
+    <n v="10.4602"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="86.891900000000007"/>
+    <n v="8.7460000000000004"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="86.217200000000005"/>
+    <n v="8.4478000000000009"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="87.169399999999996"/>
+    <n v="8.8627000000000002"/>
+    <x v="14"/>
+  </r>
+  <r>
     <s v="Rosenbrock"/>
     <n v="373.6447"/>
     <n v="105.53060000000001"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="Rosenbrock"/>
+    <n v="19.061699999999998"/>
+    <n v="2.3883999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="338.88630000000001"/>
+    <n v="105.5415"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="25.796600000000002"/>
+    <n v="4.4644000000000004"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="359.21050000000002"/>
+    <n v="92.948400000000007"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="13.5808"/>
+    <n v="1.238"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="367.86419999999998"/>
+    <n v="96.359300000000005"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="387.72469999999998"/>
+    <n v="102.7582"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="364.4837"/>
+    <n v="127.84990000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="403.0342"/>
+    <n v="118.59010000000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="20.9025"/>
+    <n v="3.9940000000000002"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="346.50639999999999"/>
+    <n v="100.0117"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="362.25439999999998"/>
+    <n v="105.83199999999999"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="343.74099999999999"/>
+    <n v="106.85769999999999"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="96.416300000000007"/>
+    <n v="80.343500000000006"/>
+    <x v="14"/>
+  </r>
+  <r>
     <s v="Schwefel226"/>
     <n v="2230.1531"/>
     <n v="172.58869999999999"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="Schwefel226"/>
+    <n v="1315.3362999999999"/>
+    <n v="314.83949999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="89.345100000000002"/>
+    <n v="133.84950000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="1272.9737"/>
+    <n v="362.24020000000002"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2198.3425999999999"/>
+    <n v="253.21729999999999"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2080.4092999999998"/>
+    <n v="223.5335"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2159.0297"/>
+    <n v="229.11160000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2174.5464000000002"/>
+    <n v="241.3476"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2186.6700999999998"/>
+    <n v="165.7216"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2211.1610000000001"/>
+    <n v="247.19479999999999"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="1307.6121000000001"/>
+    <n v="401"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2180.6624999999999"/>
+    <n v="248.8586"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2182.6943999999999"/>
+    <n v="202.37530000000001"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2148.2923000000001"/>
+    <n v="183.50280000000001"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="1147.5342000000001"/>
+    <n v="6.8899999999999999E-13"/>
+    <x v="14"/>
+  </r>
+  <r>
     <s v="Sphere"/>
     <n v="18.466999999999999"/>
     <n v="4.0065999999999997"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="Sphere"/>
+    <n v="0.12184"/>
+    <n v="2.6335000000000001E-2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="4.2243000000000004"/>
+    <n v="1.0045999999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="0.20277000000000001"/>
+    <n v="4.7413999999999998E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="19.957699999999999"/>
+    <n v="5.0166000000000004"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="0.41609000000000002"/>
+    <n v="0.75814999999999999"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="20.827999999999999"/>
+    <n v="5.3103999999999996"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="19.929600000000001"/>
+    <n v="5.0469999999999997"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="20.944299999999998"/>
+    <n v="5.3826000000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="18.985499999999998"/>
+    <n v="3.8328000000000002"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="0.14519000000000001"/>
+    <n v="3.7553000000000003E-2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="19.925799999999999"/>
+    <n v="4.9701000000000004"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="20.1905"/>
+    <n v="4.6813000000000002"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="19.567399999999999"/>
+    <n v="3.8919000000000001"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="11.641500000000001"/>
+    <n v="7.2929000000000004"/>
+    <x v="14"/>
+  </r>
+  <r>
     <s v="Step"/>
     <n v="6877.38"/>
     <n v="1771.0513000000001"/>
     <x v="0"/>
   </r>
   <r>
+    <s v="Step"/>
+    <n v="0.06"/>
+    <n v="0.2399"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="4.18"/>
+    <n v="0.80025999999999997"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7821.06"/>
+    <n v="2008.6646000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7001.28"/>
+    <n v="1983.1592000000001"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7890.88"/>
+    <n v="1964.9715000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7849.94"/>
+    <n v="1752.5419999999999"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7074.64"/>
+    <n v="2028.1498999999999"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7153.22"/>
+    <n v="1956.4739"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7031.28"/>
+    <n v="1884.4798000000001"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7117"/>
+    <n v="1847.9322"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7702"/>
+    <n v="1802.2584999999999"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="7385.08"/>
+    <n v="1963.3494000000001"/>
+    <x v="14"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="135">
+  <r>
+    <s v="Ackley"/>
+    <n v="17.814599999999999"/>
+    <n v="0.72358"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Ackley"/>
     <n v="9.4169999999999998"/>
     <n v="8.1226000000000003"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Ackley"/>
+    <n v="17.528099999999998"/>
+    <n v="0.65871999999999997"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="4.7893999999999997"/>
+    <n v="6.3586999999999998"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.735199999999999"/>
+    <n v="0.71758"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.533799999999999"/>
+    <n v="0.94467999999999996"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.7986"/>
+    <n v="0.76871"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.6326"/>
+    <n v="0.98416999999999999"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.586200000000002"/>
+    <n v="0.81274000000000002"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.716699999999999"/>
+    <n v="0.90134000000000003"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="3.5251000000000001"/>
+    <n v="5.8986999999999998"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.547799999999999"/>
+    <n v="0.76019999999999999"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.550599999999999"/>
+    <n v="0.74551000000000001"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.774999999999999"/>
+    <n v="0.72187999999999997"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Ackley"/>
+    <n v="17.602699999999999"/>
+    <n v="1.1600999999999999"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="88149.692800000004"/>
+    <n v="33734.974900000001"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Fletcher"/>
     <n v="5259.9321"/>
     <n v="4745.6027999999997"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Fletcher"/>
+    <n v="40439.322899999999"/>
+    <n v="17561.359100000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="5733.2456000000002"/>
+    <n v="3265.8589000000002"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="92307.647400000002"/>
+    <n v="30778.2889"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="61258.5095"/>
+    <n v="39465.4401"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="78717.401899999997"/>
+    <n v="30116.209900000002"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="95681.41"/>
+    <n v="39897.273300000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="90469.103300000002"/>
+    <n v="31617.6623"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="82281.052299999996"/>
+    <n v="30580.169900000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="6804.1028999999999"/>
+    <n v="4874.7995000000001"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="93505.923899999994"/>
+    <n v="28216.0324"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="87953.498600000006"/>
+    <n v="30945.2209"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="86447.258000000002"/>
+    <n v="32048.091"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Fletcher"/>
+    <n v="66349.778999999995"/>
+    <n v="42225.669900000001"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="64.671300000000002"/>
+    <n v="16.489000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Griewank"/>
     <n v="6.8826000000000001"/>
     <n v="4.3194999999999997"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Griewank"/>
+    <n v="0.93433999999999995"/>
+    <n v="0.59055000000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="1.1915"/>
+    <n v="1.3321000000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="69.713399999999993"/>
+    <n v="16.722200000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="65.059899999999999"/>
+    <n v="15.1282"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="65.658799999999999"/>
+    <n v="16.810700000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="62.771700000000003"/>
+    <n v="20.432400000000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="62.422499999999999"/>
+    <n v="13.2828"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="63.831400000000002"/>
+    <n v="20.3948"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="0.76382000000000005"/>
+    <n v="0.59633999999999998"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="67.244100000000003"/>
+    <n v="15.249599999999999"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="66.755499999999998"/>
+    <n v="17.0807"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="70.5839"/>
+    <n v="17.770499999999998"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Griewank"/>
+    <n v="65.145700000000005"/>
+    <n v="17.023800000000001"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.7017"/>
+    <n v="0.77936000000000005"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Quartic"/>
     <n v="1.5935000000000001E-2"/>
     <n v="6.5560000000000002E-3"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Quartic"/>
+    <n v="1.6879"/>
+    <n v="0.69164999999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="4.7692999999999999E-2"/>
+    <n v="2.0841999999999999E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.5251999999999999"/>
+    <n v="0.62275000000000003"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.4342000000000001E-2"/>
+    <n v="2.4414000000000002E-2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6891"/>
+    <n v="0.75512999999999997"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6738"/>
+    <n v="0.60714999999999997"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.5571999999999999"/>
+    <n v="0.65110000000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.9045000000000001"/>
+    <n v="0.65520999999999996"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="2.5391E-2"/>
+    <n v="1.3129E-2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6020000000000001"/>
+    <n v="0.69538999999999995"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6061000000000001"/>
+    <n v="0.54981999999999998"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="1.6656"/>
+    <n v="0.70016"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Quartic"/>
+    <n v="0.42403999999999997"/>
+    <n v="0.49142000000000002"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="86.671800000000005"/>
+    <n v="8.6930999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Rastrigin"/>
     <n v="60.008800000000001"/>
     <n v="11.6288"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Rastrigin"/>
+    <n v="59.697800000000001"/>
+    <n v="9.4478000000000009"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="60.491599999999998"/>
+    <n v="7.4573999999999998"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="83.878399999999999"/>
+    <n v="12.8666"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="84.116299999999995"/>
+    <n v="8.5942000000000007"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="88.060699999999997"/>
+    <n v="9.4750999999999994"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="87.786900000000003"/>
+    <n v="9.9270999999999994"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="85.232699999999994"/>
+    <n v="10.3019"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="84.9298"/>
+    <n v="9.1187000000000005"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="47.538699999999999"/>
+    <n v="9.5109999999999992"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="86.158600000000007"/>
+    <n v="10.4602"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="86.891900000000007"/>
+    <n v="8.7460000000000004"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="86.217200000000005"/>
+    <n v="8.4478000000000009"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Rastrigin"/>
+    <n v="87.169399999999996"/>
+    <n v="8.8627000000000002"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="373.6447"/>
+    <n v="105.53060000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Rosenbrock"/>
     <n v="19.061699999999998"/>
     <n v="2.3883999999999999"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Rosenbrock"/>
+    <n v="338.88630000000001"/>
+    <n v="105.5415"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="25.796600000000002"/>
+    <n v="4.4644000000000004"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="359.21050000000002"/>
+    <n v="92.948400000000007"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="13.5808"/>
+    <n v="1.238"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="367.86419999999998"/>
+    <n v="96.359300000000005"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="387.72469999999998"/>
+    <n v="102.7582"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="364.4837"/>
+    <n v="127.84990000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="403.0342"/>
+    <n v="118.59010000000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="20.9025"/>
+    <n v="3.9940000000000002"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="346.50639999999999"/>
+    <n v="100.0117"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="362.25439999999998"/>
+    <n v="105.83199999999999"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="343.74099999999999"/>
+    <n v="106.85769999999999"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Rosenbrock"/>
+    <n v="96.416300000000007"/>
+    <n v="80.343500000000006"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2230.1531"/>
+    <n v="172.58869999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Schwefel226"/>
     <n v="1315.3362999999999"/>
     <n v="314.83949999999999"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Schwefel226"/>
+    <n v="89.345100000000002"/>
+    <n v="133.84950000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="1272.9737"/>
+    <n v="362.24020000000002"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2198.3425999999999"/>
+    <n v="253.21729999999999"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2080.4092999999998"/>
+    <n v="223.5335"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2159.0297"/>
+    <n v="229.11160000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2174.5464000000002"/>
+    <n v="241.3476"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2186.6700999999998"/>
+    <n v="165.7216"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2211.1610000000001"/>
+    <n v="247.19479999999999"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="1307.6121000000001"/>
+    <n v="401"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2180.6624999999999"/>
+    <n v="248.8586"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2182.6943999999999"/>
+    <n v="202.37530000000001"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="2148.2923000000001"/>
+    <n v="183.50280000000001"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="1147.5342000000001"/>
+    <n v="6.8899999999999999E-13"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="18.466999999999999"/>
+    <n v="4.0065999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Sphere"/>
     <n v="0.12184"/>
     <n v="2.6335000000000001E-2"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Sphere"/>
+    <n v="4.2243000000000004"/>
+    <n v="1.0045999999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="0.20277000000000001"/>
+    <n v="4.7413999999999998E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="19.957699999999999"/>
+    <n v="5.0166000000000004"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="0.41609000000000002"/>
+    <n v="0.75814999999999999"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="20.827999999999999"/>
+    <n v="5.3103999999999996"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="19.929600000000001"/>
+    <n v="5.0469999999999997"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="20.944299999999998"/>
+    <n v="5.3826000000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="18.985499999999998"/>
+    <n v="3.8328000000000002"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="0.14519000000000001"/>
+    <n v="3.7553000000000003E-2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="19.925799999999999"/>
+    <n v="4.9701000000000004"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="20.1905"/>
+    <n v="4.6813000000000002"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="19.567399999999999"/>
+    <n v="3.8919000000000001"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Sphere"/>
+    <n v="11.641500000000001"/>
+    <n v="7.2929000000000004"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="Step"/>
+    <n v="6877.38"/>
+    <n v="1771.0513000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
     <s v="Step"/>
     <n v="0.06"/>
     <n v="0.2399"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.528099999999998"/>
-    <n v="0.65871999999999997"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="40439.322899999999"/>
-    <n v="17561.359100000001"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="0.93433999999999995"/>
-    <n v="0.59055000000000002"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6879"/>
-    <n v="0.69164999999999999"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="59.697800000000001"/>
-    <n v="9.4478000000000009"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="338.88630000000001"/>
-    <n v="105.5415"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="89.345100000000002"/>
-    <n v="133.84950000000001"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="4.2243000000000004"/>
-    <n v="1.0045999999999999"/>
-    <x v="2"/>
-  </r>
-  <r>
     <s v="Step"/>
     <n v="4.18"/>
     <n v="0.80025999999999997"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.735199999999999"/>
-    <n v="0.71758"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="92307.647400000002"/>
-    <n v="30778.2889"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="69.713399999999993"/>
-    <n v="16.722200000000001"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.5251999999999999"/>
-    <n v="0.62275000000000003"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="83.878399999999999"/>
-    <n v="12.8666"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="359.21050000000002"/>
-    <n v="92.948400000000007"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2198.3425999999999"/>
-    <n v="253.21729999999999"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.957699999999999"/>
-    <n v="5.0166000000000004"/>
+    <s v="Step"/>
+    <n v="0"/>
+    <n v="0"/>
     <x v="3"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7821.06"/>
     <n v="2008.6646000000001"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.533799999999999"/>
-    <n v="0.94467999999999996"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="61258.5095"/>
-    <n v="39465.4401"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="65.059899999999999"/>
-    <n v="15.1282"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.4342000000000001E-2"/>
-    <n v="2.4414000000000002E-2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="84.116299999999995"/>
-    <n v="8.5942000000000007"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="13.5808"/>
-    <n v="1.238"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2080.4092999999998"/>
-    <n v="223.5335"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="0.41609000000000002"/>
-    <n v="0.75814999999999999"/>
     <x v="4"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7001.28"/>
     <n v="1983.1592000000001"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.7986"/>
-    <n v="0.76871"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="78717.401899999997"/>
-    <n v="30116.209900000002"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="65.658799999999999"/>
-    <n v="16.810700000000001"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6891"/>
-    <n v="0.75512999999999997"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="88.060699999999997"/>
-    <n v="9.4750999999999994"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="367.86419999999998"/>
-    <n v="96.359300000000005"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2159.0297"/>
-    <n v="229.11160000000001"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="20.827999999999999"/>
-    <n v="5.3103999999999996"/>
     <x v="5"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7890.88"/>
     <n v="1964.9715000000001"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.6326"/>
-    <n v="0.98416999999999999"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="95681.41"/>
-    <n v="39897.273300000001"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="62.771700000000003"/>
-    <n v="20.432400000000001"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6738"/>
-    <n v="0.60714999999999997"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="87.786900000000003"/>
-    <n v="9.9270999999999994"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="387.72469999999998"/>
-    <n v="102.7582"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2174.5464000000002"/>
-    <n v="241.3476"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.929600000000001"/>
-    <n v="5.0469999999999997"/>
     <x v="6"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7849.94"/>
     <n v="1752.5419999999999"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.586200000000002"/>
-    <n v="0.81274000000000002"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="90469.103300000002"/>
-    <n v="31617.6623"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="62.422499999999999"/>
-    <n v="13.2828"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.5571999999999999"/>
-    <n v="0.65110000000000001"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="85.232699999999994"/>
-    <n v="10.3019"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="364.4837"/>
-    <n v="127.84990000000001"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2186.6700999999998"/>
-    <n v="165.7216"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="20.944299999999998"/>
-    <n v="5.3826000000000001"/>
     <x v="7"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7074.64"/>
     <n v="2028.1498999999999"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.716699999999999"/>
-    <n v="0.90134000000000003"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="82281.052299999996"/>
-    <n v="30580.169900000001"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="63.831400000000002"/>
-    <n v="20.3948"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.9045000000000001"/>
-    <n v="0.65520999999999996"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="84.9298"/>
-    <n v="9.1187000000000005"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="403.0342"/>
-    <n v="118.59010000000001"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2211.1610000000001"/>
-    <n v="247.19479999999999"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="18.985499999999998"/>
-    <n v="3.8328000000000002"/>
     <x v="8"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7153.22"/>
     <n v="1956.4739"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="3.5251000000000001"/>
-    <n v="5.8986999999999998"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="6804.1028999999999"/>
-    <n v="4874.7995000000001"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="0.76382000000000005"/>
-    <n v="0.59633999999999998"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="2.5391E-2"/>
-    <n v="1.3129E-2"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="47.538699999999999"/>
-    <n v="9.5109999999999992"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="20.9025"/>
-    <n v="3.9940000000000002"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1307.6121000000001"/>
-    <n v="401"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="0.14519000000000001"/>
-    <n v="3.7553000000000003E-2"/>
     <x v="9"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.547799999999999"/>
-    <n v="0.76019999999999999"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="93505.923899999994"/>
-    <n v="28216.0324"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="67.244100000000003"/>
-    <n v="15.249599999999999"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6020000000000001"/>
-    <n v="0.69538999999999995"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.158600000000007"/>
-    <n v="10.4602"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="346.50639999999999"/>
-    <n v="100.0117"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2180.6624999999999"/>
-    <n v="248.8586"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.925799999999999"/>
-    <n v="4.9701000000000004"/>
     <x v="10"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7031.28"/>
     <n v="1884.4798000000001"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.550599999999999"/>
-    <n v="0.74551000000000001"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="87953.498600000006"/>
-    <n v="30945.2209"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="66.755499999999998"/>
-    <n v="17.0807"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6061000000000001"/>
-    <n v="0.54981999999999998"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.891900000000007"/>
-    <n v="8.7460000000000004"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="362.25439999999998"/>
-    <n v="105.83199999999999"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2182.6943999999999"/>
-    <n v="202.37530000000001"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="20.1905"/>
-    <n v="4.6813000000000002"/>
     <x v="11"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7117"/>
     <n v="1847.9322"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.774999999999999"/>
-    <n v="0.72187999999999997"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="86447.258000000002"/>
-    <n v="32048.091"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="70.5839"/>
-    <n v="17.770499999999998"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6656"/>
-    <n v="0.70016"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.217200000000005"/>
-    <n v="8.4478000000000009"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="343.74099999999999"/>
-    <n v="106.85769999999999"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2148.2923000000001"/>
-    <n v="183.50280000000001"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.567399999999999"/>
-    <n v="3.8919000000000001"/>
     <x v="12"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7702"/>
     <n v="1802.2584999999999"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.602699999999999"/>
-    <n v="1.1600999999999999"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="66349.778999999995"/>
-    <n v="42225.669900000001"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="65.145700000000005"/>
-    <n v="17.023800000000001"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="0.42403999999999997"/>
-    <n v="0.49142000000000002"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="87.169399999999996"/>
-    <n v="8.8627000000000002"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="96.416300000000007"/>
-    <n v="80.343500000000006"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1147.5342000000001"/>
-    <n v="6.8899999999999999E-13"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="11.641500000000001"/>
-    <n v="7.2929000000000004"/>
     <x v="13"/>
   </r>
   <r>
     <s v="Step"/>
     <n v="7385.08"/>
     <n v="1963.3494000000001"/>
-    <x v="13"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="126">
-  <r>
-    <s v="Ackley"/>
-    <n v="17.814599999999999"/>
-    <n v="0.72358"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="9.4169999999999998"/>
-    <n v="8.1226000000000003"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.528099999999998"/>
-    <n v="0.65871999999999997"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.735199999999999"/>
-    <n v="0.71758"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.533799999999999"/>
-    <n v="0.94467999999999996"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.7986"/>
-    <n v="0.76871"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.6326"/>
-    <n v="0.98416999999999999"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.586200000000002"/>
-    <n v="0.81274000000000002"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.716699999999999"/>
-    <n v="0.90134000000000003"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="3.5251000000000001"/>
-    <n v="5.8986999999999998"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.547799999999999"/>
-    <n v="0.76019999999999999"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.550599999999999"/>
-    <n v="0.74551000000000001"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.774999999999999"/>
-    <n v="0.72187999999999997"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.602699999999999"/>
-    <n v="1.1600999999999999"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="88149.692800000004"/>
-    <n v="33734.974900000001"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="5259.9321"/>
-    <n v="4745.6027999999997"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="40439.322899999999"/>
-    <n v="17561.359100000001"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="92307.647400000002"/>
-    <n v="30778.2889"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="61258.5095"/>
-    <n v="39465.4401"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="78717.401899999997"/>
-    <n v="30116.209900000002"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="95681.41"/>
-    <n v="39897.273300000001"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="90469.103300000002"/>
-    <n v="31617.6623"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="82281.052299999996"/>
-    <n v="30580.169900000001"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="6804.1028999999999"/>
-    <n v="4874.7995000000001"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="93505.923899999994"/>
-    <n v="28216.0324"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="87953.498600000006"/>
-    <n v="30945.2209"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="86447.258000000002"/>
-    <n v="32048.091"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="66349.778999999995"/>
-    <n v="42225.669900000001"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="64.671300000000002"/>
-    <n v="16.489000000000001"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="6.8826000000000001"/>
-    <n v="4.3194999999999997"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="0.93433999999999995"/>
-    <n v="0.59055000000000002"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="69.713399999999993"/>
-    <n v="16.722200000000001"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="65.059899999999999"/>
-    <n v="15.1282"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="65.658799999999999"/>
-    <n v="16.810700000000001"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="62.771700000000003"/>
-    <n v="20.432400000000001"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="62.422499999999999"/>
-    <n v="13.2828"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="63.831400000000002"/>
-    <n v="20.3948"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="0.76382000000000005"/>
-    <n v="0.59633999999999998"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="67.244100000000003"/>
-    <n v="15.249599999999999"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="66.755499999999998"/>
-    <n v="17.0807"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="70.5839"/>
-    <n v="17.770499999999998"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="65.145700000000005"/>
-    <n v="17.023800000000001"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.7017"/>
-    <n v="0.77936000000000005"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.5935000000000001E-2"/>
-    <n v="6.5560000000000002E-3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6879"/>
-    <n v="0.69164999999999999"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.5251999999999999"/>
-    <n v="0.62275000000000003"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.4342000000000001E-2"/>
-    <n v="2.4414000000000002E-2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6891"/>
-    <n v="0.75512999999999997"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6738"/>
-    <n v="0.60714999999999997"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.5571999999999999"/>
-    <n v="0.65110000000000001"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.9045000000000001"/>
-    <n v="0.65520999999999996"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="2.5391E-2"/>
-    <n v="1.3129E-2"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6020000000000001"/>
-    <n v="0.69538999999999995"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6061000000000001"/>
-    <n v="0.54981999999999998"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6656"/>
-    <n v="0.70016"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="0.42403999999999997"/>
-    <n v="0.49142000000000002"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.671800000000005"/>
-    <n v="8.6930999999999994"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="60.008800000000001"/>
-    <n v="11.6288"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="59.697800000000001"/>
-    <n v="9.4478000000000009"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="83.878399999999999"/>
-    <n v="12.8666"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="84.116299999999995"/>
-    <n v="8.5942000000000007"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="88.060699999999997"/>
-    <n v="9.4750999999999994"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="87.786900000000003"/>
-    <n v="9.9270999999999994"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="85.232699999999994"/>
-    <n v="10.3019"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="84.9298"/>
-    <n v="9.1187000000000005"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="47.538699999999999"/>
-    <n v="9.5109999999999992"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.158600000000007"/>
-    <n v="10.4602"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.891900000000007"/>
-    <n v="8.7460000000000004"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.217200000000005"/>
-    <n v="8.4478000000000009"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="87.169399999999996"/>
-    <n v="8.8627000000000002"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="373.6447"/>
-    <n v="105.53060000000001"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="19.061699999999998"/>
-    <n v="2.3883999999999999"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="338.88630000000001"/>
-    <n v="105.5415"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="359.21050000000002"/>
-    <n v="92.948400000000007"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="13.5808"/>
-    <n v="1.238"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="367.86419999999998"/>
-    <n v="96.359300000000005"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="387.72469999999998"/>
-    <n v="102.7582"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="364.4837"/>
-    <n v="127.84990000000001"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="403.0342"/>
-    <n v="118.59010000000001"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="20.9025"/>
-    <n v="3.9940000000000002"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="346.50639999999999"/>
-    <n v="100.0117"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="362.25439999999998"/>
-    <n v="105.83199999999999"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="343.74099999999999"/>
-    <n v="106.85769999999999"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="96.416300000000007"/>
-    <n v="80.343500000000006"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2230.1531"/>
-    <n v="172.58869999999999"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1315.3362999999999"/>
-    <n v="314.83949999999999"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="89.345100000000002"/>
-    <n v="133.84950000000001"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2198.3425999999999"/>
-    <n v="253.21729999999999"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2080.4092999999998"/>
-    <n v="223.5335"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2159.0297"/>
-    <n v="229.11160000000001"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2174.5464000000002"/>
-    <n v="241.3476"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2186.6700999999998"/>
-    <n v="165.7216"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2211.1610000000001"/>
-    <n v="247.19479999999999"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1307.6121000000001"/>
-    <n v="401"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2180.6624999999999"/>
-    <n v="248.8586"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2182.6943999999999"/>
-    <n v="202.37530000000001"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2148.2923000000001"/>
-    <n v="183.50280000000001"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1147.5342000000001"/>
-    <n v="6.8899999999999999E-13"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="18.466999999999999"/>
-    <n v="4.0065999999999997"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="0.12184"/>
-    <n v="2.6335000000000001E-2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="4.2243000000000004"/>
-    <n v="1.0045999999999999"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.957699999999999"/>
-    <n v="5.0166000000000004"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="0.41609000000000002"/>
-    <n v="0.75814999999999999"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="20.827999999999999"/>
-    <n v="5.3103999999999996"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.929600000000001"/>
-    <n v="5.0469999999999997"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="20.944299999999998"/>
-    <n v="5.3826000000000001"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="18.985499999999998"/>
-    <n v="3.8328000000000002"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="0.14519000000000001"/>
-    <n v="3.7553000000000003E-2"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.925799999999999"/>
-    <n v="4.9701000000000004"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="20.1905"/>
-    <n v="4.6813000000000002"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.567399999999999"/>
-    <n v="3.8919000000000001"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="11.641500000000001"/>
-    <n v="7.2929000000000004"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="6877.38"/>
-    <n v="1771.0513000000001"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="0.06"/>
-    <n v="0.2399"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="4.18"/>
-    <n v="0.80025999999999997"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7821.06"/>
-    <n v="2008.6646000000001"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7001.28"/>
-    <n v="1983.1592000000001"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7890.88"/>
-    <n v="1964.9715000000001"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7849.94"/>
-    <n v="1752.5419999999999"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7074.64"/>
-    <n v="2028.1498999999999"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7153.22"/>
-    <n v="1956.4739"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7031.28"/>
-    <n v="1884.4798000000001"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7117"/>
-    <n v="1847.9322"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7702"/>
-    <n v="1802.2584999999999"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7385.08"/>
-    <n v="1963.3494000000001"/>
-    <x v="13"/>
+    <x v="14"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4248,15 +4380,8 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="14">
+      <items count="15">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4271,6 +4396,7 @@
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
+        <item x="14"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4282,7 +4408,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -4325,12 +4451,15 @@
     <i>
       <x v="13"/>
     </i>
+    <i>
+      <x v="14"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of MeanMin" fld="1" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="Average of STD" fld="2" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -4353,16 +4482,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable35" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4377,8 +4499,15 @@
         </ext>
       </extLst>
     </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="14">
+      <items count="15">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4393,6 +4522,7 @@
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
+        <item x="14"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4404,7 +4534,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -4447,12 +4577,15 @@
     <i>
       <x v="13"/>
     </i>
+    <i>
+      <x v="14"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of STD" fld="2" subtotal="average" baseField="0" baseItem="3268304"/>
+    <dataField name="Average of MeanMin" fld="1" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -4475,14 +4608,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D127" totalsRowShown="0">
-  <autoFilter ref="A1:D127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D136" totalsRowShown="0">
+  <autoFilter ref="A1:D136">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <sortState ref="A2:D127">
+  <sortState ref="A2:D136">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="4">
@@ -4758,150 +4891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B17"/>
+  <dimension ref="A3:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4">
-        <v>10868.910777777779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4">
-        <v>741.20403055555562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4550.6451933333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4">
-        <v>11431.007822222222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7835.6577813333342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4">
-        <v>9925.4678888888884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4">
-        <v>11809.268411111114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>11142.515555555556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4">
-        <v>10248.426155555555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4">
-        <v>909.40174455555564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4">
-        <v>11472.983455555554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4">
-        <v>10867.604666666668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10759.67782222222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4">
-        <v>8351.1992044444414</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,90 +4937,246 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4">
-        <v>3685.4516588888891</v>
+        <v>405.30888400000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
-        <v>4633.2022715555549</v>
+        <v>3685.4516588888891</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
-        <v>3604.4191488888891</v>
+        <v>4633.2022715555549</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4">
-        <v>4670.102102222223</v>
+        <v>3604.4191488888891</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
-        <v>3774.4238711111111</v>
+        <v>4670.102102222223</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4">
-        <v>3659.7035055555557</v>
+        <v>3774.4238711111111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4">
-        <v>588.42780244444441</v>
+        <v>3659.7035055555557</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
-        <v>3386.8353322222224</v>
+        <v>588.42780244444441</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4">
-        <v>3681.4626366666666</v>
+        <v>3386.8353322222224</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4">
-        <v>3796.9158044444443</v>
+        <v>3681.4626366666666</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3796.9158044444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
+      <c r="B18" s="4">
+        <v>4922.6881911111113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10868.910777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>741.20403055555562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4550.6451933333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4">
+        <v>788.74876255555557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11431.007822222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7835.6577813333342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9925.4678888888884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <v>11809.268411111114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11142.515555555556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10248.426155555555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>909.40174455555564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4">
+        <v>11472.983455555554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10867.604666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
       <c r="B17" s="4">
-        <v>4922.6881911111113</v>
+        <v>10759.67782222222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8351.1992044444414</v>
       </c>
     </row>
   </sheetData>
@@ -5038,10 +5187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5113,13 +5262,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>17.735199999999999</v>
+        <v>4.7893999999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>0.71758</v>
+        <v>6.3586999999999998</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,13 +5276,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>17.533799999999999</v>
+        <v>17.735199999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>0.94467999999999996</v>
+        <v>0.71758</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,13 +5290,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>17.7986</v>
+        <v>17.533799999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.76871</v>
+        <v>0.94467999999999996</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,13 +5304,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>17.6326</v>
+        <v>17.7986</v>
       </c>
       <c r="C8" s="1">
-        <v>0.98416999999999999</v>
+        <v>0.76871</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,13 +5318,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>17.586200000000002</v>
+        <v>17.6326</v>
       </c>
       <c r="C9" s="1">
-        <v>0.81274000000000002</v>
+        <v>0.98416999999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,13 +5332,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>17.716699999999999</v>
+        <v>17.586200000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>0.90134000000000003</v>
+        <v>0.81274000000000002</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,13 +5346,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>3.5251000000000001</v>
+        <v>17.716699999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>5.8986999999999998</v>
+        <v>0.90134000000000003</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,13 +5360,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>17.547799999999999</v>
+        <v>3.5251000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>0.76019999999999999</v>
+        <v>5.8986999999999998</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,13 +5374,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>17.550599999999999</v>
+        <v>17.547799999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>0.74551000000000001</v>
+        <v>0.76019999999999999</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5239,13 +5388,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>17.774999999999999</v>
+        <v>17.550599999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>0.72187999999999997</v>
+        <v>0.74551000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5253,27 +5402,27 @@
         <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>17.602699999999999</v>
+        <v>17.774999999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1.1600999999999999</v>
+        <v>0.72187999999999997</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>88149.692800000004</v>
+        <v>17.602699999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>33734.974900000001</v>
+        <v>1.1600999999999999</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,13 +5430,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>5259.9321</v>
+        <v>88149.692800000004</v>
       </c>
       <c r="C17" s="1">
-        <v>4745.6027999999997</v>
+        <v>33734.974900000001</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,13 +5444,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="1">
-        <v>40439.322899999999</v>
+        <v>5259.9321</v>
       </c>
       <c r="C18" s="1">
-        <v>17561.359100000001</v>
+        <v>4745.6027999999997</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,13 +5458,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>92307.647400000002</v>
+        <v>40439.322899999999</v>
       </c>
       <c r="C19" s="1">
-        <v>30778.2889</v>
+        <v>17561.359100000001</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,13 +5472,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="1">
-        <v>61258.5095</v>
+        <v>5733.2456000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>39465.4401</v>
+        <v>3265.8589000000002</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,13 +5486,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="1">
-        <v>78717.401899999997</v>
+        <v>92307.647400000002</v>
       </c>
       <c r="C21" s="1">
-        <v>30116.209900000002</v>
+        <v>30778.2889</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,13 +5500,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="1">
-        <v>95681.41</v>
+        <v>61258.5095</v>
       </c>
       <c r="C22" s="1">
-        <v>39897.273300000001</v>
+        <v>39465.4401</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,13 +5514,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="1">
-        <v>90469.103300000002</v>
+        <v>78717.401899999997</v>
       </c>
       <c r="C23" s="1">
-        <v>31617.6623</v>
+        <v>30116.209900000002</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,13 +5528,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="1">
-        <v>82281.052299999996</v>
+        <v>95681.41</v>
       </c>
       <c r="C24" s="1">
-        <v>30580.169900000001</v>
+        <v>39897.273300000001</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5393,13 +5542,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>6804.1028999999999</v>
+        <v>90469.103300000002</v>
       </c>
       <c r="C25" s="1">
-        <v>4874.7995000000001</v>
+        <v>31617.6623</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,13 +5556,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="1">
-        <v>93505.923899999994</v>
+        <v>82281.052299999996</v>
       </c>
       <c r="C26" s="1">
-        <v>28216.0324</v>
+        <v>30580.169900000001</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,13 +5570,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="1">
-        <v>87953.498600000006</v>
+        <v>6804.1028999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>30945.2209</v>
+        <v>4874.7995000000001</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,13 +5584,13 @@
         <v>7</v>
       </c>
       <c r="B28" s="1">
-        <v>86447.258000000002</v>
+        <v>93505.923899999994</v>
       </c>
       <c r="C28" s="1">
-        <v>32048.091</v>
+        <v>28216.0324</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5449,41 +5598,41 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>66349.778999999995</v>
+        <v>87953.498600000006</v>
       </c>
       <c r="C29" s="1">
-        <v>42225.669900000001</v>
+        <v>30945.2209</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1">
-        <v>64.671300000000002</v>
+        <v>86447.258000000002</v>
       </c>
       <c r="C30" s="1">
-        <v>16.489000000000001</v>
+        <v>32048.091</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
-        <v>6.8826000000000001</v>
+        <v>66349.778999999995</v>
       </c>
       <c r="C31" s="1">
-        <v>4.3194999999999997</v>
+        <v>42225.669900000001</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5491,13 +5640,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="1">
-        <v>0.93433999999999995</v>
+        <v>64.671300000000002</v>
       </c>
       <c r="C32" s="1">
-        <v>0.59055000000000002</v>
+        <v>16.489000000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,13 +5654,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>69.713399999999993</v>
+        <v>6.8826000000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>16.722200000000001</v>
+        <v>4.3194999999999997</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5519,13 +5668,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>65.059899999999999</v>
+        <v>0.93433999999999995</v>
       </c>
       <c r="C34" s="1">
-        <v>15.1282</v>
+        <v>0.59055000000000002</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,13 +5682,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>65.658799999999999</v>
+        <v>1.1915</v>
       </c>
       <c r="C35" s="1">
-        <v>16.810700000000001</v>
+        <v>1.3321000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5547,13 +5696,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="1">
-        <v>62.771700000000003</v>
+        <v>69.713399999999993</v>
       </c>
       <c r="C36" s="1">
-        <v>20.432400000000001</v>
+        <v>16.722200000000001</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5561,13 +5710,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="1">
-        <v>62.422499999999999</v>
+        <v>65.059899999999999</v>
       </c>
       <c r="C37" s="1">
-        <v>13.2828</v>
+        <v>15.1282</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5575,13 +5724,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>63.831400000000002</v>
+        <v>65.658799999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>20.3948</v>
+        <v>16.810700000000001</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,13 +5738,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="1">
-        <v>0.76382000000000005</v>
+        <v>62.771700000000003</v>
       </c>
       <c r="C39" s="1">
-        <v>0.59633999999999998</v>
+        <v>20.432400000000001</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5603,13 +5752,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>67.244100000000003</v>
+        <v>62.422499999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>15.249599999999999</v>
+        <v>13.2828</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5617,13 +5766,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>66.755499999999998</v>
+        <v>63.831400000000002</v>
       </c>
       <c r="C41" s="1">
-        <v>17.0807</v>
+        <v>20.3948</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5631,13 +5780,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="1">
-        <v>70.5839</v>
+        <v>0.76382000000000005</v>
       </c>
       <c r="C42" s="1">
-        <v>17.770499999999998</v>
+        <v>0.59633999999999998</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,55 +5794,55 @@
         <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>65.145700000000005</v>
+        <v>67.244100000000003</v>
       </c>
       <c r="C43" s="1">
-        <v>17.023800000000001</v>
+        <v>15.249599999999999</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
-        <v>1.7017</v>
+        <v>66.755499999999998</v>
       </c>
       <c r="C44" s="1">
-        <v>0.77936000000000005</v>
+        <v>17.0807</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1">
-        <v>1.5935000000000001E-2</v>
+        <v>70.5839</v>
       </c>
       <c r="C45" s="1">
-        <v>6.5560000000000002E-3</v>
+        <v>17.770499999999998</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1">
-        <v>1.6879</v>
+        <v>65.145700000000005</v>
       </c>
       <c r="C46" s="1">
-        <v>0.69164999999999999</v>
+        <v>17.023800000000001</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5701,13 +5850,13 @@
         <v>9</v>
       </c>
       <c r="B47" s="1">
-        <v>1.5251999999999999</v>
+        <v>1.7017</v>
       </c>
       <c r="C47" s="1">
-        <v>0.62275000000000003</v>
+        <v>0.77936000000000005</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5715,13 +5864,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>1.4342000000000001E-2</v>
+        <v>1.5935000000000001E-2</v>
       </c>
       <c r="C48" s="1">
-        <v>2.4414000000000002E-2</v>
+        <v>6.5560000000000002E-3</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5729,13 +5878,13 @@
         <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>1.6891</v>
+        <v>1.6879</v>
       </c>
       <c r="C49" s="1">
-        <v>0.75512999999999997</v>
+        <v>0.69164999999999999</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5743,13 +5892,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="1">
-        <v>1.6738</v>
+        <v>4.7692999999999999E-2</v>
       </c>
       <c r="C50" s="1">
-        <v>0.60714999999999997</v>
+        <v>2.0841999999999999E-2</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,13 +5906,13 @@
         <v>9</v>
       </c>
       <c r="B51" s="1">
-        <v>1.5571999999999999</v>
+        <v>1.5251999999999999</v>
       </c>
       <c r="C51" s="1">
-        <v>0.65110000000000001</v>
+        <v>0.62275000000000003</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5771,13 +5920,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>1.9045000000000001</v>
+        <v>1.4342000000000001E-2</v>
       </c>
       <c r="C52" s="1">
-        <v>0.65520999999999996</v>
+        <v>2.4414000000000002E-2</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5785,13 +5934,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="1">
-        <v>2.5391E-2</v>
+        <v>1.6891</v>
       </c>
       <c r="C53" s="1">
-        <v>1.3129E-2</v>
+        <v>0.75512999999999997</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,13 +5948,13 @@
         <v>9</v>
       </c>
       <c r="B54" s="1">
-        <v>1.6020000000000001</v>
+        <v>1.6738</v>
       </c>
       <c r="C54" s="1">
-        <v>0.69538999999999995</v>
+        <v>0.60714999999999997</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5813,13 +5962,13 @@
         <v>9</v>
       </c>
       <c r="B55" s="1">
-        <v>1.6061000000000001</v>
+        <v>1.5571999999999999</v>
       </c>
       <c r="C55" s="1">
-        <v>0.54981999999999998</v>
+        <v>0.65110000000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -5827,13 +5976,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="1">
-        <v>1.6656</v>
+        <v>1.9045000000000001</v>
       </c>
       <c r="C56" s="1">
-        <v>0.70016</v>
+        <v>0.65520999999999996</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -5841,69 +5990,69 @@
         <v>9</v>
       </c>
       <c r="B57" s="1">
-        <v>0.42403999999999997</v>
+        <v>2.5391E-2</v>
       </c>
       <c r="C57" s="1">
-        <v>0.49142000000000002</v>
+        <v>1.3129E-2</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1">
-        <v>86.671800000000005</v>
+        <v>1.6020000000000001</v>
       </c>
       <c r="C58" s="1">
-        <v>8.6930999999999994</v>
+        <v>0.69538999999999995</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1">
-        <v>60.008800000000001</v>
+        <v>1.6061000000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>11.6288</v>
+        <v>0.54981999999999998</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1">
-        <v>59.697800000000001</v>
+        <v>1.6656</v>
       </c>
       <c r="C60" s="1">
-        <v>9.4478000000000009</v>
+        <v>0.70016</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1">
-        <v>83.878399999999999</v>
+        <v>0.42403999999999997</v>
       </c>
       <c r="C61" s="1">
-        <v>12.8666</v>
+        <v>0.49142000000000002</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -5911,13 +6060,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="1">
-        <v>84.116299999999995</v>
+        <v>86.671800000000005</v>
       </c>
       <c r="C62" s="1">
-        <v>8.5942000000000007</v>
+        <v>8.6930999999999994</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,13 +6074,13 @@
         <v>10</v>
       </c>
       <c r="B63" s="1">
-        <v>88.060699999999997</v>
+        <v>60.008800000000001</v>
       </c>
       <c r="C63" s="1">
-        <v>9.4750999999999994</v>
+        <v>11.6288</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5939,13 +6088,13 @@
         <v>10</v>
       </c>
       <c r="B64" s="1">
-        <v>87.786900000000003</v>
+        <v>59.697800000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>9.9270999999999994</v>
+        <v>9.4478000000000009</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,13 +6102,13 @@
         <v>10</v>
       </c>
       <c r="B65" s="1">
-        <v>85.232699999999994</v>
+        <v>60.491599999999998</v>
       </c>
       <c r="C65" s="1">
-        <v>10.3019</v>
+        <v>7.4573999999999998</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -5967,13 +6116,13 @@
         <v>10</v>
       </c>
       <c r="B66" s="1">
-        <v>84.9298</v>
+        <v>83.878399999999999</v>
       </c>
       <c r="C66" s="1">
-        <v>9.1187000000000005</v>
+        <v>12.8666</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -5981,13 +6130,13 @@
         <v>10</v>
       </c>
       <c r="B67" s="1">
-        <v>47.538699999999999</v>
+        <v>84.116299999999995</v>
       </c>
       <c r="C67" s="1">
-        <v>9.5109999999999992</v>
+        <v>8.5942000000000007</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -5995,13 +6144,13 @@
         <v>10</v>
       </c>
       <c r="B68" s="1">
-        <v>86.158600000000007</v>
+        <v>88.060699999999997</v>
       </c>
       <c r="C68" s="1">
-        <v>10.4602</v>
+        <v>9.4750999999999994</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6009,13 +6158,13 @@
         <v>10</v>
       </c>
       <c r="B69" s="1">
-        <v>86.891900000000007</v>
+        <v>87.786900000000003</v>
       </c>
       <c r="C69" s="1">
-        <v>8.7460000000000004</v>
+        <v>9.9270999999999994</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,13 +6172,13 @@
         <v>10</v>
       </c>
       <c r="B70" s="1">
-        <v>86.217200000000005</v>
+        <v>85.232699999999994</v>
       </c>
       <c r="C70" s="1">
-        <v>8.4478000000000009</v>
+        <v>10.3019</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -6037,83 +6186,83 @@
         <v>10</v>
       </c>
       <c r="B71" s="1">
-        <v>87.169399999999996</v>
+        <v>84.9298</v>
       </c>
       <c r="C71" s="1">
-        <v>8.8627000000000002</v>
+        <v>9.1187000000000005</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" s="1">
-        <v>373.6447</v>
+        <v>47.538699999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>105.53060000000001</v>
+        <v>9.5109999999999992</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1">
-        <v>19.061699999999998</v>
+        <v>86.158600000000007</v>
       </c>
       <c r="C73" s="1">
-        <v>2.3883999999999999</v>
+        <v>10.4602</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1">
-        <v>338.88630000000001</v>
+        <v>86.891900000000007</v>
       </c>
       <c r="C74" s="1">
-        <v>105.5415</v>
+        <v>8.7460000000000004</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="1">
-        <v>359.21050000000002</v>
+        <v>86.217200000000005</v>
       </c>
       <c r="C75" s="1">
-        <v>92.948400000000007</v>
+        <v>8.4478000000000009</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="1">
-        <v>13.5808</v>
+        <v>87.169399999999996</v>
       </c>
       <c r="C76" s="1">
-        <v>1.238</v>
+        <v>8.8627000000000002</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -6121,13 +6270,13 @@
         <v>11</v>
       </c>
       <c r="B77" s="1">
-        <v>367.86419999999998</v>
+        <v>373.6447</v>
       </c>
       <c r="C77" s="1">
-        <v>96.359300000000005</v>
+        <v>105.53060000000001</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,13 +6284,13 @@
         <v>11</v>
       </c>
       <c r="B78" s="1">
-        <v>387.72469999999998</v>
+        <v>19.061699999999998</v>
       </c>
       <c r="C78" s="1">
-        <v>102.7582</v>
+        <v>2.3883999999999999</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -6149,13 +6298,13 @@
         <v>11</v>
       </c>
       <c r="B79" s="1">
-        <v>364.4837</v>
+        <v>338.88630000000001</v>
       </c>
       <c r="C79" s="1">
-        <v>127.84990000000001</v>
+        <v>105.5415</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -6163,13 +6312,13 @@
         <v>11</v>
       </c>
       <c r="B80" s="1">
-        <v>403.0342</v>
+        <v>25.796600000000002</v>
       </c>
       <c r="C80" s="1">
-        <v>118.59010000000001</v>
+        <v>4.4644000000000004</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6177,13 +6326,13 @@
         <v>11</v>
       </c>
       <c r="B81" s="1">
-        <v>20.9025</v>
+        <v>359.21050000000002</v>
       </c>
       <c r="C81" s="1">
-        <v>3.9940000000000002</v>
+        <v>92.948400000000007</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -6191,13 +6340,13 @@
         <v>11</v>
       </c>
       <c r="B82" s="1">
-        <v>346.50639999999999</v>
+        <v>13.5808</v>
       </c>
       <c r="C82" s="1">
-        <v>100.0117</v>
+        <v>1.238</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -6205,13 +6354,13 @@
         <v>11</v>
       </c>
       <c r="B83" s="1">
-        <v>362.25439999999998</v>
+        <v>367.86419999999998</v>
       </c>
       <c r="C83" s="1">
-        <v>105.83199999999999</v>
+        <v>96.359300000000005</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,13 +6368,13 @@
         <v>11</v>
       </c>
       <c r="B84" s="1">
-        <v>343.74099999999999</v>
+        <v>387.72469999999998</v>
       </c>
       <c r="C84" s="1">
-        <v>106.85769999999999</v>
+        <v>102.7582</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -6233,97 +6382,97 @@
         <v>11</v>
       </c>
       <c r="B85" s="1">
-        <v>96.416300000000007</v>
+        <v>364.4837</v>
       </c>
       <c r="C85" s="1">
-        <v>80.343500000000006</v>
+        <v>127.84990000000001</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="1">
-        <v>2230.1531</v>
+        <v>403.0342</v>
       </c>
       <c r="C86" s="1">
-        <v>172.58869999999999</v>
+        <v>118.59010000000001</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" s="1">
-        <v>1315.3362999999999</v>
+        <v>20.9025</v>
       </c>
       <c r="C87" s="1">
-        <v>314.83949999999999</v>
+        <v>3.9940000000000002</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88" s="1">
-        <v>89.345100000000002</v>
+        <v>346.50639999999999</v>
       </c>
       <c r="C88" s="1">
-        <v>133.84950000000001</v>
+        <v>100.0117</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89" s="1">
-        <v>2198.3425999999999</v>
+        <v>362.25439999999998</v>
       </c>
       <c r="C89" s="1">
-        <v>253.21729999999999</v>
+        <v>105.83199999999999</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" s="1">
-        <v>2080.4092999999998</v>
+        <v>343.74099999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>223.5335</v>
+        <v>106.85769999999999</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" s="1">
-        <v>2159.0297</v>
+        <v>96.416300000000007</v>
       </c>
       <c r="C91" s="1">
-        <v>229.11160000000001</v>
+        <v>80.343500000000006</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -6331,13 +6480,13 @@
         <v>12</v>
       </c>
       <c r="B92" s="1">
-        <v>2174.5464000000002</v>
+        <v>2230.1531</v>
       </c>
       <c r="C92" s="1">
-        <v>241.3476</v>
+        <v>172.58869999999999</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,13 +6494,13 @@
         <v>12</v>
       </c>
       <c r="B93" s="1">
-        <v>2186.6700999999998</v>
+        <v>1315.3362999999999</v>
       </c>
       <c r="C93" s="1">
-        <v>165.7216</v>
+        <v>314.83949999999999</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6359,13 +6508,13 @@
         <v>12</v>
       </c>
       <c r="B94" s="1">
-        <v>2211.1610000000001</v>
+        <v>89.345100000000002</v>
       </c>
       <c r="C94" s="1">
-        <v>247.19479999999999</v>
+        <v>133.84950000000001</v>
       </c>
       <c r="D94" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -6373,13 +6522,13 @@
         <v>12</v>
       </c>
       <c r="B95" s="1">
-        <v>1307.6121000000001</v>
+        <v>1272.9737</v>
       </c>
       <c r="C95" s="1">
-        <v>401</v>
+        <v>362.24020000000002</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -6387,13 +6536,13 @@
         <v>12</v>
       </c>
       <c r="B96" s="1">
-        <v>2180.6624999999999</v>
+        <v>2198.3425999999999</v>
       </c>
       <c r="C96" s="1">
-        <v>248.8586</v>
+        <v>253.21729999999999</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -6401,13 +6550,13 @@
         <v>12</v>
       </c>
       <c r="B97" s="1">
-        <v>2182.6943999999999</v>
+        <v>2080.4092999999998</v>
       </c>
       <c r="C97" s="1">
-        <v>202.37530000000001</v>
+        <v>223.5335</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,13 +6564,13 @@
         <v>12</v>
       </c>
       <c r="B98" s="1">
-        <v>2148.2923000000001</v>
+        <v>2159.0297</v>
       </c>
       <c r="C98" s="1">
-        <v>183.50280000000001</v>
+        <v>229.11160000000001</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -6429,111 +6578,111 @@
         <v>12</v>
       </c>
       <c r="B99" s="1">
-        <v>1147.5342000000001</v>
-      </c>
-      <c r="C99" s="2">
-        <v>6.8899999999999999E-13</v>
+        <v>2174.5464000000002</v>
+      </c>
+      <c r="C99" s="1">
+        <v>241.3476</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="1">
-        <v>18.466999999999999</v>
+        <v>2186.6700999999998</v>
       </c>
       <c r="C100" s="1">
-        <v>4.0065999999999997</v>
+        <v>165.7216</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101" s="1">
-        <v>0.12184</v>
+        <v>2211.1610000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>2.6335000000000001E-2</v>
+        <v>247.19479999999999</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102" s="1">
-        <v>4.2243000000000004</v>
+        <v>1307.6121000000001</v>
       </c>
       <c r="C102" s="1">
-        <v>1.0045999999999999</v>
+        <v>401</v>
       </c>
       <c r="D102" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" s="1">
-        <v>19.957699999999999</v>
+        <v>2180.6624999999999</v>
       </c>
       <c r="C103" s="1">
-        <v>5.0166000000000004</v>
+        <v>248.8586</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104" s="1">
-        <v>0.41609000000000002</v>
+        <v>2182.6943999999999</v>
       </c>
       <c r="C104" s="1">
-        <v>0.75814999999999999</v>
+        <v>202.37530000000001</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" s="1">
-        <v>20.827999999999999</v>
+        <v>2148.2923000000001</v>
       </c>
       <c r="C105" s="1">
-        <v>5.3103999999999996</v>
+        <v>183.50280000000001</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="1">
-        <v>19.929600000000001</v>
-      </c>
-      <c r="C106" s="1">
-        <v>5.0469999999999997</v>
+        <v>1147.5342000000001</v>
+      </c>
+      <c r="C106" s="2">
+        <v>6.8899999999999999E-13</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -6541,13 +6690,13 @@
         <v>13</v>
       </c>
       <c r="B107" s="1">
-        <v>20.944299999999998</v>
+        <v>18.466999999999999</v>
       </c>
       <c r="C107" s="1">
-        <v>5.3826000000000001</v>
+        <v>4.0065999999999997</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,13 +6704,13 @@
         <v>13</v>
       </c>
       <c r="B108" s="1">
-        <v>18.985499999999998</v>
+        <v>0.12184</v>
       </c>
       <c r="C108" s="1">
-        <v>3.8328000000000002</v>
+        <v>2.6335000000000001E-2</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,13 +6718,13 @@
         <v>13</v>
       </c>
       <c r="B109" s="1">
-        <v>0.14519000000000001</v>
+        <v>4.2243000000000004</v>
       </c>
       <c r="C109" s="1">
-        <v>3.7553000000000003E-2</v>
+        <v>1.0045999999999999</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -6583,13 +6732,13 @@
         <v>13</v>
       </c>
       <c r="B110" s="1">
-        <v>19.925799999999999</v>
+        <v>0.20277000000000001</v>
       </c>
       <c r="C110" s="1">
-        <v>4.9701000000000004</v>
+        <v>4.7413999999999998E-2</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,13 +6746,13 @@
         <v>13</v>
       </c>
       <c r="B111" s="1">
-        <v>20.1905</v>
+        <v>19.957699999999999</v>
       </c>
       <c r="C111" s="1">
-        <v>4.6813000000000002</v>
+        <v>5.0166000000000004</v>
       </c>
       <c r="D111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -6611,13 +6760,13 @@
         <v>13</v>
       </c>
       <c r="B112" s="1">
-        <v>19.567399999999999</v>
+        <v>0.41609000000000002</v>
       </c>
       <c r="C112" s="1">
-        <v>3.8919000000000001</v>
+        <v>0.75814999999999999</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -6625,125 +6774,125 @@
         <v>13</v>
       </c>
       <c r="B113" s="1">
-        <v>11.641500000000001</v>
+        <v>20.827999999999999</v>
       </c>
       <c r="C113" s="1">
-        <v>7.2929000000000004</v>
+        <v>5.3103999999999996</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B114" s="1">
-        <v>6877.38</v>
+        <v>19.929600000000001</v>
       </c>
       <c r="C114" s="1">
-        <v>1771.0513000000001</v>
+        <v>5.0469999999999997</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115" s="1">
-        <v>0.06</v>
+        <v>20.944299999999998</v>
       </c>
       <c r="C115" s="1">
-        <v>0.2399</v>
+        <v>5.3826000000000001</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B116" s="1">
-        <v>4.18</v>
+        <v>18.985499999999998</v>
       </c>
       <c r="C116" s="1">
-        <v>0.80025999999999997</v>
+        <v>3.8328000000000002</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B117" s="1">
-        <v>7821.06</v>
+        <v>0.14519000000000001</v>
       </c>
       <c r="C117" s="1">
-        <v>2008.6646000000001</v>
+        <v>3.7553000000000003E-2</v>
       </c>
       <c r="D117" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B118" s="1">
-        <v>7001.28</v>
+        <v>19.925799999999999</v>
       </c>
       <c r="C118" s="1">
-        <v>1983.1592000000001</v>
+        <v>4.9701000000000004</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B119" s="1">
-        <v>7890.88</v>
+        <v>20.1905</v>
       </c>
       <c r="C119" s="1">
-        <v>1964.9715000000001</v>
+        <v>4.6813000000000002</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B120" s="1">
-        <v>7849.94</v>
+        <v>19.567399999999999</v>
       </c>
       <c r="C120" s="1">
-        <v>1752.5419999999999</v>
+        <v>3.8919000000000001</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B121" s="1">
-        <v>7074.64</v>
+        <v>11.641500000000001</v>
       </c>
       <c r="C121" s="1">
-        <v>2028.1498999999999</v>
+        <v>7.2929000000000004</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -6751,13 +6900,13 @@
         <v>14</v>
       </c>
       <c r="B122" s="1">
-        <v>7153.22</v>
+        <v>6877.38</v>
       </c>
       <c r="C122" s="1">
-        <v>1956.4739</v>
+        <v>1771.0513000000001</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -6765,13 +6914,13 @@
         <v>14</v>
       </c>
       <c r="B123" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>0.2399</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,13 +6928,13 @@
         <v>14</v>
       </c>
       <c r="B124" s="1">
-        <v>7031.28</v>
+        <v>4.18</v>
       </c>
       <c r="C124" s="1">
-        <v>1884.4798000000001</v>
+        <v>0.80025999999999997</v>
       </c>
       <c r="D124" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -6793,13 +6942,13 @@
         <v>14</v>
       </c>
       <c r="B125" s="1">
-        <v>7117</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
-        <v>1847.9322</v>
+        <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -6807,13 +6956,13 @@
         <v>14</v>
       </c>
       <c r="B126" s="1">
-        <v>7702</v>
+        <v>7821.06</v>
       </c>
       <c r="C126" s="1">
-        <v>1802.2584999999999</v>
+        <v>2008.6646000000001</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -6821,12 +6970,138 @@
         <v>14</v>
       </c>
       <c r="B127" s="1">
+        <v>7001.28</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1983.1592000000001</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="1">
+        <v>7890.88</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1964.9715000000001</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="1">
+        <v>7849.94</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1752.5419999999999</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="1">
+        <v>7074.64</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2028.1498999999999</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="1">
+        <v>7153.22</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1956.4739</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" s="1">
+        <v>7031.28</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1884.4798000000001</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="1">
+        <v>7117</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1847.9322</v>
+      </c>
+      <c r="D134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="1">
+        <v>7702</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1802.2584999999999</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="1">
         <v>7385.08</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C136" s="1">
         <v>1963.3494000000001</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D136" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,109 +12,103 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="By STD" sheetId="5" r:id="rId1"/>
-    <sheet name="By MeanMin" sheetId="6" r:id="rId2"/>
+    <sheet name="By MeanMin" sheetId="2" r:id="rId1"/>
+    <sheet name="By STD" sheetId="3" r:id="rId2"/>
     <sheet name="Result" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
-    <pivotCache cacheId="21" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="19" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="28">
   <si>
-    <t>BencFunc</t>
+    <t xml:space="preserve">Ackley     </t>
   </si>
   <si>
-    <t>MeanMin</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>CMFunc</t>
-  </si>
-  <si>
-    <t>Ackley</t>
-  </si>
-  <si>
-    <t>Piecewise</t>
+    <t>Piecewise-Piecewise</t>
   </si>
   <si>
     <t>Circle</t>
   </si>
   <si>
-    <t>Fletcher</t>
+    <t xml:space="preserve">Fletcher   </t>
   </si>
   <si>
-    <t>Griewank</t>
+    <t xml:space="preserve">Griewank   </t>
   </si>
   <si>
-    <t>Quartic</t>
+    <t xml:space="preserve">Quartic    </t>
   </si>
   <si>
-    <t>Rastrigin</t>
+    <t xml:space="preserve">Rastrigin  </t>
   </si>
   <si>
-    <t>Rosenbrock</t>
+    <t xml:space="preserve">Rosenbrock </t>
   </si>
   <si>
     <t>Schwefel226</t>
   </si>
   <si>
-    <t>Sphere</t>
+    <t xml:space="preserve">Sphere     </t>
   </si>
   <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Logistic</t>
+    <t xml:space="preserve">Step       </t>
   </si>
   <si>
     <t>Chebyshev</t>
   </si>
   <si>
-    <t>ICMIC</t>
+    <t>Logistic-Logistic</t>
   </si>
   <si>
-    <t>Bernoulli</t>
+    <t>Bernoulli-Bernoulli</t>
   </si>
   <si>
-    <t>GaussMap</t>
+    <t>ICMIC-ICMIC</t>
   </si>
   <si>
     <t>randn</t>
   </si>
   <si>
-    <t>rand</t>
+    <t>GaussMap-GaussMap</t>
   </si>
   <si>
-    <t>Gauss</t>
+    <t>rand-rand</t>
   </si>
   <si>
-    <t>Sinus</t>
+    <t>Sinusoidal-Sinusoidal</t>
   </si>
   <si>
-    <t>Sinusoidal</t>
+    <t>Gauss-Gauss</t>
   </si>
   <si>
-    <t>Singer</t>
+    <t>Tent-Tent</t>
   </si>
   <si>
-    <t>Tent</t>
+    <t>Sinus-Sinus</t>
   </si>
   <si>
-    <t>Average of STD</t>
+    <t>BencFunc</t>
   </si>
   <si>
-    <t>Average of MeanMin</t>
+    <t xml:space="preserve"> MeanMin</t>
   </si>
   <si>
-    <t>CMFoCSA</t>
+    <t xml:space="preserve"> STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CMFunc </t>
+  </si>
+  <si>
+    <t>Average of  STD</t>
+  </si>
+  <si>
+    <t>Average of  MeanMin</t>
   </si>
 </sst>
 </file>
@@ -687,7 +681,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Result.xlsx]By STD!PivotTable7</c:name>
+    <c:name>[Result.xlsx]By MeanMin!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -712,7 +706,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Avg of STD by CMFunc</a:t>
+              <a:t>Avg of  MeanMin by  CMFunc </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -768,7 +762,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -776,7 +770,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'By STD'!$B$3</c:f>
+              <c:f>'By MeanMin'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -797,11 +791,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'By STD'!$A$4:$A$18</c:f>
+              <c:f>'By MeanMin'!$A$4:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Bernoulli</c:v>
+                  <c:v>Bernoulli-Bernoulli</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Chebyshev</c:v>
@@ -810,94 +804,70 @@
                   <c:v>Circle</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CMFoCSA</c:v>
+                  <c:v>Gauss-Gauss</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Gauss</c:v>
+                  <c:v>GaussMap-GaussMap</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>GaussMap</c:v>
+                  <c:v>ICMIC-ICMIC</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ICMIC</c:v>
+                  <c:v>Logistic-Logistic</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Logistic</c:v>
+                  <c:v>Piecewise-Piecewise</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Piecewise</c:v>
+                  <c:v>randn</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>rand</c:v>
+                  <c:v>rand-rand</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>randn</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Singer</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sinus</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sinusoidal</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Tent</c:v>
+                  <c:v>Sinusoidal-Sinusoidal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'By STD'!$B$4:$B$18</c:f>
+              <c:f>'By MeanMin'!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3979.4263488888882</c:v>
+                  <c:v>311.37444222222268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>565.24159899999984</c:v>
+                  <c:v>435.07252222222309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1979.3270755555559</c:v>
+                  <c:v>1112.7723811999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>405.30888400000003</c:v>
+                  <c:v>486.81585444568293</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3685.4516588888891</c:v>
+                  <c:v>329.11933000000056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4633.2022715555549</c:v>
+                  <c:v>269.89352000000054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3604.4191488888891</c:v>
+                  <c:v>416.83562222222361</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4670.102102222223</c:v>
+                  <c:v>359.60484444444501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3774.4238711111111</c:v>
+                  <c:v>505.7742777777795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3659.7035055555557</c:v>
+                  <c:v>284.96547333333388</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>588.42780244444441</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3386.8353322222224</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3681.4626366666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3796.9158044444443</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4922.6881911111113</c:v>
+                  <c:v>418.155444444446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,18 +881,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="297785040"/>
-        <c:axId val="297785600"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="346466160"/>
+        <c:axId val="346466720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="297785040"/>
+        <c:axId val="346466160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -960,7 +929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297785600"/>
+        <c:crossAx val="346466720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -968,12 +937,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297785600"/>
+        <c:axId val="346466720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1019,7 +988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297785040"/>
+        <c:crossAx val="346466160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1092,7 +1061,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Result.xlsx]By MeanMin!PivotTable14</c:name>
+    <c:name>[Result.xlsx]By STD!PivotTable14</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1117,7 +1086,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Avg of MeanMin by CMFunc</a:t>
+              <a:t>Avg of  STD by  CMFunc </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1173,7 +1142,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1181,7 +1150,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'By MeanMin'!$B$3</c:f>
+              <c:f>'By STD'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1202,11 +1171,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'By MeanMin'!$A$4:$A$18</c:f>
+              <c:f>'By STD'!$A$4:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Bernoulli</c:v>
+                  <c:v>Bernoulli-Bernoulli</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Chebyshev</c:v>
@@ -1215,94 +1184,70 @@
                   <c:v>Circle</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CMFoCSA</c:v>
+                  <c:v>Gauss-Gauss</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Gauss</c:v>
+                  <c:v>GaussMap-GaussMap</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>GaussMap</c:v>
+                  <c:v>ICMIC-ICMIC</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ICMIC</c:v>
+                  <c:v>Logistic-Logistic</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Logistic</c:v>
+                  <c:v>Piecewise-Piecewise</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Piecewise</c:v>
+                  <c:v>randn</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>rand</c:v>
+                  <c:v>rand-rand</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>randn</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Singer</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sinus</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sinusoidal</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Tent</c:v>
+                  <c:v>Sinusoidal-Sinusoidal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'By MeanMin'!$B$4:$B$18</c:f>
+              <c:f>'By STD'!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10868.910777777779</c:v>
+                  <c:v>229.32417555555594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>741.20403055555562</c:v>
+                  <c:v>320.01056222222292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4550.6451933333337</c:v>
+                  <c:v>641.2053019444445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>788.74876255555557</c:v>
+                  <c:v>546.55039411247299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11431.007822222222</c:v>
+                  <c:v>224.88256444444488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7835.6577813333342</c:v>
+                  <c:v>134.28587555555612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9925.4678888888884</c:v>
+                  <c:v>336.05490000000202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11809.268411111114</c:v>
+                  <c:v>230.8859577777784</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11142.515555555556</c:v>
+                  <c:v>539.58500000000231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10248.426155555555</c:v>
+                  <c:v>159.04011000000051</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>909.40174455555564</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11472.983455555554</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10867.604666666668</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10759.67782222222</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8351.1992044444414</c:v>
+                  <c:v>357.7999855555567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,18 +1261,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="298741280"/>
-        <c:axId val="298741840"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="273273248"/>
+        <c:axId val="273274368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298741280"/>
+        <c:axId val="273273248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1365,7 +1309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298741840"/>
+        <c:crossAx val="273274368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1373,12 +1317,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298741840"/>
+        <c:axId val="273274368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1424,7 +1368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298741280"/>
+        <c:crossAx val="273273248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1564,7 +1508,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1768,22 +1712,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1888,8 +1833,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2021,19 +1966,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2067,7 +2013,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2271,22 +2217,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2391,8 +2338,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2524,19 +2471,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2573,14 +2521,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -2608,14 +2556,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -2640,7 +2588,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42694.803973379632" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="135">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42696.280460416667" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="103">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -2648,29 +2596,27 @@
     <cacheField name="BencFunc" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="MeanMin" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="95681.41"/>
+    <cacheField name=" MeanMin" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.8427999999999996E-22" maxValue="8887.7505000000001"/>
     </cacheField>
-    <cacheField name="STD" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="42225.669900000001"/>
+    <cacheField name=" STD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2064E-21" maxValue="5838.1057000000001"/>
     </cacheField>
-    <cacheField name="CMFunc" numFmtId="0">
-      <sharedItems count="15">
-        <s v="Bernoulli"/>
+    <cacheField name=" CMFunc " numFmtId="0">
+      <sharedItems count="13">
+        <s v="Bernoulli-Bernoulli"/>
         <s v="Chebyshev"/>
         <s v="Circle"/>
-        <s v="CMFoCSA"/>
-        <s v="Gauss"/>
-        <s v="GaussMap"/>
-        <s v="ICMIC"/>
-        <s v="Logistic"/>
-        <s v="Piecewise"/>
-        <s v="rand"/>
+        <s v="Gauss-Gauss"/>
+        <s v="GaussMap-GaussMap"/>
+        <s v="ICMIC-ICMIC"/>
+        <s v="Logistic-Logistic"/>
+        <s v="Piecewise-Piecewise"/>
         <s v="randn"/>
-        <s v="Singer"/>
-        <s v="Sinus"/>
-        <s v="Sinusoidal"/>
-        <s v="Tent"/>
+        <s v="rand-rand"/>
+        <s v="Sinusoidal-Sinusoidal"/>
+        <s v="Sinus-Sinus"/>
+        <s v="Tent-Tent"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2683,7 +2629,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42694.804132291669" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="135">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42696.280548842595" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="103">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -2691,29 +2637,27 @@
     <cacheField name="BencFunc" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="MeanMin" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="95681.41"/>
+    <cacheField name=" MeanMin" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.8427999999999996E-22" maxValue="8887.7505000000001"/>
     </cacheField>
-    <cacheField name="STD" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="42225.669900000001"/>
+    <cacheField name=" STD" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2064E-21" maxValue="5838.1057000000001"/>
     </cacheField>
-    <cacheField name="CMFunc" numFmtId="0">
-      <sharedItems count="15">
-        <s v="Bernoulli"/>
+    <cacheField name=" CMFunc " numFmtId="0">
+      <sharedItems count="13">
+        <s v="Bernoulli-Bernoulli"/>
         <s v="Chebyshev"/>
         <s v="Circle"/>
-        <s v="CMFoCSA"/>
-        <s v="Gauss"/>
-        <s v="GaussMap"/>
-        <s v="ICMIC"/>
-        <s v="Logistic"/>
-        <s v="Piecewise"/>
-        <s v="rand"/>
+        <s v="Gauss-Gauss"/>
+        <s v="GaussMap-GaussMap"/>
+        <s v="ICMIC-ICMIC"/>
+        <s v="Logistic-Logistic"/>
+        <s v="Piecewise-Piecewise"/>
         <s v="randn"/>
-        <s v="Singer"/>
-        <s v="Sinus"/>
-        <s v="Sinusoidal"/>
-        <s v="Tent"/>
+        <s v="rand-rand"/>
+        <s v="Sinusoidal-Sinusoidal"/>
+        <s v="Sinus-Sinus"/>
+        <s v="Tent-Tent"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2726,1646 +2670,1255 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="135">
-  <r>
-    <s v="Ackley"/>
-    <n v="17.814599999999999"/>
-    <n v="0.72358"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="103">
+  <r>
+    <s v="Ackley     "/>
+    <n v="0.17327999999999999"/>
+    <n v="0.42318"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="9.4169999999999998"/>
-    <n v="8.1226000000000003"/>
+    <s v="Ackley     "/>
+    <n v="1.0787"/>
+    <n v="0.98426000000000002"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.528099999999998"/>
-    <n v="0.65871999999999997"/>
+    <s v="Ackley     "/>
+    <n v="3.2025999999999999"/>
+    <n v="1.2293000000000001"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="4.7893999999999997"/>
-    <n v="6.3586999999999998"/>
+    <s v="Ackley     "/>
+    <n v="0.11577999999999999"/>
+    <n v="0.35547000000000001"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.735199999999999"/>
-    <n v="0.71758"/>
+    <s v="Ackley     "/>
+    <n v="0.65156999999999998"/>
+    <n v="0.78402000000000005"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.533799999999999"/>
-    <n v="0.94467999999999996"/>
+    <s v="Ackley     "/>
+    <n v="0.17327999999999999"/>
+    <n v="0.42318"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.7986"/>
-    <n v="0.76871"/>
+    <s v="Ackley     "/>
+    <n v="1.0193000000000001"/>
+    <n v="1.0819000000000001"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.6326"/>
-    <n v="0.98416999999999999"/>
+    <s v="Ackley     "/>
+    <n v="0.37109999999999999"/>
+    <n v="0.59060999999999997"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.586200000000002"/>
-    <n v="0.81274000000000002"/>
+    <s v="Ackley     "/>
+    <n v="1.0931"/>
+    <n v="1.0185999999999999"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.716699999999999"/>
-    <n v="0.90134000000000003"/>
+    <s v="Ackley     "/>
+    <n v="0.40536"/>
+    <n v="0.73382999999999998"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="3.5251000000000001"/>
-    <n v="5.8986999999999998"/>
+    <s v="Ackley     "/>
+    <n v="1.0546"/>
+    <n v="0.94147000000000003"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.547799999999999"/>
-    <n v="0.76019999999999999"/>
+    <s v="Ackley     "/>
+    <n v="0.82247000000000003"/>
+    <n v="0.91876999999999998"/>
     <x v="11"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.550599999999999"/>
-    <n v="0.74551000000000001"/>
+    <s v="Ackley     "/>
+    <n v="1.0565"/>
+    <n v="1.0954999999999999"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.774999999999999"/>
-    <n v="0.72187999999999997"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.602699999999999"/>
-    <n v="1.1600999999999999"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="88149.692800000004"/>
-    <n v="33734.974900000001"/>
+    <s v="Fletcher   "/>
+    <n v="1310.7851000000001"/>
+    <n v="1690.2430999999999"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="5259.9321"/>
-    <n v="4745.6027999999997"/>
+    <s v="Fletcher   "/>
+    <n v="2502.7004999999999"/>
+    <n v="2479.7013999999999"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="40439.322899999999"/>
-    <n v="17561.359100000001"/>
+    <s v="Fletcher   "/>
+    <n v="8887.7505000000001"/>
+    <n v="5500.2790000000005"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="5733.2456000000002"/>
-    <n v="3265.8589000000002"/>
+    <s v="Fletcher   "/>
+    <n v="3804.5691000000002"/>
+    <n v="4727.7174999999997"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="92307.647400000002"/>
-    <n v="30778.2889"/>
+    <s v="Fletcher   "/>
+    <n v="1538.2989"/>
+    <n v="1677.1995999999999"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="61258.5095"/>
-    <n v="39465.4401"/>
+    <s v="Fletcher   "/>
+    <n v="728.85"/>
+    <n v="847.08619999999996"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="78717.401899999997"/>
-    <n v="30116.209900000002"/>
+    <s v="Fletcher   "/>
+    <n v="2350.1511"/>
+    <n v="2729.0173"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="95681.41"/>
-    <n v="39897.273300000001"/>
+    <s v="Fletcher   "/>
+    <n v="1649.626"/>
+    <n v="1720.9751000000001"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="90469.103300000002"/>
-    <n v="31617.6623"/>
+    <s v="Fletcher   "/>
+    <n v="3224.2993000000001"/>
+    <n v="4524.5727999999999"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="82281.052299999996"/>
-    <n v="30580.169900000001"/>
+    <s v="Fletcher   "/>
+    <n v="1209.5853"/>
+    <n v="1036.2772"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="6804.1028999999999"/>
-    <n v="4874.7995000000001"/>
+    <s v="Fletcher   "/>
+    <n v="2330.5221000000001"/>
+    <n v="2811.6718999999998"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="93505.923899999994"/>
-    <n v="28216.0324"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="87953.498600000006"/>
-    <n v="30945.2209"/>
+    <s v="Fletcher   "/>
+    <n v="5230.0884999999998"/>
+    <n v="5838.1057000000001"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="86447.258000000002"/>
-    <n v="32048.091"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="66349.778999999995"/>
-    <n v="42225.669900000001"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="64.671300000000002"/>
-    <n v="16.489000000000001"/>
+    <s v="Griewank   "/>
+    <n v="45.325899999999997"/>
+    <n v="22.864899999999999"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="6.8826000000000001"/>
-    <n v="4.3194999999999997"/>
+    <s v="Griewank   "/>
+    <n v="8.5025999999999993"/>
+    <n v="4.6494"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="0.93433999999999995"/>
-    <n v="0.59055000000000002"/>
+    <s v="Griewank   "/>
+    <n v="5.3220999999999998"/>
+    <n v="8.3316999999999997"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="1.1915"/>
-    <n v="1.3321000000000001"/>
+    <s v="Griewank   "/>
+    <n v="0.19661000000000001"/>
+    <n v="9.1377E-2"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="69.713399999999993"/>
-    <n v="16.722200000000001"/>
+    <s v="Griewank   "/>
+    <n v="24.166399999999999"/>
+    <n v="11.1571"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="65.059899999999999"/>
-    <n v="15.1282"/>
+    <s v="Griewank   "/>
+    <n v="40.462600000000002"/>
+    <n v="15.5252"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="65.658799999999999"/>
-    <n v="16.810700000000001"/>
+    <s v="Griewank   "/>
+    <n v="1.4035"/>
+    <n v="1.361"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="62.771700000000003"/>
-    <n v="20.432400000000001"/>
+    <s v="Griewank   "/>
+    <n v="36.278100000000002"/>
+    <n v="12.810700000000001"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="62.422499999999999"/>
-    <n v="13.2828"/>
+    <s v="Griewank   "/>
+    <n v="2.2789000000000001"/>
+    <n v="2.2635000000000001"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="63.831400000000002"/>
-    <n v="20.3948"/>
+    <s v="Griewank   "/>
+    <n v="37.276600000000002"/>
+    <n v="15.2461"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="0.76382000000000005"/>
-    <n v="0.59633999999999998"/>
+    <s v="Griewank   "/>
+    <n v="2.2025999999999999"/>
+    <n v="2.4834000000000001"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="67.244100000000003"/>
-    <n v="15.249599999999999"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="66.755499999999998"/>
-    <n v="17.0807"/>
+    <s v="Griewank   "/>
+    <n v="9.9668000000000007E-2"/>
+    <n v="8.6430999999999994E-2"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="70.5839"/>
-    <n v="17.770499999999998"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="65.145700000000005"/>
-    <n v="17.023800000000001"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.7017"/>
-    <n v="0.77936000000000005"/>
+    <s v="Quartic    "/>
+    <n v="2.8275999999999999E-21"/>
+    <n v="9.4604999999999995E-21"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.5935000000000001E-2"/>
-    <n v="6.5560000000000002E-3"/>
+    <s v="Quartic    "/>
+    <n v="3.9280999999999999E-18"/>
+    <n v="1.7442E-17"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.6879"/>
-    <n v="0.69164999999999999"/>
+    <s v="Quartic    "/>
+    <n v="1.3707999999999999E-3"/>
+    <n v="3.6275000000000001E-3"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="4.7692999999999999E-2"/>
-    <n v="2.0841999999999999E-2"/>
+    <s v="Quartic    "/>
+    <n v="1.2329E-15"/>
+    <n v="3.2233999999999999E-15"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.5251999999999999"/>
-    <n v="0.62275000000000003"/>
+    <s v="Quartic    "/>
+    <n v="5.5770000000000003E-22"/>
+    <n v="1.2648999999999999E-21"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.4342000000000001E-2"/>
-    <n v="2.4414000000000002E-2"/>
+    <s v="Quartic    "/>
+    <n v="4.8427999999999996E-22"/>
+    <n v="1.2064E-21"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.6891"/>
-    <n v="0.75512999999999997"/>
+    <s v="Quartic    "/>
+    <n v="7.2103999999999995E-20"/>
+    <n v="2.8135E-19"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.6738"/>
-    <n v="0.60714999999999997"/>
+    <s v="Quartic    "/>
+    <n v="3.8923999999999999E-20"/>
+    <n v="1.573E-19"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.5571999999999999"/>
-    <n v="0.65110000000000001"/>
+    <s v="Quartic    "/>
+    <n v="3.6155000000000001E-19"/>
+    <n v="1.2527000000000001E-18"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.9045000000000001"/>
-    <n v="0.65520999999999996"/>
+    <s v="Quartic    "/>
+    <n v="7.6439000000000002E-22"/>
+    <n v="1.6073E-21"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="2.5391E-2"/>
-    <n v="1.3129E-2"/>
+    <s v="Quartic    "/>
+    <n v="4.7260000000000003E-20"/>
+    <n v="1.4315999999999999E-19"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.6020000000000001"/>
-    <n v="0.69538999999999995"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6061000000000001"/>
-    <n v="0.54981999999999998"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6656"/>
-    <n v="0.70016"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="0.42403999999999997"/>
-    <n v="0.49142000000000002"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.671800000000005"/>
-    <n v="8.6930999999999994"/>
+    <s v="Rastrigin  "/>
+    <n v="14.675599999999999"/>
+    <n v="5.7914000000000003"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="60.008800000000001"/>
-    <n v="11.6288"/>
+    <s v="Rastrigin  "/>
+    <n v="18.307200000000002"/>
+    <n v="8.5309000000000008"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="59.697800000000001"/>
-    <n v="9.4478000000000009"/>
+    <s v="Rastrigin  "/>
+    <n v="26.962199999999999"/>
+    <n v="8.8048999999999999"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="60.491599999999998"/>
-    <n v="7.4573999999999998"/>
+    <s v="Rastrigin  "/>
+    <n v="12.295999999999999"/>
+    <n v="6.3822000000000001"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="83.878399999999999"/>
-    <n v="12.8666"/>
+    <s v="Rastrigin  "/>
+    <n v="17.212800000000001"/>
+    <n v="5.3929"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="84.116299999999995"/>
-    <n v="8.5942000000000007"/>
+    <s v="Rastrigin  "/>
+    <n v="14.0289"/>
+    <n v="7.0198"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="88.060699999999997"/>
-    <n v="9.4750999999999994"/>
+    <s v="Rastrigin  "/>
+    <n v="17.4117"/>
+    <n v="5.8685"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="87.786900000000003"/>
-    <n v="9.9270999999999994"/>
+    <s v="Rastrigin  "/>
+    <n v="13.232900000000001"/>
+    <n v="6.1001000000000003"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="85.232699999999994"/>
-    <n v="10.3019"/>
+    <s v="Rastrigin  "/>
+    <n v="18.754899999999999"/>
+    <n v="7.968"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="84.9298"/>
-    <n v="9.1187000000000005"/>
+    <s v="Rastrigin  "/>
+    <n v="12.039"/>
+    <n v="4.4950000000000001"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="47.538699999999999"/>
-    <n v="9.5109999999999992"/>
+    <s v="Rastrigin  "/>
+    <n v="18.5062"/>
+    <n v="6.3536000000000001"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="86.158600000000007"/>
-    <n v="10.4602"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.891900000000007"/>
-    <n v="8.7460000000000004"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.217200000000005"/>
-    <n v="8.4478000000000009"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="87.169399999999996"/>
-    <n v="8.8627000000000002"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="373.6447"/>
-    <n v="105.53060000000001"/>
+    <s v="Rosenbrock "/>
+    <n v="7.1628999999999996"/>
+    <n v="2.6150000000000002"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="19.061699999999998"/>
-    <n v="2.3883999999999999"/>
+    <s v="Rosenbrock "/>
+    <n v="8.0383999999999993"/>
+    <n v="1.0750999999999999"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="338.88630000000001"/>
-    <n v="105.5415"/>
+    <s v="Rosenbrock "/>
+    <n v="12.505699999999999"/>
+    <n v="21.101700000000001"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="25.796600000000002"/>
-    <n v="4.4644000000000004"/>
+    <s v="Rosenbrock "/>
+    <n v="9.6522000000000006"/>
+    <n v="9.7284000000000006"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="359.21050000000002"/>
-    <n v="92.948400000000007"/>
+    <s v="Rosenbrock "/>
+    <n v="8.0624000000000002"/>
+    <n v="1.3561000000000001"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="13.5808"/>
-    <n v="1.238"/>
+    <s v="Rosenbrock "/>
+    <n v="8.2196999999999996"/>
+    <n v="1.4567000000000001"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="367.86419999999998"/>
-    <n v="96.359300000000005"/>
+    <s v="Rosenbrock "/>
+    <n v="8.2787000000000006"/>
+    <n v="1.1943999999999999"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="387.72469999999998"/>
-    <n v="102.7582"/>
+    <s v="Rosenbrock "/>
+    <n v="9.1309000000000005"/>
+    <n v="6.6860999999999997"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="364.4837"/>
-    <n v="127.84990000000001"/>
+    <s v="Rosenbrock "/>
+    <n v="8.5561000000000007"/>
+    <n v="2.0752000000000002"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="403.0342"/>
-    <n v="118.59010000000001"/>
+    <s v="Rosenbrock "/>
+    <n v="7.5399000000000003"/>
+    <n v="1.9607000000000001"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="20.9025"/>
-    <n v="3.9940000000000002"/>
+    <s v="Rosenbrock "/>
+    <n v="14.1906"/>
+    <n v="24.2148"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="346.50639999999999"/>
-    <n v="100.0117"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="362.25439999999998"/>
-    <n v="105.83199999999999"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="343.74099999999999"/>
-    <n v="106.85769999999999"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="96.416300000000007"/>
-    <n v="80.343500000000006"/>
-    <x v="14"/>
-  </r>
-  <r>
     <s v="Schwefel226"/>
-    <n v="2230.1531"/>
-    <n v="172.58869999999999"/>
+    <n v="1423.3471999999999"/>
+    <n v="340.95920000000001"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="1315.3362999999999"/>
-    <n v="314.83949999999999"/>
+    <n v="1375.1252999999999"/>
+    <n v="383.8603"/>
     <x v="1"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="89.345100000000002"/>
-    <n v="133.84950000000001"/>
+    <n v="1069.6797999999999"/>
+    <n v="218.8646"/>
     <x v="2"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="1272.9737"/>
-    <n v="362.24020000000002"/>
+    <n v="549.11300000000006"/>
+    <n v="171.0745"/>
     <x v="3"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2198.3425999999999"/>
-    <n v="253.21729999999999"/>
+    <n v="1372.5319"/>
+    <n v="327.3082"/>
     <x v="4"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2080.4092999999998"/>
-    <n v="223.5335"/>
+    <n v="1636.1071999999999"/>
+    <n v="335.95679999999999"/>
     <x v="5"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2159.0297"/>
-    <n v="229.11160000000001"/>
+    <n v="1370.3562999999999"/>
+    <n v="284.8057"/>
     <x v="6"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2174.5464000000002"/>
-    <n v="241.3476"/>
+    <n v="1527.1045999999999"/>
+    <n v="330.00970000000001"/>
     <x v="7"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2186.6700999999998"/>
-    <n v="165.7216"/>
+    <n v="1294.4862000000001"/>
+    <n v="317.26670000000001"/>
     <x v="8"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2211.1610000000001"/>
-    <n v="247.19479999999999"/>
+    <n v="1296.6931"/>
+    <n v="371.90300000000002"/>
     <x v="9"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="1307.6121000000001"/>
-    <n v="401"/>
+    <n v="1394.6229000000001"/>
+    <n v="372.78449999999998"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Schwefel226"/>
-    <n v="2180.6624999999999"/>
-    <n v="248.8586"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2182.6943999999999"/>
-    <n v="202.37530000000001"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2148.2923000000001"/>
-    <n v="183.50280000000001"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1147.5342000000001"/>
-    <n v="6.8899999999999999E-13"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="18.466999999999999"/>
-    <n v="4.0065999999999997"/>
+    <s v="Sphere     "/>
+    <n v="4.2105000000000003E-12"/>
+    <n v="3.8561000000000001E-12"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="0.12184"/>
-    <n v="2.6335000000000001E-2"/>
+    <s v="Sphere     "/>
+    <n v="7.5251000000000007E-12"/>
+    <n v="5.7062000000000001E-12"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="4.2243000000000004"/>
-    <n v="1.0045999999999999"/>
+    <s v="Sphere     "/>
+    <n v="0.17716000000000001"/>
+    <n v="0.30209000000000003"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="0.20277000000000001"/>
-    <n v="4.7413999999999998E-2"/>
+    <s v="Sphere     "/>
+    <n v="1.1147E-8"/>
+    <n v="1.2258E-8"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="19.957699999999999"/>
-    <n v="5.0166000000000004"/>
+    <s v="Sphere     "/>
+    <n v="5.0438E-12"/>
+    <n v="4.1042000000000002E-12"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="0.41609000000000002"/>
-    <n v="0.75814999999999999"/>
+    <s v="Sphere     "/>
+    <n v="4.9802999999999997E-12"/>
+    <n v="4.9915000000000003E-12"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="20.827999999999999"/>
-    <n v="5.3103999999999996"/>
+    <s v="Sphere     "/>
+    <n v="1.2909E-11"/>
+    <n v="1.8179999999999999E-11"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="19.929600000000001"/>
-    <n v="5.0469999999999997"/>
+    <s v="Sphere     "/>
+    <n v="4.8802999999999997E-12"/>
+    <n v="5.2480999999999998E-12"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="20.944299999999998"/>
-    <n v="5.3826000000000001"/>
+    <s v="Sphere     "/>
+    <n v="1.5594999999999999E-11"/>
+    <n v="2.008E-11"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="18.985499999999998"/>
-    <n v="3.8328000000000002"/>
+    <s v="Sphere     "/>
+    <n v="4.6010000000000003E-12"/>
+    <n v="4.6471000000000003E-12"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="0.14519000000000001"/>
-    <n v="3.7553000000000003E-2"/>
+    <s v="Sphere     "/>
+    <n v="1.3819E-11"/>
+    <n v="1.0172E-11"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="19.925799999999999"/>
-    <n v="4.9701000000000004"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="20.1905"/>
-    <n v="4.6813000000000002"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.567399999999999"/>
-    <n v="3.8919000000000001"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="11.641500000000001"/>
-    <n v="7.2929000000000004"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="6877.38"/>
-    <n v="1771.0513000000001"/>
+    <s v="Step       "/>
+    <n v="0.9"/>
+    <n v="1.0207999999999999"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="0.06"/>
-    <n v="0.2399"/>
+    <s v="Step       "/>
+    <n v="1.9"/>
+    <n v="1.2937000000000001"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="4.18"/>
-    <n v="0.80025999999999997"/>
+    <s v="Step       "/>
+    <n v="9.35"/>
+    <n v="11.9308"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="Step       "/>
+    <n v="5.4"/>
+    <n v="3.6040999999999999"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7821.06"/>
-    <n v="2008.6646000000001"/>
+    <s v="Step       "/>
+    <n v="1.1499999999999999"/>
+    <n v="0.74516000000000004"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7001.28"/>
-    <n v="1983.1592000000001"/>
+    <s v="Step       "/>
+    <n v="1.2"/>
+    <n v="1.105"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7890.88"/>
-    <n v="1964.9715000000001"/>
+    <s v="Step       "/>
+    <n v="2.9"/>
+    <n v="1.1653"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7849.94"/>
-    <n v="1752.5419999999999"/>
+    <s v="Step       "/>
+    <n v="0.7"/>
+    <n v="0.80130999999999997"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7074.64"/>
-    <n v="2028.1498999999999"/>
+    <s v="Step       "/>
+    <n v="2.5"/>
+    <n v="1.1002000000000001"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7153.22"/>
-    <n v="1956.4739"/>
+    <s v="Step       "/>
+    <n v="1.1499999999999999"/>
+    <n v="0.74516000000000004"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="Step       "/>
+    <n v="2.2999999999999998"/>
+    <n v="1.7502"/>
     <x v="10"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7031.28"/>
-    <n v="1884.4798000000001"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7117"/>
-    <n v="1847.9322"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7702"/>
-    <n v="1802.2584999999999"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7385.08"/>
-    <n v="1963.3494000000001"/>
-    <x v="14"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="135">
-  <r>
-    <s v="Ackley"/>
-    <n v="17.814599999999999"/>
-    <n v="0.72358"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="103">
+  <r>
+    <s v="Ackley     "/>
+    <n v="0.17327999999999999"/>
+    <n v="0.42318"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="9.4169999999999998"/>
-    <n v="8.1226000000000003"/>
+    <s v="Ackley     "/>
+    <n v="1.0787"/>
+    <n v="0.98426000000000002"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.528099999999998"/>
-    <n v="0.65871999999999997"/>
+    <s v="Ackley     "/>
+    <n v="3.2025999999999999"/>
+    <n v="1.2293000000000001"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="4.7893999999999997"/>
-    <n v="6.3586999999999998"/>
+    <s v="Ackley     "/>
+    <n v="0.11577999999999999"/>
+    <n v="0.35547000000000001"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.735199999999999"/>
-    <n v="0.71758"/>
+    <s v="Ackley     "/>
+    <n v="0.65156999999999998"/>
+    <n v="0.78402000000000005"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.533799999999999"/>
-    <n v="0.94467999999999996"/>
+    <s v="Ackley     "/>
+    <n v="0.17327999999999999"/>
+    <n v="0.42318"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.7986"/>
-    <n v="0.76871"/>
+    <s v="Ackley     "/>
+    <n v="1.0193000000000001"/>
+    <n v="1.0819000000000001"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.6326"/>
-    <n v="0.98416999999999999"/>
+    <s v="Ackley     "/>
+    <n v="0.37109999999999999"/>
+    <n v="0.59060999999999997"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.586200000000002"/>
-    <n v="0.81274000000000002"/>
+    <s v="Ackley     "/>
+    <n v="1.0931"/>
+    <n v="1.0185999999999999"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.716699999999999"/>
-    <n v="0.90134000000000003"/>
+    <s v="Ackley     "/>
+    <n v="0.40536"/>
+    <n v="0.73382999999999998"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="3.5251000000000001"/>
-    <n v="5.8986999999999998"/>
+    <s v="Ackley     "/>
+    <n v="1.0546"/>
+    <n v="0.94147000000000003"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.547799999999999"/>
-    <n v="0.76019999999999999"/>
+    <s v="Ackley     "/>
+    <n v="0.82247000000000003"/>
+    <n v="0.91876999999999998"/>
     <x v="11"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.550599999999999"/>
-    <n v="0.74551000000000001"/>
+    <s v="Ackley     "/>
+    <n v="1.0565"/>
+    <n v="1.0954999999999999"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="Ackley"/>
-    <n v="17.774999999999999"/>
-    <n v="0.72187999999999997"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Ackley"/>
-    <n v="17.602699999999999"/>
-    <n v="1.1600999999999999"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="88149.692800000004"/>
-    <n v="33734.974900000001"/>
+    <s v="Fletcher   "/>
+    <n v="1310.7851000000001"/>
+    <n v="1690.2430999999999"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="5259.9321"/>
-    <n v="4745.6027999999997"/>
+    <s v="Fletcher   "/>
+    <n v="2502.7004999999999"/>
+    <n v="2479.7013999999999"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="40439.322899999999"/>
-    <n v="17561.359100000001"/>
+    <s v="Fletcher   "/>
+    <n v="8887.7505000000001"/>
+    <n v="5500.2790000000005"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="5733.2456000000002"/>
-    <n v="3265.8589000000002"/>
+    <s v="Fletcher   "/>
+    <n v="3804.5691000000002"/>
+    <n v="4727.7174999999997"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="92307.647400000002"/>
-    <n v="30778.2889"/>
+    <s v="Fletcher   "/>
+    <n v="1538.2989"/>
+    <n v="1677.1995999999999"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="61258.5095"/>
-    <n v="39465.4401"/>
+    <s v="Fletcher   "/>
+    <n v="728.85"/>
+    <n v="847.08619999999996"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="78717.401899999997"/>
-    <n v="30116.209900000002"/>
+    <s v="Fletcher   "/>
+    <n v="2350.1511"/>
+    <n v="2729.0173"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="95681.41"/>
-    <n v="39897.273300000001"/>
+    <s v="Fletcher   "/>
+    <n v="1649.626"/>
+    <n v="1720.9751000000001"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="90469.103300000002"/>
-    <n v="31617.6623"/>
+    <s v="Fletcher   "/>
+    <n v="3224.2993000000001"/>
+    <n v="4524.5727999999999"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="82281.052299999996"/>
-    <n v="30580.169900000001"/>
+    <s v="Fletcher   "/>
+    <n v="1209.5853"/>
+    <n v="1036.2772"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="6804.1028999999999"/>
-    <n v="4874.7995000000001"/>
+    <s v="Fletcher   "/>
+    <n v="2330.5221000000001"/>
+    <n v="2811.6718999999998"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="93505.923899999994"/>
-    <n v="28216.0324"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="87953.498600000006"/>
-    <n v="30945.2209"/>
+    <s v="Fletcher   "/>
+    <n v="5230.0884999999998"/>
+    <n v="5838.1057000000001"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="Fletcher"/>
-    <n v="86447.258000000002"/>
-    <n v="32048.091"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Fletcher"/>
-    <n v="66349.778999999995"/>
-    <n v="42225.669900000001"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="64.671300000000002"/>
-    <n v="16.489000000000001"/>
+    <s v="Griewank   "/>
+    <n v="45.325899999999997"/>
+    <n v="22.864899999999999"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="6.8826000000000001"/>
-    <n v="4.3194999999999997"/>
+    <s v="Griewank   "/>
+    <n v="8.5025999999999993"/>
+    <n v="4.6494"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="0.93433999999999995"/>
-    <n v="0.59055000000000002"/>
+    <s v="Griewank   "/>
+    <n v="5.3220999999999998"/>
+    <n v="8.3316999999999997"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="1.1915"/>
-    <n v="1.3321000000000001"/>
+    <s v="Griewank   "/>
+    <n v="0.19661000000000001"/>
+    <n v="9.1377E-2"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="69.713399999999993"/>
-    <n v="16.722200000000001"/>
+    <s v="Griewank   "/>
+    <n v="24.166399999999999"/>
+    <n v="11.1571"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="65.059899999999999"/>
-    <n v="15.1282"/>
+    <s v="Griewank   "/>
+    <n v="40.462600000000002"/>
+    <n v="15.5252"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="65.658799999999999"/>
-    <n v="16.810700000000001"/>
+    <s v="Griewank   "/>
+    <n v="1.4035"/>
+    <n v="1.361"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="62.771700000000003"/>
-    <n v="20.432400000000001"/>
+    <s v="Griewank   "/>
+    <n v="36.278100000000002"/>
+    <n v="12.810700000000001"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="62.422499999999999"/>
-    <n v="13.2828"/>
+    <s v="Griewank   "/>
+    <n v="2.2789000000000001"/>
+    <n v="2.2635000000000001"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="63.831400000000002"/>
-    <n v="20.3948"/>
+    <s v="Griewank   "/>
+    <n v="37.276600000000002"/>
+    <n v="15.2461"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="0.76382000000000005"/>
-    <n v="0.59633999999999998"/>
+    <s v="Griewank   "/>
+    <n v="2.2025999999999999"/>
+    <n v="2.4834000000000001"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="67.244100000000003"/>
-    <n v="15.249599999999999"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="66.755499999999998"/>
-    <n v="17.0807"/>
+    <s v="Griewank   "/>
+    <n v="9.9668000000000007E-2"/>
+    <n v="8.6430999999999994E-2"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="Griewank"/>
-    <n v="70.5839"/>
-    <n v="17.770499999999998"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Griewank"/>
-    <n v="65.145700000000005"/>
-    <n v="17.023800000000001"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.7017"/>
-    <n v="0.77936000000000005"/>
+    <s v="Quartic    "/>
+    <n v="2.8275999999999999E-21"/>
+    <n v="9.4604999999999995E-21"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.5935000000000001E-2"/>
-    <n v="6.5560000000000002E-3"/>
+    <s v="Quartic    "/>
+    <n v="3.9280999999999999E-18"/>
+    <n v="1.7442E-17"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.6879"/>
-    <n v="0.69164999999999999"/>
+    <s v="Quartic    "/>
+    <n v="1.3707999999999999E-3"/>
+    <n v="3.6275000000000001E-3"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="4.7692999999999999E-2"/>
-    <n v="2.0841999999999999E-2"/>
+    <s v="Quartic    "/>
+    <n v="1.2329E-15"/>
+    <n v="3.2233999999999999E-15"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.5251999999999999"/>
-    <n v="0.62275000000000003"/>
+    <s v="Quartic    "/>
+    <n v="5.5770000000000003E-22"/>
+    <n v="1.2648999999999999E-21"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.4342000000000001E-2"/>
-    <n v="2.4414000000000002E-2"/>
+    <s v="Quartic    "/>
+    <n v="4.8427999999999996E-22"/>
+    <n v="1.2064E-21"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.6891"/>
-    <n v="0.75512999999999997"/>
+    <s v="Quartic    "/>
+    <n v="7.2103999999999995E-20"/>
+    <n v="2.8135E-19"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.6738"/>
-    <n v="0.60714999999999997"/>
+    <s v="Quartic    "/>
+    <n v="3.8923999999999999E-20"/>
+    <n v="1.573E-19"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.5571999999999999"/>
-    <n v="0.65110000000000001"/>
+    <s v="Quartic    "/>
+    <n v="3.6155000000000001E-19"/>
+    <n v="1.2527000000000001E-18"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.9045000000000001"/>
-    <n v="0.65520999999999996"/>
+    <s v="Quartic    "/>
+    <n v="7.6439000000000002E-22"/>
+    <n v="1.6073E-21"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="2.5391E-2"/>
-    <n v="1.3129E-2"/>
+    <s v="Quartic    "/>
+    <n v="4.7260000000000003E-20"/>
+    <n v="1.4315999999999999E-19"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Quartic"/>
-    <n v="1.6020000000000001"/>
-    <n v="0.69538999999999995"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6061000000000001"/>
-    <n v="0.54981999999999998"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="1.6656"/>
-    <n v="0.70016"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Quartic"/>
-    <n v="0.42403999999999997"/>
-    <n v="0.49142000000000002"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.671800000000005"/>
-    <n v="8.6930999999999994"/>
+    <s v="Rastrigin  "/>
+    <n v="14.675599999999999"/>
+    <n v="5.7914000000000003"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="60.008800000000001"/>
-    <n v="11.6288"/>
+    <s v="Rastrigin  "/>
+    <n v="18.307200000000002"/>
+    <n v="8.5309000000000008"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="59.697800000000001"/>
-    <n v="9.4478000000000009"/>
+    <s v="Rastrigin  "/>
+    <n v="26.962199999999999"/>
+    <n v="8.8048999999999999"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="60.491599999999998"/>
-    <n v="7.4573999999999998"/>
+    <s v="Rastrigin  "/>
+    <n v="12.295999999999999"/>
+    <n v="6.3822000000000001"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="83.878399999999999"/>
-    <n v="12.8666"/>
+    <s v="Rastrigin  "/>
+    <n v="17.212800000000001"/>
+    <n v="5.3929"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="84.116299999999995"/>
-    <n v="8.5942000000000007"/>
+    <s v="Rastrigin  "/>
+    <n v="14.0289"/>
+    <n v="7.0198"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="88.060699999999997"/>
-    <n v="9.4750999999999994"/>
+    <s v="Rastrigin  "/>
+    <n v="17.4117"/>
+    <n v="5.8685"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="87.786900000000003"/>
-    <n v="9.9270999999999994"/>
+    <s v="Rastrigin  "/>
+    <n v="13.232900000000001"/>
+    <n v="6.1001000000000003"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="85.232699999999994"/>
-    <n v="10.3019"/>
+    <s v="Rastrigin  "/>
+    <n v="18.754899999999999"/>
+    <n v="7.968"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="84.9298"/>
-    <n v="9.1187000000000005"/>
+    <s v="Rastrigin  "/>
+    <n v="12.039"/>
+    <n v="4.4950000000000001"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="47.538699999999999"/>
-    <n v="9.5109999999999992"/>
+    <s v="Rastrigin  "/>
+    <n v="18.5062"/>
+    <n v="6.3536000000000001"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Rastrigin"/>
-    <n v="86.158600000000007"/>
-    <n v="10.4602"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.891900000000007"/>
-    <n v="8.7460000000000004"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="86.217200000000005"/>
-    <n v="8.4478000000000009"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Rastrigin"/>
-    <n v="87.169399999999996"/>
-    <n v="8.8627000000000002"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="373.6447"/>
-    <n v="105.53060000000001"/>
+    <s v="Rosenbrock "/>
+    <n v="7.1628999999999996"/>
+    <n v="2.6150000000000002"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="19.061699999999998"/>
-    <n v="2.3883999999999999"/>
+    <s v="Rosenbrock "/>
+    <n v="8.0383999999999993"/>
+    <n v="1.0750999999999999"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="338.88630000000001"/>
-    <n v="105.5415"/>
+    <s v="Rosenbrock "/>
+    <n v="12.505699999999999"/>
+    <n v="21.101700000000001"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="25.796600000000002"/>
-    <n v="4.4644000000000004"/>
+    <s v="Rosenbrock "/>
+    <n v="9.6522000000000006"/>
+    <n v="9.7284000000000006"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="359.21050000000002"/>
-    <n v="92.948400000000007"/>
+    <s v="Rosenbrock "/>
+    <n v="8.0624000000000002"/>
+    <n v="1.3561000000000001"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="13.5808"/>
-    <n v="1.238"/>
+    <s v="Rosenbrock "/>
+    <n v="8.2196999999999996"/>
+    <n v="1.4567000000000001"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="367.86419999999998"/>
-    <n v="96.359300000000005"/>
+    <s v="Rosenbrock "/>
+    <n v="8.2787000000000006"/>
+    <n v="1.1943999999999999"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="387.72469999999998"/>
-    <n v="102.7582"/>
+    <s v="Rosenbrock "/>
+    <n v="9.1309000000000005"/>
+    <n v="6.6860999999999997"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="364.4837"/>
-    <n v="127.84990000000001"/>
+    <s v="Rosenbrock "/>
+    <n v="8.5561000000000007"/>
+    <n v="2.0752000000000002"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="403.0342"/>
-    <n v="118.59010000000001"/>
+    <s v="Rosenbrock "/>
+    <n v="7.5399000000000003"/>
+    <n v="1.9607000000000001"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="20.9025"/>
-    <n v="3.9940000000000002"/>
+    <s v="Rosenbrock "/>
+    <n v="14.1906"/>
+    <n v="24.2148"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Rosenbrock"/>
-    <n v="346.50639999999999"/>
-    <n v="100.0117"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="362.25439999999998"/>
-    <n v="105.83199999999999"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="343.74099999999999"/>
-    <n v="106.85769999999999"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Rosenbrock"/>
-    <n v="96.416300000000007"/>
-    <n v="80.343500000000006"/>
-    <x v="14"/>
-  </r>
-  <r>
     <s v="Schwefel226"/>
-    <n v="2230.1531"/>
-    <n v="172.58869999999999"/>
+    <n v="1423.3471999999999"/>
+    <n v="340.95920000000001"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="1315.3362999999999"/>
-    <n v="314.83949999999999"/>
+    <n v="1375.1252999999999"/>
+    <n v="383.8603"/>
     <x v="1"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="89.345100000000002"/>
-    <n v="133.84950000000001"/>
+    <n v="1069.6797999999999"/>
+    <n v="218.8646"/>
     <x v="2"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="1272.9737"/>
-    <n v="362.24020000000002"/>
+    <n v="549.11300000000006"/>
+    <n v="171.0745"/>
     <x v="3"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2198.3425999999999"/>
-    <n v="253.21729999999999"/>
+    <n v="1372.5319"/>
+    <n v="327.3082"/>
     <x v="4"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2080.4092999999998"/>
-    <n v="223.5335"/>
+    <n v="1636.1071999999999"/>
+    <n v="335.95679999999999"/>
     <x v="5"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2159.0297"/>
-    <n v="229.11160000000001"/>
+    <n v="1370.3562999999999"/>
+    <n v="284.8057"/>
     <x v="6"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2174.5464000000002"/>
-    <n v="241.3476"/>
+    <n v="1527.1045999999999"/>
+    <n v="330.00970000000001"/>
     <x v="7"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2186.6700999999998"/>
-    <n v="165.7216"/>
+    <n v="1294.4862000000001"/>
+    <n v="317.26670000000001"/>
     <x v="8"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="2211.1610000000001"/>
-    <n v="247.19479999999999"/>
+    <n v="1296.6931"/>
+    <n v="371.90300000000002"/>
     <x v="9"/>
   </r>
   <r>
     <s v="Schwefel226"/>
-    <n v="1307.6121000000001"/>
-    <n v="401"/>
+    <n v="1394.6229000000001"/>
+    <n v="372.78449999999998"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Schwefel226"/>
-    <n v="2180.6624999999999"/>
-    <n v="248.8586"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2182.6943999999999"/>
-    <n v="202.37530000000001"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="2148.2923000000001"/>
-    <n v="183.50280000000001"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1147.5342000000001"/>
-    <n v="6.8899999999999999E-13"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="18.466999999999999"/>
-    <n v="4.0065999999999997"/>
+    <s v="Sphere     "/>
+    <n v="4.2105000000000003E-12"/>
+    <n v="3.8561000000000001E-12"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="0.12184"/>
-    <n v="2.6335000000000001E-2"/>
+    <s v="Sphere     "/>
+    <n v="7.5251000000000007E-12"/>
+    <n v="5.7062000000000001E-12"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="4.2243000000000004"/>
-    <n v="1.0045999999999999"/>
+    <s v="Sphere     "/>
+    <n v="0.17716000000000001"/>
+    <n v="0.30209000000000003"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="0.20277000000000001"/>
-    <n v="4.7413999999999998E-2"/>
+    <s v="Sphere     "/>
+    <n v="1.1147E-8"/>
+    <n v="1.2258E-8"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="19.957699999999999"/>
-    <n v="5.0166000000000004"/>
+    <s v="Sphere     "/>
+    <n v="5.0438E-12"/>
+    <n v="4.1042000000000002E-12"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="0.41609000000000002"/>
-    <n v="0.75814999999999999"/>
+    <s v="Sphere     "/>
+    <n v="4.9802999999999997E-12"/>
+    <n v="4.9915000000000003E-12"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="20.827999999999999"/>
-    <n v="5.3103999999999996"/>
+    <s v="Sphere     "/>
+    <n v="1.2909E-11"/>
+    <n v="1.8179999999999999E-11"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="19.929600000000001"/>
-    <n v="5.0469999999999997"/>
+    <s v="Sphere     "/>
+    <n v="4.8802999999999997E-12"/>
+    <n v="5.2480999999999998E-12"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="20.944299999999998"/>
-    <n v="5.3826000000000001"/>
+    <s v="Sphere     "/>
+    <n v="1.5594999999999999E-11"/>
+    <n v="2.008E-11"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="18.985499999999998"/>
-    <n v="3.8328000000000002"/>
+    <s v="Sphere     "/>
+    <n v="4.6010000000000003E-12"/>
+    <n v="4.6471000000000003E-12"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="0.14519000000000001"/>
-    <n v="3.7553000000000003E-2"/>
+    <s v="Sphere     "/>
+    <n v="1.3819E-11"/>
+    <n v="1.0172E-11"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="Sphere"/>
-    <n v="19.925799999999999"/>
-    <n v="4.9701000000000004"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="20.1905"/>
-    <n v="4.6813000000000002"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="19.567399999999999"/>
-    <n v="3.8919000000000001"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Sphere"/>
-    <n v="11.641500000000001"/>
-    <n v="7.2929000000000004"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="6877.38"/>
-    <n v="1771.0513000000001"/>
+    <s v="Step       "/>
+    <n v="0.9"/>
+    <n v="1.0207999999999999"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="0.06"/>
-    <n v="0.2399"/>
+    <s v="Step       "/>
+    <n v="1.9"/>
+    <n v="1.2937000000000001"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="4.18"/>
-    <n v="0.80025999999999997"/>
+    <s v="Step       "/>
+    <n v="9.35"/>
+    <n v="11.9308"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="Step       "/>
+    <n v="5.4"/>
+    <n v="3.6040999999999999"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7821.06"/>
-    <n v="2008.6646000000001"/>
+    <s v="Step       "/>
+    <n v="1.1499999999999999"/>
+    <n v="0.74516000000000004"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7001.28"/>
-    <n v="1983.1592000000001"/>
+    <s v="Step       "/>
+    <n v="1.2"/>
+    <n v="1.105"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7890.88"/>
-    <n v="1964.9715000000001"/>
+    <s v="Step       "/>
+    <n v="2.9"/>
+    <n v="1.1653"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7849.94"/>
-    <n v="1752.5419999999999"/>
+    <s v="Step       "/>
+    <n v="0.7"/>
+    <n v="0.80130999999999997"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7074.64"/>
-    <n v="2028.1498999999999"/>
+    <s v="Step       "/>
+    <n v="2.5"/>
+    <n v="1.1002000000000001"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="7153.22"/>
-    <n v="1956.4739"/>
+    <s v="Step       "/>
+    <n v="1.1499999999999999"/>
+    <n v="0.74516000000000004"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="Step"/>
-    <n v="0"/>
-    <n v="0"/>
+    <s v="Step       "/>
+    <n v="2.2999999999999998"/>
+    <n v="1.7502"/>
     <x v="10"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7031.28"/>
-    <n v="1884.4798000000001"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7117"/>
-    <n v="1847.9322"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7702"/>
-    <n v="1802.2584999999999"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="Step"/>
-    <n v="7385.08"/>
-    <n v="1963.3494000000001"/>
-    <x v="14"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4380,8 +3933,15 @@
         </ext>
       </extLst>
     </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="15">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4393,10 +3953,8 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4408,7 +3966,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
@@ -4442,24 +4000,12 @@
     <i>
       <x v="10"/>
     </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of STD" fld="2" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="Average of  MeanMin" fld="1" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -4482,9 +4028,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4499,15 +4052,8 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="15">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4519,10 +4065,8 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4534,7 +4078,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
@@ -4568,24 +4112,12 @@
     <i>
       <x v="10"/>
     </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of MeanMin" fld="1" subtotal="average" baseField="3" baseItem="0"/>
+    <dataField name="Average of  STD" fld="2" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -4608,21 +4140,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D136" totalsRowShown="0">
-  <autoFilter ref="A1:D136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D104" totalsRowShown="0">
+  <autoFilter ref="A1:D104">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <sortState ref="A2:D136">
-    <sortCondition ref="A2"/>
-  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="BencFunc"/>
-    <tableColumn id="2" name="MeanMin" dataDxfId="1"/>
-    <tableColumn id="3" name="STD" dataDxfId="0"/>
-    <tableColumn id="4" name="CMFunc"/>
+    <tableColumn id="2" name=" MeanMin" dataDxfId="0"/>
+    <tableColumn id="3" name=" STD" dataDxfId="1"/>
+    <tableColumn id="4" name=" CMFunc "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4891,21 +4420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B18"/>
+  <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -4913,122 +4442,90 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>3979.4263488888882</v>
+        <v>311.37444222222268</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
-        <v>565.24159899999984</v>
+        <v>435.07252222222309</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>1979.3270755555559</v>
+        <v>1112.7723811999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>405.30888400000003</v>
+        <v>486.81585444568293</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
-        <v>3685.4516588888891</v>
+        <v>329.11933000000056</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4">
-        <v>4633.2022715555549</v>
+        <v>269.89352000000054</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>3604.4191488888891</v>
+        <v>416.83562222222361</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
-        <v>4670.102102222223</v>
+        <v>359.60484444444501</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>3774.4238711111111</v>
+        <v>505.7742777777795</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
-        <v>3659.7035055555557</v>
+        <v>284.96547333333388</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
-        <v>588.42780244444441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3386.8353322222224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4">
-        <v>3681.4626366666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3796.9158044444443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4">
-        <v>4922.6881911111113</v>
+        <v>418.155444444446</v>
       </c>
     </row>
   </sheetData>
@@ -5039,144 +4536,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B18"/>
+  <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>10868.910777777779</v>
+        <v>229.32417555555594</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
-        <v>741.20403055555562</v>
+        <v>320.01056222222292</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>4550.6451933333337</v>
+        <v>641.2053019444445</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>788.74876255555557</v>
+        <v>546.55039411247299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
-        <v>11431.007822222222</v>
+        <v>224.88256444444488</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4">
-        <v>7835.6577813333342</v>
+        <v>134.28587555555612</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
-        <v>9925.4678888888884</v>
+        <v>336.05490000000202</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
-        <v>11809.268411111114</v>
+        <v>230.8859577777784</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>11142.515555555556</v>
+        <v>539.58500000000231</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
-        <v>10248.426155555555</v>
+        <v>159.04011000000051</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
-        <v>909.40174455555564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4">
-        <v>11472.983455555554</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10867.604666666668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4">
-        <v>10759.67782222222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4">
-        <v>8351.1992044444414</v>
+        <v>357.7999855555567</v>
       </c>
     </row>
   </sheetData>
@@ -5187,981 +4652,981 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection sqref="A1:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>17.814599999999999</v>
+        <v>0.17327999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>0.72358</v>
+        <v>0.42318</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>9.4169999999999998</v>
+        <v>1.0787</v>
       </c>
       <c r="C3" s="1">
-        <v>8.1226000000000003</v>
+        <v>0.98426000000000002</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>17.528099999999998</v>
+        <v>3.2025999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>0.65871999999999997</v>
+        <v>1.2293000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.7893999999999997</v>
+        <v>0.11577999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>6.3586999999999998</v>
+        <v>0.35547000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>17.735199999999999</v>
+        <v>0.65156999999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>0.71758</v>
+        <v>0.78402000000000005</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>17.533799999999999</v>
+        <v>0.17327999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.94467999999999996</v>
+        <v>0.42318</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>17.7986</v>
+        <v>1.0193000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.76871</v>
+        <v>1.0819000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>17.6326</v>
+        <v>0.37109999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>0.98416999999999999</v>
+        <v>0.59060999999999997</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>17.586200000000002</v>
+        <v>1.0931</v>
       </c>
       <c r="C10" s="1">
-        <v>0.81274000000000002</v>
+        <v>1.0185999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>17.716699999999999</v>
+        <v>0.40536</v>
       </c>
       <c r="C11" s="1">
-        <v>0.90134000000000003</v>
+        <v>0.73382999999999998</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>3.5251000000000001</v>
+        <v>1.0546</v>
       </c>
       <c r="C12" s="1">
-        <v>5.8986999999999998</v>
+        <v>0.94147000000000003</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>17.547799999999999</v>
+        <v>0.82247000000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>0.76019999999999999</v>
+        <v>0.91876999999999998</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>17.550599999999999</v>
+        <v>1.0565</v>
       </c>
       <c r="C14" s="1">
-        <v>0.74551000000000001</v>
+        <v>1.0954999999999999</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>17.774999999999999</v>
+        <v>1310.7851000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>0.72187999999999997</v>
+        <v>1690.2430999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>17.602699999999999</v>
+        <v>2502.7004999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1.1600999999999999</v>
+        <v>2479.7013999999999</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>88149.692800000004</v>
+        <v>8887.7505000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>33734.974900000001</v>
+        <v>5500.2790000000005</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>5259.9321</v>
+        <v>3804.5691000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>4745.6027999999997</v>
+        <v>4727.7174999999997</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>40439.322899999999</v>
+        <v>1538.2989</v>
       </c>
       <c r="C19" s="1">
-        <v>17561.359100000001</v>
+        <v>1677.1995999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>5733.2456000000002</v>
+        <v>728.85</v>
       </c>
       <c r="C20" s="1">
-        <v>3265.8589000000002</v>
+        <v>847.08619999999996</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>92307.647400000002</v>
+        <v>2350.1511</v>
       </c>
       <c r="C21" s="1">
-        <v>30778.2889</v>
+        <v>2729.0173</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>61258.5095</v>
+        <v>1649.626</v>
       </c>
       <c r="C22" s="1">
-        <v>39465.4401</v>
+        <v>1720.9751000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>78717.401899999997</v>
+        <v>3224.2993000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>30116.209900000002</v>
+        <v>4524.5727999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>95681.41</v>
+        <v>1209.5853</v>
       </c>
       <c r="C24" s="1">
-        <v>39897.273300000001</v>
+        <v>1036.2772</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>90469.103300000002</v>
+        <v>2330.5221000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>31617.6623</v>
+        <v>2811.6718999999998</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>82281.052299999996</v>
+        <v>5230.0884999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>30580.169900000001</v>
+        <v>5838.1057000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1">
-        <v>6804.1028999999999</v>
+        <v>45.325899999999997</v>
       </c>
       <c r="C27" s="1">
-        <v>4874.7995000000001</v>
+        <v>22.864899999999999</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>93505.923899999994</v>
+        <v>8.5025999999999993</v>
       </c>
       <c r="C28" s="1">
-        <v>28216.0324</v>
+        <v>4.6494</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1">
-        <v>87953.498600000006</v>
+        <v>5.3220999999999998</v>
       </c>
       <c r="C29" s="1">
-        <v>30945.2209</v>
+        <v>8.3316999999999997</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1">
-        <v>86447.258000000002</v>
+        <v>0.19661000000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>32048.091</v>
+        <v>9.1377E-2</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
-        <v>66349.778999999995</v>
+        <v>24.166399999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>42225.669900000001</v>
+        <v>11.1571</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1">
-        <v>64.671300000000002</v>
+        <v>40.462600000000002</v>
       </c>
       <c r="C32" s="1">
-        <v>16.489000000000001</v>
+        <v>15.5252</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1">
-        <v>6.8826000000000001</v>
+        <v>1.4035</v>
       </c>
       <c r="C33" s="1">
-        <v>4.3194999999999997</v>
+        <v>1.361</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1">
-        <v>0.93433999999999995</v>
+        <v>36.278100000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>0.59055000000000002</v>
+        <v>12.810700000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>1.1915</v>
+        <v>2.2789000000000001</v>
       </c>
       <c r="C35" s="1">
-        <v>1.3321000000000001</v>
+        <v>2.2635000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>69.713399999999993</v>
+        <v>37.276600000000002</v>
       </c>
       <c r="C36" s="1">
-        <v>16.722200000000001</v>
+        <v>15.2461</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>65.059899999999999</v>
+        <v>2.2025999999999999</v>
       </c>
       <c r="C37" s="1">
-        <v>15.1282</v>
+        <v>2.4834000000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>65.658799999999999</v>
+        <v>9.9668000000000007E-2</v>
       </c>
       <c r="C38" s="1">
-        <v>16.810700000000001</v>
+        <v>8.6430999999999994E-2</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>62.771700000000003</v>
-      </c>
-      <c r="C39" s="1">
-        <v>20.432400000000001</v>
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.8275999999999999E-21</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9.4604999999999995E-21</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1">
-        <v>62.422499999999999</v>
-      </c>
-      <c r="C40" s="1">
-        <v>13.2828</v>
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3.9280999999999999E-18</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.7442E-17</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
-        <v>63.831400000000002</v>
+        <v>1.3707999999999999E-3</v>
       </c>
       <c r="C41" s="1">
-        <v>20.3948</v>
+        <v>3.6275000000000001E-3</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.76382000000000005</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.59633999999999998</v>
+        <v>5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.2329E-15</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.2233999999999999E-15</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="1">
-        <v>67.244100000000003</v>
-      </c>
-      <c r="C43" s="1">
-        <v>15.249599999999999</v>
+        <v>5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5.5770000000000003E-22</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.2648999999999999E-21</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="1">
-        <v>66.755499999999998</v>
-      </c>
-      <c r="C44" s="1">
-        <v>17.0807</v>
+        <v>5</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4.8427999999999996E-22</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.2064E-21</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="1">
-        <v>70.5839</v>
-      </c>
-      <c r="C45" s="1">
-        <v>17.770499999999998</v>
+        <v>5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7.2103999999999995E-20</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2.8135E-19</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="1">
-        <v>65.145700000000005</v>
-      </c>
-      <c r="C46" s="1">
-        <v>17.023800000000001</v>
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3.8923999999999999E-20</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.573E-19</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1.7017</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.77936000000000005</v>
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3.6155000000000001E-19</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.2527000000000001E-18</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1.5935000000000001E-2</v>
-      </c>
-      <c r="C48" s="1">
-        <v>6.5560000000000002E-3</v>
+        <v>5</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7.6439000000000002E-22</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1.6073E-21</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1.6879</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.69164999999999999</v>
+        <v>5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4.7260000000000003E-20</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.4315999999999999E-19</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
-        <v>4.7692999999999999E-2</v>
+        <v>14.675599999999999</v>
       </c>
       <c r="C50" s="1">
-        <v>2.0841999999999999E-2</v>
+        <v>5.7914000000000003</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1">
-        <v>1.5251999999999999</v>
+        <v>18.307200000000002</v>
       </c>
       <c r="C51" s="1">
-        <v>0.62275000000000003</v>
+        <v>8.5309000000000008</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
-        <v>1.4342000000000001E-2</v>
+        <v>26.962199999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>2.4414000000000002E-2</v>
+        <v>8.8048999999999999</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1">
-        <v>1.6891</v>
+        <v>12.295999999999999</v>
       </c>
       <c r="C53" s="1">
-        <v>0.75512999999999997</v>
+        <v>6.3822000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
-        <v>1.6738</v>
+        <v>17.212800000000001</v>
       </c>
       <c r="C54" s="1">
-        <v>0.60714999999999997</v>
+        <v>5.3929</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1">
-        <v>1.5571999999999999</v>
+        <v>14.0289</v>
       </c>
       <c r="C55" s="1">
-        <v>0.65110000000000001</v>
+        <v>7.0198</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1">
-        <v>1.9045000000000001</v>
+        <v>17.4117</v>
       </c>
       <c r="C56" s="1">
-        <v>0.65520999999999996</v>
+        <v>5.8685</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1">
-        <v>2.5391E-2</v>
+        <v>13.232900000000001</v>
       </c>
       <c r="C57" s="1">
-        <v>1.3129E-2</v>
+        <v>6.1001000000000003</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
-        <v>1.6020000000000001</v>
+        <v>18.754899999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>0.69538999999999995</v>
+        <v>7.968</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>1.6061000000000001</v>
+        <v>12.039</v>
       </c>
       <c r="C59" s="1">
-        <v>0.54981999999999998</v>
+        <v>4.4950000000000001</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B60" s="1">
-        <v>1.6656</v>
+        <v>18.5062</v>
       </c>
       <c r="C60" s="1">
-        <v>0.70016</v>
+        <v>6.3536000000000001</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1">
-        <v>0.42403999999999997</v>
+        <v>7.1628999999999996</v>
       </c>
       <c r="C61" s="1">
-        <v>0.49142000000000002</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
-        <v>86.671800000000005</v>
+        <v>8.0383999999999993</v>
       </c>
       <c r="C62" s="1">
-        <v>8.6930999999999994</v>
+        <v>1.0750999999999999</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
-        <v>60.008800000000001</v>
+        <v>12.505699999999999</v>
       </c>
       <c r="C63" s="1">
-        <v>11.6288</v>
+        <v>21.101700000000001</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B64" s="1">
-        <v>59.697800000000001</v>
+        <v>9.6522000000000006</v>
       </c>
       <c r="C64" s="1">
-        <v>9.4478000000000009</v>
+        <v>9.7284000000000006</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1">
-        <v>60.491599999999998</v>
+        <v>8.0624000000000002</v>
       </c>
       <c r="C65" s="1">
-        <v>7.4573999999999998</v>
+        <v>1.3561000000000001</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1">
-        <v>83.878399999999999</v>
+        <v>8.2196999999999996</v>
       </c>
       <c r="C66" s="1">
-        <v>12.8666</v>
+        <v>1.4567000000000001</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1">
-        <v>84.116299999999995</v>
+        <v>8.2787000000000006</v>
       </c>
       <c r="C67" s="1">
-        <v>8.5942000000000007</v>
+        <v>1.1943999999999999</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1">
-        <v>88.060699999999997</v>
+        <v>9.1309000000000005</v>
       </c>
       <c r="C68" s="1">
-        <v>9.4750999999999994</v>
+        <v>6.6860999999999997</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1">
-        <v>87.786900000000003</v>
+        <v>8.5561000000000007</v>
       </c>
       <c r="C69" s="1">
-        <v>9.9270999999999994</v>
+        <v>2.0752000000000002</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
@@ -6169,391 +5634,391 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1">
-        <v>85.232699999999994</v>
+        <v>7.5399000000000003</v>
       </c>
       <c r="C70" s="1">
-        <v>10.3019</v>
+        <v>1.9607000000000001</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B71" s="1">
-        <v>84.9298</v>
+        <v>14.1906</v>
       </c>
       <c r="C71" s="1">
-        <v>9.1187000000000005</v>
+        <v>24.2148</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1">
-        <v>47.538699999999999</v>
+        <v>1423.3471999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>9.5109999999999992</v>
+        <v>340.95920000000001</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" s="1">
-        <v>86.158600000000007</v>
+        <v>1375.1252999999999</v>
       </c>
       <c r="C73" s="1">
-        <v>10.4602</v>
+        <v>383.8603</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74" s="1">
-        <v>86.891900000000007</v>
+        <v>1069.6797999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>8.7460000000000004</v>
+        <v>218.8646</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" s="1">
-        <v>86.217200000000005</v>
+        <v>549.11300000000006</v>
       </c>
       <c r="C75" s="1">
-        <v>8.4478000000000009</v>
+        <v>171.0745</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1">
-        <v>87.169399999999996</v>
+        <v>1372.5319</v>
       </c>
       <c r="C76" s="1">
-        <v>8.8627000000000002</v>
+        <v>327.3082</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B77" s="1">
-        <v>373.6447</v>
+        <v>1636.1071999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>105.53060000000001</v>
+        <v>335.95679999999999</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B78" s="1">
-        <v>19.061699999999998</v>
+        <v>1370.3562999999999</v>
       </c>
       <c r="C78" s="1">
-        <v>2.3883999999999999</v>
+        <v>284.8057</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1">
-        <v>338.88630000000001</v>
+        <v>1527.1045999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>105.5415</v>
+        <v>330.00970000000001</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B80" s="1">
-        <v>25.796600000000002</v>
+        <v>1294.4862000000001</v>
       </c>
       <c r="C80" s="1">
-        <v>4.4644000000000004</v>
+        <v>317.26670000000001</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1">
-        <v>359.21050000000002</v>
+        <v>1296.6931</v>
       </c>
       <c r="C81" s="1">
-        <v>92.948400000000007</v>
+        <v>371.90300000000002</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B82" s="1">
-        <v>13.5808</v>
+        <v>1394.6229000000001</v>
       </c>
       <c r="C82" s="1">
-        <v>1.238</v>
+        <v>372.78449999999998</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="1">
-        <v>367.86419999999998</v>
-      </c>
-      <c r="C83" s="1">
-        <v>96.359300000000005</v>
+        <v>9</v>
+      </c>
+      <c r="B83" s="2">
+        <v>4.2105000000000003E-12</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3.8561000000000001E-12</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2">
+        <v>7.5251000000000007E-12</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5.7062000000000001E-12</v>
+      </c>
+      <c r="D84" t="s">
         <v>11</v>
-      </c>
-      <c r="B84" s="1">
-        <v>387.72469999999998</v>
-      </c>
-      <c r="C84" s="1">
-        <v>102.7582</v>
-      </c>
-      <c r="D84" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1">
-        <v>364.4837</v>
+        <v>0.17716000000000001</v>
       </c>
       <c r="C85" s="1">
-        <v>127.84990000000001</v>
+        <v>0.30209000000000003</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="1">
-        <v>403.0342</v>
-      </c>
-      <c r="C86" s="1">
-        <v>118.59010000000001</v>
+        <v>9</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1.1147E-8</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1.2258E-8</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="1">
-        <v>20.9025</v>
-      </c>
-      <c r="C87" s="1">
-        <v>3.9940000000000002</v>
+        <v>9</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5.0438E-12</v>
+      </c>
+      <c r="C87" s="2">
+        <v>4.1042000000000002E-12</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="1">
-        <v>346.50639999999999</v>
-      </c>
-      <c r="C88" s="1">
-        <v>100.0117</v>
+        <v>9</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4.9802999999999997E-12</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4.9915000000000003E-12</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="1">
-        <v>362.25439999999998</v>
-      </c>
-      <c r="C89" s="1">
-        <v>105.83199999999999</v>
+        <v>9</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1.2909E-11</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1.8179999999999999E-11</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="1">
-        <v>343.74099999999999</v>
-      </c>
-      <c r="C90" s="1">
-        <v>106.85769999999999</v>
+        <v>9</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4.8802999999999997E-12</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5.2480999999999998E-12</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="1">
-        <v>96.416300000000007</v>
-      </c>
-      <c r="C91" s="1">
-        <v>80.343500000000006</v>
+        <v>9</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1.5594999999999999E-11</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2.008E-11</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92" s="1">
-        <v>2230.1531</v>
-      </c>
-      <c r="C92" s="1">
-        <v>172.58869999999999</v>
+        <v>9</v>
+      </c>
+      <c r="B92" s="2">
+        <v>4.6010000000000003E-12</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4.6471000000000003E-12</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
-      </c>
-      <c r="B93" s="1">
-        <v>1315.3362999999999</v>
-      </c>
-      <c r="C93" s="1">
-        <v>314.83949999999999</v>
+        <v>9</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1.3819E-11</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1.0172E-11</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B94" s="1">
-        <v>89.345100000000002</v>
+        <v>0.9</v>
       </c>
       <c r="C94" s="1">
-        <v>133.84950000000001</v>
+        <v>1.0207999999999999</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B95" s="1">
-        <v>1272.9737</v>
+        <v>1.9</v>
       </c>
       <c r="C95" s="1">
-        <v>362.24020000000002</v>
+        <v>1.2937000000000001</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B96" s="1">
-        <v>2198.3425999999999</v>
+        <v>9.35</v>
       </c>
       <c r="C96" s="1">
-        <v>253.21729999999999</v>
+        <v>11.9308</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1">
-        <v>2080.4092999999998</v>
+        <v>5.4</v>
       </c>
       <c r="C97" s="1">
-        <v>223.5335</v>
+        <v>3.6040999999999999</v>
       </c>
       <c r="D97" t="s">
         <v>19</v>
@@ -6561,553 +6026,105 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B98" s="1">
-        <v>2159.0297</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>229.11160000000001</v>
+        <v>0.74516000000000004</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B99" s="1">
-        <v>2174.5464000000002</v>
+        <v>1.2</v>
       </c>
       <c r="C99" s="1">
-        <v>241.3476</v>
+        <v>1.105</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.1653</v>
+      </c>
+      <c r="D100" t="s">
         <v>12</v>
-      </c>
-      <c r="B100" s="1">
-        <v>2186.6700999999998</v>
-      </c>
-      <c r="C100" s="1">
-        <v>165.7216</v>
-      </c>
-      <c r="D100" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1">
-        <v>2211.1610000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C101" s="1">
-        <v>247.19479999999999</v>
+        <v>0.80130999999999997</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B102" s="1">
-        <v>1307.6121000000001</v>
+        <v>2.5</v>
       </c>
       <c r="C102" s="1">
-        <v>401</v>
+        <v>1.1002000000000001</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B103" s="1">
-        <v>2180.6624999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C103" s="1">
-        <v>248.8586</v>
+        <v>0.74516000000000004</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B104" s="1">
-        <v>2182.6943999999999</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C104" s="1">
-        <v>202.37530000000001</v>
+        <v>1.7502</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" s="1">
-        <v>2148.2923000000001</v>
-      </c>
-      <c r="C105" s="1">
-        <v>183.50280000000001</v>
-      </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="1">
-        <v>1147.5342000000001</v>
-      </c>
-      <c r="C106" s="2">
-        <v>6.8899999999999999E-13</v>
-      </c>
-      <c r="D106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="1">
-        <v>18.466999999999999</v>
-      </c>
-      <c r="C107" s="1">
-        <v>4.0065999999999997</v>
-      </c>
-      <c r="D107" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="1">
-        <v>0.12184</v>
-      </c>
-      <c r="C108" s="1">
-        <v>2.6335000000000001E-2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="1">
-        <v>4.2243000000000004</v>
-      </c>
-      <c r="C109" s="1">
-        <v>1.0045999999999999</v>
-      </c>
-      <c r="D109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="1">
-        <v>0.20277000000000001</v>
-      </c>
-      <c r="C110" s="1">
-        <v>4.7413999999999998E-2</v>
-      </c>
-      <c r="D110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="1">
-        <v>19.957699999999999</v>
-      </c>
-      <c r="C111" s="1">
-        <v>5.0166000000000004</v>
-      </c>
-      <c r="D111" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="1">
-        <v>0.41609000000000002</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0.75814999999999999</v>
-      </c>
-      <c r="D112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="1">
-        <v>20.827999999999999</v>
-      </c>
-      <c r="C113" s="1">
-        <v>5.3103999999999996</v>
-      </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="1">
-        <v>19.929600000000001</v>
-      </c>
-      <c r="C114" s="1">
-        <v>5.0469999999999997</v>
-      </c>
-      <c r="D114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="1">
-        <v>20.944299999999998</v>
-      </c>
-      <c r="C115" s="1">
-        <v>5.3826000000000001</v>
-      </c>
-      <c r="D115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="1">
-        <v>18.985499999999998</v>
-      </c>
-      <c r="C116" s="1">
-        <v>3.8328000000000002</v>
-      </c>
-      <c r="D116" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0.14519000000000001</v>
-      </c>
-      <c r="C117" s="1">
-        <v>3.7553000000000003E-2</v>
-      </c>
-      <c r="D117" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="1">
-        <v>19.925799999999999</v>
-      </c>
-      <c r="C118" s="1">
-        <v>4.9701000000000004</v>
-      </c>
-      <c r="D118" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="1">
-        <v>20.1905</v>
-      </c>
-      <c r="C119" s="1">
-        <v>4.6813000000000002</v>
-      </c>
-      <c r="D119" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" s="1">
-        <v>19.567399999999999</v>
-      </c>
-      <c r="C120" s="1">
-        <v>3.8919000000000001</v>
-      </c>
-      <c r="D120" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="1">
-        <v>11.641500000000001</v>
-      </c>
-      <c r="C121" s="1">
-        <v>7.2929000000000004</v>
-      </c>
-      <c r="D121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="1">
-        <v>6877.38</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1771.0513000000001</v>
-      </c>
-      <c r="D122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0.2399</v>
-      </c>
-      <c r="D123" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="1">
-        <v>4.18</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.80025999999999997</v>
-      </c>
-      <c r="D124" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="1">
-        <v>7821.06</v>
-      </c>
-      <c r="C126" s="1">
-        <v>2008.6646000000001</v>
-      </c>
-      <c r="D126" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="1">
-        <v>7001.28</v>
-      </c>
-      <c r="C127" s="1">
-        <v>1983.1592000000001</v>
-      </c>
-      <c r="D127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" s="1">
-        <v>7890.88</v>
-      </c>
-      <c r="C128" s="1">
-        <v>1964.9715000000001</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="1">
-        <v>7849.94</v>
-      </c>
-      <c r="C129" s="1">
-        <v>1752.5419999999999</v>
-      </c>
-      <c r="D129" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="1">
-        <v>7074.64</v>
-      </c>
-      <c r="C130" s="1">
-        <v>2028.1498999999999</v>
-      </c>
-      <c r="D130" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="1">
-        <v>7153.22</v>
-      </c>
-      <c r="C131" s="1">
-        <v>1956.4739</v>
-      </c>
-      <c r="D131" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="1">
-        <v>0</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0</v>
-      </c>
-      <c r="D132" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="1">
-        <v>7031.28</v>
-      </c>
-      <c r="C133" s="1">
-        <v>1884.4798000000001</v>
-      </c>
-      <c r="D133" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" s="1">
-        <v>7117</v>
-      </c>
-      <c r="C134" s="1">
-        <v>1847.9322</v>
-      </c>
-      <c r="D134" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="1">
-        <v>7702</v>
-      </c>
-      <c r="C135" s="1">
-        <v>1802.2584999999999</v>
-      </c>
-      <c r="D135" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" s="1">
-        <v>7385.08</v>
-      </c>
-      <c r="C136" s="1">
-        <v>1963.3494000000001</v>
-      </c>
-      <c r="D136" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:D127">
-    <sortCondition ref="D1"/>
+  <sortState ref="A2:D104">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="By MeanMin" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId4"/>
     <pivotCache cacheId="19" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="30">
   <si>
     <t xml:space="preserve">Ackley     </t>
   </si>
@@ -93,6 +93,12 @@
     <t>Sinus-Sinus</t>
   </si>
   <si>
+    <t>CMFoCSA</t>
+  </si>
+  <si>
+    <t>Singer-Singer</t>
+  </si>
+  <si>
     <t>BencFunc</t>
   </si>
   <si>
@@ -102,7 +108,7 @@
     <t xml:space="preserve"> STD</t>
   </si>
   <si>
-    <t xml:space="preserve"> CMFunc </t>
+    <t>CMFunc</t>
   </si>
   <si>
     <t>Average of  STD</t>
@@ -706,7 +712,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Avg of  MeanMin by  CMFunc </a:t>
+              <a:t>Avg of  MeanMin by CMFunc</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -791,9 +797,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'By MeanMin'!$A$4:$A$14</c:f>
+              <c:f>'By MeanMin'!$A$4:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Bernoulli-Bernoulli</c:v>
                 </c:pt>
@@ -804,38 +810,50 @@
                   <c:v>Circle</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>CMFoCSA</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Gauss-Gauss</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>GaussMap-GaussMap</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ICMIC-ICMIC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Logistic-Logistic</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Piecewise-Piecewise</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>randn</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>rand-rand</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>Singer-Singer</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Sinusoidal-Sinusoidal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sinus-Sinus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Tent-Tent</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'By MeanMin'!$B$4:$B$14</c:f>
+              <c:f>'By MeanMin'!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>311.37444222222268</c:v>
                 </c:pt>
@@ -846,28 +864,40 @@
                   <c:v>1112.7723811999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>604.28852888889094</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>486.81585444568293</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>329.11933000000056</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>269.89352000000054</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>416.83562222222361</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>359.60484444444501</c:v>
+                <c:pt idx="8">
+                  <c:v>359.60484444444495</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>505.7742777777795</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>284.96547333333388</c:v>
+                <c:pt idx="10">
+                  <c:v>284.96547333333382</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>374.54820666666711</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>418.155444444446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>619.06557444444661</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>723.29918533333796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,11 +912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="346466160"/>
-        <c:axId val="346466720"/>
+        <c:axId val="268152400"/>
+        <c:axId val="268152960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="346466160"/>
+        <c:axId val="268152400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346466720"/>
+        <c:crossAx val="268152960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -937,7 +967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346466720"/>
+        <c:axId val="268152960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +1018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346466160"/>
+        <c:crossAx val="268152400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1086,7 +1116,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Avg of  STD by  CMFunc </a:t>
+              <a:t>Avg of  STD by CMFunc</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1171,9 +1201,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'By STD'!$A$4:$A$14</c:f>
+              <c:f>'By STD'!$A$4:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Bernoulli-Bernoulli</c:v>
                 </c:pt>
@@ -1184,38 +1214,50 @@
                   <c:v>Circle</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>CMFoCSA</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Gauss-Gauss</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>GaussMap-GaussMap</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ICMIC-ICMIC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Logistic-Logistic</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Piecewise-Piecewise</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>randn</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>rand-rand</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>Singer-Singer</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Sinusoidal-Sinusoidal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Sinus-Sinus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Tent-Tent</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'By STD'!$B$4:$B$14</c:f>
+              <c:f>'By STD'!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>229.32417555555594</c:v>
                 </c:pt>
@@ -1226,28 +1268,40 @@
                   <c:v>641.2053019444445</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>634.78781111111255</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>546.55039411247299</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>224.88256444444488</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>134.28587555555612</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>336.05490000000202</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>230.8859577777784</c:v>
+                <c:pt idx="8">
+                  <c:v>230.88595777777834</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>539.58500000000231</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>159.04011000000051</c:v>
+                <c:pt idx="10">
+                  <c:v>159.04011000000048</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>357.7999855555567</c:v>
+                <c:pt idx="11">
+                  <c:v>491.91566111111166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>357.79998555555665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>668.60054111111322</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>682.94994788889301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,11 +1316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="273273248"/>
-        <c:axId val="273274368"/>
+        <c:axId val="264947520"/>
+        <c:axId val="268153520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="273273248"/>
+        <c:axId val="264947520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273274368"/>
+        <c:crossAx val="268153520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273274368"/>
+        <c:axId val="268153520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273273248"/>
+        <c:crossAx val="264947520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2559,7 +2613,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -2588,13 +2642,23 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42696.280460416667" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="103">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42696.883158217592" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="135">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="BencFunc" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="9">
+        <s v="Ackley     "/>
+        <s v="Fletcher   "/>
+        <s v="Griewank   "/>
+        <s v="Quartic    "/>
+        <s v="Rastrigin  "/>
+        <s v="Rosenbrock "/>
+        <s v="Schwefel226"/>
+        <s v="Sphere     "/>
+        <s v="Step       "/>
+      </sharedItems>
     </cacheField>
     <cacheField name=" MeanMin" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.8427999999999996E-22" maxValue="8887.7505000000001"/>
@@ -2602,11 +2666,12 @@
     <cacheField name=" STD" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2064E-21" maxValue="5838.1057000000001"/>
     </cacheField>
-    <cacheField name=" CMFunc " numFmtId="0">
-      <sharedItems count="13">
+    <cacheField name="CMFunc" numFmtId="0">
+      <sharedItems count="15">
         <s v="Bernoulli-Bernoulli"/>
         <s v="Chebyshev"/>
         <s v="Circle"/>
+        <s v="CMFoCSA"/>
         <s v="Gauss-Gauss"/>
         <s v="GaussMap-GaussMap"/>
         <s v="ICMIC-ICMIC"/>
@@ -2614,6 +2679,7 @@
         <s v="Piecewise-Piecewise"/>
         <s v="randn"/>
         <s v="rand-rand"/>
+        <s v="Singer-Singer"/>
         <s v="Sinusoidal-Sinusoidal"/>
         <s v="Sinus-Sinus"/>
         <s v="Tent-Tent"/>
@@ -2629,7 +2695,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42696.280548842595" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="103">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vakili" refreshedDate="42696.883226157406" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="135">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -2643,11 +2709,12 @@
     <cacheField name=" STD" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2064E-21" maxValue="5838.1057000000001"/>
     </cacheField>
-    <cacheField name=" CMFunc " numFmtId="0">
-      <sharedItems count="13">
+    <cacheField name="CMFunc" numFmtId="0">
+      <sharedItems count="15">
         <s v="Bernoulli-Bernoulli"/>
         <s v="Chebyshev"/>
         <s v="Circle"/>
+        <s v="CMFoCSA"/>
         <s v="Gauss-Gauss"/>
         <s v="GaussMap-GaussMap"/>
         <s v="ICMIC-ICMIC"/>
@@ -2655,6 +2722,7 @@
         <s v="Piecewise-Piecewise"/>
         <s v="randn"/>
         <s v="rand-rand"/>
+        <s v="Singer-Singer"/>
         <s v="Sinusoidal-Sinusoidal"/>
         <s v="Sinus-Sinus"/>
         <s v="Tent-Tent"/>
@@ -2670,7 +2738,822 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="103">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="135">
+  <r>
+    <x v="0"/>
+    <n v="0.17327999999999999"/>
+    <n v="0.42318"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.0787"/>
+    <n v="0.98426000000000002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3.2025999999999999"/>
+    <n v="1.2293000000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.93415999999999999"/>
+    <n v="1.0281"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.11577999999999999"/>
+    <n v="0.35547000000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.65156999999999998"/>
+    <n v="0.78402000000000005"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.17327999999999999"/>
+    <n v="0.42318"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.0193000000000001"/>
+    <n v="1.0819000000000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.37109999999999999"/>
+    <n v="0.59060999999999997"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.0931"/>
+    <n v="1.0185999999999999"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.40536"/>
+    <n v="0.73382999999999998"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.39566000000000001"/>
+    <n v="0.63356999999999997"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.0546"/>
+    <n v="0.94147000000000003"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.82247000000000003"/>
+    <n v="0.91876999999999998"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.0565"/>
+    <n v="1.0954999999999999"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1310.7851000000001"/>
+    <n v="1690.2430999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2502.7004999999999"/>
+    <n v="2479.7013999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8887.7505000000001"/>
+    <n v="5500.2790000000005"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4200.0474000000004"/>
+    <n v="5357.5236999999997"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3804.5691000000002"/>
+    <n v="4727.7174999999997"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1538.2989"/>
+    <n v="1677.1995999999999"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="728.85"/>
+    <n v="847.08619999999996"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2350.1511"/>
+    <n v="2729.0173"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1649.626"/>
+    <n v="1720.9751000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3224.2993000000001"/>
+    <n v="4524.5727999999999"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1209.5853"/>
+    <n v="1036.2772"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1958.4936"/>
+    <n v="3993.2379000000001"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2330.5221000000001"/>
+    <n v="2811.6718999999998"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4135.9156999999996"/>
+    <n v="5652.5312999999996"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="5230.0884999999998"/>
+    <n v="5838.1057000000001"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="45.325899999999997"/>
+    <n v="22.864899999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8.5025999999999993"/>
+    <n v="4.6494"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5.3220999999999998"/>
+    <n v="8.3316999999999997"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.6894"/>
+    <n v="2.4969000000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.19661000000000001"/>
+    <n v="9.1377E-2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="24.166399999999999"/>
+    <n v="11.1571"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="40.462600000000002"/>
+    <n v="15.5252"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.4035"/>
+    <n v="1.361"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="36.278100000000002"/>
+    <n v="12.810700000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2.2789000000000001"/>
+    <n v="2.2635000000000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="37.276600000000002"/>
+    <n v="15.2461"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="41.0931"/>
+    <n v="18.4771"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2.2025999999999999"/>
+    <n v="2.4834000000000001"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.4417"/>
+    <n v="1.3210999999999999"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="9.9668000000000007E-2"/>
+    <n v="8.6430999999999994E-2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2.8275999999999999E-21"/>
+    <n v="9.4604999999999995E-21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3.9280999999999999E-18"/>
+    <n v="1.7442E-17"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.3707999999999999E-3"/>
+    <n v="3.6275000000000001E-3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2.5741999999999998E-19"/>
+    <n v="1.1084999999999999E-18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.2329E-15"/>
+    <n v="3.2233999999999999E-15"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5.5770000000000003E-22"/>
+    <n v="1.2648999999999999E-21"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.8427999999999996E-22"/>
+    <n v="1.2064E-21"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="7.2103999999999995E-20"/>
+    <n v="2.8135E-19"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3.8923999999999999E-20"/>
+    <n v="1.573E-19"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3.6155000000000001E-19"/>
+    <n v="1.2527000000000001E-18"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="7.6439000000000002E-22"/>
+    <n v="1.6073E-21"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2.7598999999999999E-18"/>
+    <n v="1.2337E-17"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.7260000000000003E-20"/>
+    <n v="1.4315999999999999E-19"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2.6586999999999998E-19"/>
+    <n v="1.0868000000000001E-18"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3.0273000000000001E-20"/>
+    <n v="1.0676E-19"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="14.675599999999999"/>
+    <n v="5.7914000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="18.307200000000002"/>
+    <n v="8.5309000000000008"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="26.962199999999999"/>
+    <n v="8.8048999999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="18.1082"/>
+    <n v="8.4091000000000005"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="12.295999999999999"/>
+    <n v="6.3822000000000001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="17.212800000000001"/>
+    <n v="5.3929"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="14.0289"/>
+    <n v="7.0198"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="17.4117"/>
+    <n v="5.8685"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="13.232900000000001"/>
+    <n v="6.1001000000000003"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="18.754899999999999"/>
+    <n v="7.968"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="12.039"/>
+    <n v="4.4950000000000001"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="12.9842"/>
+    <n v="4.4668000000000001"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="18.5062"/>
+    <n v="6.3536000000000001"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="19.0534"/>
+    <n v="7.9614000000000003"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="21.0931"/>
+    <n v="9.5191999999999997"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="7.1628999999999996"/>
+    <n v="2.6150000000000002"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8.0383999999999993"/>
+    <n v="1.0750999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="12.505699999999999"/>
+    <n v="21.101700000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="11.4617"/>
+    <n v="16.2258"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="9.6522000000000006"/>
+    <n v="9.7284000000000006"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8.0624000000000002"/>
+    <n v="1.3561000000000001"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8.2196999999999996"/>
+    <n v="1.4567000000000001"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8.2787000000000006"/>
+    <n v="1.1943999999999999"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="9.1309000000000005"/>
+    <n v="6.6860999999999997"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8.5561000000000007"/>
+    <n v="2.0752000000000002"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="7.5399000000000003"/>
+    <n v="1.9607000000000001"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="7.5692000000000004"/>
+    <n v="1.5130999999999999"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="14.1906"/>
+    <n v="24.2148"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="7.9138000000000002"/>
+    <n v="3.3929999999999998"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8.9878999999999998"/>
+    <n v="6.5968"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1423.3471999999999"/>
+    <n v="340.95920000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1375.1252999999999"/>
+    <n v="383.8603"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1069.6797999999999"/>
+    <n v="218.8646"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1203.6559"/>
+    <n v="325.81400000000002"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="549.11300000000006"/>
+    <n v="171.0745"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1372.5319"/>
+    <n v="327.3082"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1636.1071999999999"/>
+    <n v="335.95679999999999"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1370.3562999999999"/>
+    <n v="284.8057"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1527.1045999999999"/>
+    <n v="330.00970000000001"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1294.4862000000001"/>
+    <n v="317.26670000000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1296.6931"/>
+    <n v="371.90300000000002"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1349.4981"/>
+    <n v="408.1943"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1394.6229000000001"/>
+    <n v="372.78449999999998"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1404.3931"/>
+    <n v="349.923"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1244.6669999999999"/>
+    <n v="289.09140000000002"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4.2105000000000003E-12"/>
+    <n v="3.8561000000000001E-12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="7.5251000000000007E-12"/>
+    <n v="5.7062000000000001E-12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.17716000000000001"/>
+    <n v="0.30209000000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.8785E-11"/>
+    <n v="1.1956E-11"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.1147E-8"/>
+    <n v="1.2258E-8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="5.0438E-12"/>
+    <n v="4.1042000000000002E-12"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4.9802999999999997E-12"/>
+    <n v="4.9915000000000003E-12"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.2909E-11"/>
+    <n v="1.8179999999999999E-11"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4.8802999999999997E-12"/>
+    <n v="5.2480999999999998E-12"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.5594999999999999E-11"/>
+    <n v="2.008E-11"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4.6010000000000003E-12"/>
+    <n v="4.6471000000000003E-12"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3.9808999999999997E-12"/>
+    <n v="4.2689000000000001E-12"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.3819E-11"/>
+    <n v="1.0172E-11"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.8711000000000001E-11"/>
+    <n v="1.7785999999999999E-11"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4.3078999999999999E-11"/>
+    <n v="3.5935999999999999E-11"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.9"/>
+    <n v="1.0207999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1.9"/>
+    <n v="1.2937000000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="9.35"/>
+    <n v="11.9308"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2.7"/>
+    <n v="1.5927"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="5.4"/>
+    <n v="3.6040999999999999"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1.1499999999999999"/>
+    <n v="0.74516000000000004"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1.2"/>
+    <n v="1.105"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2.9"/>
+    <n v="1.1653"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.7"/>
+    <n v="0.80130999999999997"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2.5"/>
+    <n v="1.1002000000000001"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1.1499999999999999"/>
+    <n v="0.74516000000000004"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.9"/>
+    <n v="0.71818000000000004"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.7502"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2.0499999999999998"/>
+    <n v="1.3563000000000001"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3.7"/>
+    <n v="2.0545"/>
+    <x v="14"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="135">
   <r>
     <s v="Ackley     "/>
     <n v="0.17327999999999999"/>
@@ -2691,63 +3574,75 @@
   </r>
   <r>
     <s v="Ackley     "/>
+    <n v="0.93415999999999999"/>
+    <n v="1.0281"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Ackley     "/>
     <n v="0.11577999999999999"/>
     <n v="0.35547000000000001"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Ackley     "/>
     <n v="0.65156999999999998"/>
     <n v="0.78402000000000005"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Ackley     "/>
     <n v="0.17327999999999999"/>
     <n v="0.42318"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Ackley     "/>
     <n v="1.0193000000000001"/>
     <n v="1.0819000000000001"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Ackley     "/>
     <n v="0.37109999999999999"/>
     <n v="0.59060999999999997"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Ackley     "/>
     <n v="1.0931"/>
     <n v="1.0185999999999999"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Ackley     "/>
     <n v="0.40536"/>
     <n v="0.73382999999999998"/>
-    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Ackley     "/>
+    <n v="0.39566000000000001"/>
+    <n v="0.63356999999999997"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Ackley     "/>
     <n v="1.0546"/>
     <n v="0.94147000000000003"/>
-    <x v="10"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="Ackley     "/>
     <n v="0.82247000000000003"/>
     <n v="0.91876999999999998"/>
-    <x v="11"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="Ackley     "/>
     <n v="1.0565"/>
     <n v="1.0954999999999999"/>
-    <x v="12"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Fletcher   "/>
@@ -2769,57 +3664,75 @@
   </r>
   <r>
     <s v="Fletcher   "/>
+    <n v="4200.0474000000004"/>
+    <n v="5357.5236999999997"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Fletcher   "/>
     <n v="3804.5691000000002"/>
     <n v="4727.7174999999997"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Fletcher   "/>
     <n v="1538.2989"/>
     <n v="1677.1995999999999"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Fletcher   "/>
     <n v="728.85"/>
     <n v="847.08619999999996"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Fletcher   "/>
     <n v="2350.1511"/>
     <n v="2729.0173"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Fletcher   "/>
     <n v="1649.626"/>
     <n v="1720.9751000000001"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Fletcher   "/>
     <n v="3224.2993000000001"/>
     <n v="4524.5727999999999"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Fletcher   "/>
     <n v="1209.5853"/>
     <n v="1036.2772"/>
-    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Fletcher   "/>
+    <n v="1958.4936"/>
+    <n v="3993.2379000000001"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Fletcher   "/>
     <n v="2330.5221000000001"/>
     <n v="2811.6718999999998"/>
-    <x v="10"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Fletcher   "/>
+    <n v="4135.9156999999996"/>
+    <n v="5652.5312999999996"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="Fletcher   "/>
     <n v="5230.0884999999998"/>
     <n v="5838.1057000000001"/>
-    <x v="12"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Griewank   "/>
@@ -2841,57 +3754,75 @@
   </r>
   <r>
     <s v="Griewank   "/>
+    <n v="1.6894"/>
+    <n v="2.4969000000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Griewank   "/>
     <n v="0.19661000000000001"/>
     <n v="9.1377E-2"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Griewank   "/>
     <n v="24.166399999999999"/>
     <n v="11.1571"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Griewank   "/>
     <n v="40.462600000000002"/>
     <n v="15.5252"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Griewank   "/>
     <n v="1.4035"/>
     <n v="1.361"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Griewank   "/>
     <n v="36.278100000000002"/>
     <n v="12.810700000000001"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Griewank   "/>
     <n v="2.2789000000000001"/>
     <n v="2.2635000000000001"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Griewank   "/>
     <n v="37.276600000000002"/>
     <n v="15.2461"/>
-    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Griewank   "/>
+    <n v="41.0931"/>
+    <n v="18.4771"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Griewank   "/>
     <n v="2.2025999999999999"/>
     <n v="2.4834000000000001"/>
-    <x v="10"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Griewank   "/>
+    <n v="1.4417"/>
+    <n v="1.3210999999999999"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="Griewank   "/>
     <n v="9.9668000000000007E-2"/>
     <n v="8.6430999999999994E-2"/>
-    <x v="12"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Quartic    "/>
@@ -2913,51 +3844,75 @@
   </r>
   <r>
     <s v="Quartic    "/>
+    <n v="2.5741999999999998E-19"/>
+    <n v="1.1084999999999999E-18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Quartic    "/>
     <n v="1.2329E-15"/>
     <n v="3.2233999999999999E-15"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Quartic    "/>
     <n v="5.5770000000000003E-22"/>
     <n v="1.2648999999999999E-21"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Quartic    "/>
     <n v="4.8427999999999996E-22"/>
     <n v="1.2064E-21"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Quartic    "/>
     <n v="7.2103999999999995E-20"/>
     <n v="2.8135E-19"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Quartic    "/>
     <n v="3.8923999999999999E-20"/>
     <n v="1.573E-19"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Quartic    "/>
     <n v="3.6155000000000001E-19"/>
     <n v="1.2527000000000001E-18"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Quartic    "/>
     <n v="7.6439000000000002E-22"/>
     <n v="1.6073E-21"/>
-    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Quartic    "/>
+    <n v="2.7598999999999999E-18"/>
+    <n v="1.2337E-17"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Quartic    "/>
     <n v="4.7260000000000003E-20"/>
     <n v="1.4315999999999999E-19"/>
-    <x v="10"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Quartic    "/>
+    <n v="2.6586999999999998E-19"/>
+    <n v="1.0868000000000001E-18"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Quartic    "/>
+    <n v="3.0273000000000001E-20"/>
+    <n v="1.0676E-19"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Rastrigin  "/>
@@ -2979,51 +3934,75 @@
   </r>
   <r>
     <s v="Rastrigin  "/>
+    <n v="18.1082"/>
+    <n v="8.4091000000000005"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rastrigin  "/>
     <n v="12.295999999999999"/>
     <n v="6.3822000000000001"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Rastrigin  "/>
     <n v="17.212800000000001"/>
     <n v="5.3929"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Rastrigin  "/>
     <n v="14.0289"/>
     <n v="7.0198"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Rastrigin  "/>
     <n v="17.4117"/>
     <n v="5.8685"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Rastrigin  "/>
     <n v="13.232900000000001"/>
     <n v="6.1001000000000003"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Rastrigin  "/>
     <n v="18.754899999999999"/>
     <n v="7.968"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Rastrigin  "/>
     <n v="12.039"/>
     <n v="4.4950000000000001"/>
-    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Rastrigin  "/>
+    <n v="12.9842"/>
+    <n v="4.4668000000000001"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Rastrigin  "/>
     <n v="18.5062"/>
     <n v="6.3536000000000001"/>
-    <x v="10"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Rastrigin  "/>
+    <n v="19.0534"/>
+    <n v="7.9614000000000003"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Rastrigin  "/>
+    <n v="21.0931"/>
+    <n v="9.5191999999999997"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Rosenbrock "/>
@@ -3045,51 +4024,75 @@
   </r>
   <r>
     <s v="Rosenbrock "/>
+    <n v="11.4617"/>
+    <n v="16.2258"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Rosenbrock "/>
     <n v="9.6522000000000006"/>
     <n v="9.7284000000000006"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Rosenbrock "/>
     <n v="8.0624000000000002"/>
     <n v="1.3561000000000001"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Rosenbrock "/>
     <n v="8.2196999999999996"/>
     <n v="1.4567000000000001"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Rosenbrock "/>
     <n v="8.2787000000000006"/>
     <n v="1.1943999999999999"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Rosenbrock "/>
     <n v="9.1309000000000005"/>
     <n v="6.6860999999999997"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Rosenbrock "/>
     <n v="8.5561000000000007"/>
     <n v="2.0752000000000002"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Rosenbrock "/>
     <n v="7.5399000000000003"/>
     <n v="1.9607000000000001"/>
-    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Rosenbrock "/>
+    <n v="7.5692000000000004"/>
+    <n v="1.5130999999999999"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Rosenbrock "/>
     <n v="14.1906"/>
     <n v="24.2148"/>
-    <x v="10"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Rosenbrock "/>
+    <n v="7.9138000000000002"/>
+    <n v="3.3929999999999998"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Rosenbrock "/>
+    <n v="8.9878999999999998"/>
+    <n v="6.5968"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Schwefel226"/>
@@ -3111,51 +4114,75 @@
   </r>
   <r>
     <s v="Schwefel226"/>
+    <n v="1203.6559"/>
+    <n v="325.81400000000002"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
     <n v="549.11300000000006"/>
     <n v="171.0745"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Schwefel226"/>
     <n v="1372.5319"/>
     <n v="327.3082"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Schwefel226"/>
     <n v="1636.1071999999999"/>
     <n v="335.95679999999999"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Schwefel226"/>
     <n v="1370.3562999999999"/>
     <n v="284.8057"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Schwefel226"/>
     <n v="1527.1045999999999"/>
     <n v="330.00970000000001"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Schwefel226"/>
     <n v="1294.4862000000001"/>
     <n v="317.26670000000001"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Schwefel226"/>
     <n v="1296.6931"/>
     <n v="371.90300000000002"/>
-    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="1349.4981"/>
+    <n v="408.1943"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Schwefel226"/>
     <n v="1394.6229000000001"/>
     <n v="372.78449999999998"/>
-    <x v="10"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="1404.3931"/>
+    <n v="349.923"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Schwefel226"/>
+    <n v="1244.6669999999999"/>
+    <n v="289.09140000000002"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Sphere     "/>
@@ -3177,51 +4204,75 @@
   </r>
   <r>
     <s v="Sphere     "/>
+    <n v="1.8785E-11"/>
+    <n v="1.1956E-11"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Sphere     "/>
     <n v="1.1147E-8"/>
     <n v="1.2258E-8"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Sphere     "/>
     <n v="5.0438E-12"/>
     <n v="4.1042000000000002E-12"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Sphere     "/>
     <n v="4.9802999999999997E-12"/>
     <n v="4.9915000000000003E-12"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Sphere     "/>
     <n v="1.2909E-11"/>
     <n v="1.8179999999999999E-11"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Sphere     "/>
     <n v="4.8802999999999997E-12"/>
     <n v="5.2480999999999998E-12"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Sphere     "/>
     <n v="1.5594999999999999E-11"/>
     <n v="2.008E-11"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Sphere     "/>
     <n v="4.6010000000000003E-12"/>
     <n v="4.6471000000000003E-12"/>
-    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Sphere     "/>
+    <n v="3.9808999999999997E-12"/>
+    <n v="4.2689000000000001E-12"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Sphere     "/>
     <n v="1.3819E-11"/>
     <n v="1.0172E-11"/>
-    <x v="10"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Sphere     "/>
+    <n v="1.8711000000000001E-11"/>
+    <n v="1.7785999999999999E-11"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="Sphere     "/>
+    <n v="4.3078999999999999E-11"/>
+    <n v="3.5935999999999999E-11"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Step       "/>
@@ -3243,681 +4294,82 @@
   </r>
   <r>
     <s v="Step       "/>
+    <n v="2.7"/>
+    <n v="1.5927"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Step       "/>
     <n v="5.4"/>
     <n v="3.6040999999999999"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="Step       "/>
     <n v="1.1499999999999999"/>
     <n v="0.74516000000000004"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Step       "/>
     <n v="1.2"/>
     <n v="1.105"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Step       "/>
     <n v="2.9"/>
     <n v="1.1653"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Step       "/>
     <n v="0.7"/>
     <n v="0.80130999999999997"/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Step       "/>
     <n v="2.5"/>
     <n v="1.1002000000000001"/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Step       "/>
     <n v="1.1499999999999999"/>
     <n v="0.74516000000000004"/>
-    <x v="9"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Step       "/>
+    <n v="0.9"/>
+    <n v="0.71818000000000004"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Step       "/>
     <n v="2.2999999999999998"/>
     <n v="1.7502"/>
-    <x v="10"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="103">
-  <r>
-    <s v="Ackley     "/>
-    <n v="0.17327999999999999"/>
-    <n v="0.42318"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="1.0787"/>
-    <n v="0.98426000000000002"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="3.2025999999999999"/>
-    <n v="1.2293000000000001"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="0.11577999999999999"/>
-    <n v="0.35547000000000001"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="0.65156999999999998"/>
-    <n v="0.78402000000000005"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="0.17327999999999999"/>
-    <n v="0.42318"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="1.0193000000000001"/>
-    <n v="1.0819000000000001"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="0.37109999999999999"/>
-    <n v="0.59060999999999997"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="1.0931"/>
-    <n v="1.0185999999999999"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="0.40536"/>
-    <n v="0.73382999999999998"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="1.0546"/>
-    <n v="0.94147000000000003"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="0.82247000000000003"/>
-    <n v="0.91876999999999998"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Ackley     "/>
-    <n v="1.0565"/>
-    <n v="1.0954999999999999"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="Fletcher   "/>
-    <n v="1310.7851000000001"/>
-    <n v="1690.2430999999999"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="2502.7004999999999"/>
-    <n v="2479.7013999999999"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="8887.7505000000001"/>
-    <n v="5500.2790000000005"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="3804.5691000000002"/>
-    <n v="4727.7174999999997"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="1538.2989"/>
-    <n v="1677.1995999999999"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="728.85"/>
-    <n v="847.08619999999996"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="2350.1511"/>
-    <n v="2729.0173"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="1649.626"/>
-    <n v="1720.9751000000001"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="3224.2993000000001"/>
-    <n v="4524.5727999999999"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="1209.5853"/>
-    <n v="1036.2772"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="2330.5221000000001"/>
-    <n v="2811.6718999999998"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Fletcher   "/>
-    <n v="5230.0884999999998"/>
-    <n v="5838.1057000000001"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="45.325899999999997"/>
-    <n v="22.864899999999999"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="8.5025999999999993"/>
-    <n v="4.6494"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="5.3220999999999998"/>
-    <n v="8.3316999999999997"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="0.19661000000000001"/>
-    <n v="9.1377E-2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="24.166399999999999"/>
-    <n v="11.1571"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="40.462600000000002"/>
-    <n v="15.5252"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="1.4035"/>
-    <n v="1.361"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="36.278100000000002"/>
-    <n v="12.810700000000001"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="2.2789000000000001"/>
-    <n v="2.2635000000000001"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="37.276600000000002"/>
-    <n v="15.2461"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="2.2025999999999999"/>
-    <n v="2.4834000000000001"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Griewank   "/>
-    <n v="9.9668000000000007E-2"/>
-    <n v="8.6430999999999994E-2"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="2.8275999999999999E-21"/>
-    <n v="9.4604999999999995E-21"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="3.9280999999999999E-18"/>
-    <n v="1.7442E-17"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="1.3707999999999999E-3"/>
-    <n v="3.6275000000000001E-3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="1.2329E-15"/>
-    <n v="3.2233999999999999E-15"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="5.5770000000000003E-22"/>
-    <n v="1.2648999999999999E-21"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="4.8427999999999996E-22"/>
-    <n v="1.2064E-21"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="7.2103999999999995E-20"/>
-    <n v="2.8135E-19"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="3.8923999999999999E-20"/>
-    <n v="1.573E-19"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="3.6155000000000001E-19"/>
-    <n v="1.2527000000000001E-18"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="7.6439000000000002E-22"/>
-    <n v="1.6073E-21"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Quartic    "/>
-    <n v="4.7260000000000003E-20"/>
-    <n v="1.4315999999999999E-19"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="14.675599999999999"/>
-    <n v="5.7914000000000003"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="18.307200000000002"/>
-    <n v="8.5309000000000008"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="26.962199999999999"/>
-    <n v="8.8048999999999999"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="12.295999999999999"/>
-    <n v="6.3822000000000001"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="17.212800000000001"/>
-    <n v="5.3929"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="14.0289"/>
-    <n v="7.0198"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="17.4117"/>
-    <n v="5.8685"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="13.232900000000001"/>
-    <n v="6.1001000000000003"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="18.754899999999999"/>
-    <n v="7.968"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="12.039"/>
-    <n v="4.4950000000000001"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Rastrigin  "/>
-    <n v="18.5062"/>
-    <n v="6.3536000000000001"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="7.1628999999999996"/>
-    <n v="2.6150000000000002"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="8.0383999999999993"/>
-    <n v="1.0750999999999999"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="12.505699999999999"/>
-    <n v="21.101700000000001"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="9.6522000000000006"/>
-    <n v="9.7284000000000006"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="8.0624000000000002"/>
-    <n v="1.3561000000000001"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="8.2196999999999996"/>
-    <n v="1.4567000000000001"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="8.2787000000000006"/>
-    <n v="1.1943999999999999"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="9.1309000000000005"/>
-    <n v="6.6860999999999997"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="8.5561000000000007"/>
-    <n v="2.0752000000000002"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="7.5399000000000003"/>
-    <n v="1.9607000000000001"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Rosenbrock "/>
-    <n v="14.1906"/>
-    <n v="24.2148"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1423.3471999999999"/>
-    <n v="340.95920000000001"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1375.1252999999999"/>
-    <n v="383.8603"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1069.6797999999999"/>
-    <n v="218.8646"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="549.11300000000006"/>
-    <n v="171.0745"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1372.5319"/>
-    <n v="327.3082"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1636.1071999999999"/>
-    <n v="335.95679999999999"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1370.3562999999999"/>
-    <n v="284.8057"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1527.1045999999999"/>
-    <n v="330.00970000000001"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1294.4862000000001"/>
-    <n v="317.26670000000001"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1296.6931"/>
-    <n v="371.90300000000002"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Schwefel226"/>
-    <n v="1394.6229000000001"/>
-    <n v="372.78449999999998"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="4.2105000000000003E-12"/>
-    <n v="3.8561000000000001E-12"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="7.5251000000000007E-12"/>
-    <n v="5.7062000000000001E-12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="0.17716000000000001"/>
-    <n v="0.30209000000000003"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="1.1147E-8"/>
-    <n v="1.2258E-8"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="5.0438E-12"/>
-    <n v="4.1042000000000002E-12"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="4.9802999999999997E-12"/>
-    <n v="4.9915000000000003E-12"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="1.2909E-11"/>
-    <n v="1.8179999999999999E-11"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="4.8802999999999997E-12"/>
-    <n v="5.2480999999999998E-12"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="1.5594999999999999E-11"/>
-    <n v="2.008E-11"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="4.6010000000000003E-12"/>
-    <n v="4.6471000000000003E-12"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Sphere     "/>
-    <n v="1.3819E-11"/>
-    <n v="1.0172E-11"/>
-    <x v="10"/>
-  </r>
-  <r>
     <s v="Step       "/>
-    <n v="0.9"/>
-    <n v="1.0207999999999999"/>
-    <x v="0"/>
+    <n v="2.0499999999999998"/>
+    <n v="1.3563000000000001"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="Step       "/>
-    <n v="1.9"/>
-    <n v="1.2937000000000001"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Step       "/>
-    <n v="9.35"/>
-    <n v="11.9308"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Step       "/>
-    <n v="5.4"/>
-    <n v="3.6040999999999999"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Step       "/>
-    <n v="1.1499999999999999"/>
-    <n v="0.74516000000000004"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Step       "/>
-    <n v="1.2"/>
-    <n v="1.105"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Step       "/>
-    <n v="2.9"/>
-    <n v="1.1653"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Step       "/>
-    <n v="0.7"/>
-    <n v="0.80130999999999997"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Step       "/>
-    <n v="2.5"/>
-    <n v="1.1002000000000001"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Step       "/>
-    <n v="1.1499999999999999"/>
-    <n v="0.74516000000000004"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Step       "/>
-    <n v="2.2999999999999998"/>
-    <n v="1.7502"/>
-    <x v="10"/>
+    <n v="3.7"/>
+    <n v="2.0545"/>
+    <x v="14"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
@@ -3941,7 +4393,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="13">
+      <items count="15">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3953,8 +4405,10 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -3966,7 +4420,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -4000,6 +4454,18 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -4029,7 +4495,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
@@ -4053,7 +4519,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="13">
+      <items count="15">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4065,8 +4531,10 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -4078,7 +4546,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -4112,6 +4580,18 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -4140,8 +4620,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D104" totalsRowShown="0">
-  <autoFilter ref="A1:D104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D136" totalsRowShown="0">
+  <autoFilter ref="A1:D136">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4149,9 +4629,9 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="BencFunc"/>
-    <tableColumn id="2" name=" MeanMin" dataDxfId="0"/>
-    <tableColumn id="3" name=" STD" dataDxfId="1"/>
-    <tableColumn id="4" name=" CMFunc "/>
+    <tableColumn id="2" name=" MeanMin" dataDxfId="1"/>
+    <tableColumn id="3" name=" STD" dataDxfId="0"/>
+    <tableColumn id="4" name="CMFunc"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4420,10 +4900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4434,10 +4914,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4466,66 +4946,98 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4">
-        <v>486.81585444568293</v>
+        <v>604.28852888889094</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>329.11933000000056</v>
+        <v>486.81585444568293</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4">
-        <v>269.89352000000054</v>
+        <v>329.11933000000056</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
-        <v>416.83562222222361</v>
+        <v>269.89352000000054</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>359.60484444444501</v>
+        <v>416.83562222222361</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B12" s="4">
-        <v>505.7742777777795</v>
+        <v>359.60484444444495</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
-        <v>284.96547333333388</v>
+        <v>505.7742777777795</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>284.96547333333382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4">
+        <v>374.54820666666711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B16" s="4">
         <v>418.155444444446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <v>619.06557444444661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>723.29918533333796</v>
       </c>
     </row>
   </sheetData>
@@ -4536,10 +5048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4550,10 +5062,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4582,66 +5094,98 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4">
-        <v>546.55039411247299</v>
+        <v>634.78781111111255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>224.88256444444488</v>
+        <v>546.55039411247299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4">
-        <v>134.28587555555612</v>
+        <v>224.88256444444488</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
-        <v>336.05490000000202</v>
+        <v>134.28587555555612</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>230.8859577777784</v>
+        <v>336.05490000000202</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B12" s="4">
-        <v>539.58500000000231</v>
+        <v>230.88595777777834</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
-        <v>159.04011000000051</v>
+        <v>539.58500000000231</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>159.04011000000048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4">
+        <v>491.91566111111166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
-        <v>357.7999855555567</v>
+      <c r="B16" s="4">
+        <v>357.79998555555665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <v>668.60054111111322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>682.94994788889301</v>
       </c>
     </row>
   </sheetData>
@@ -4652,32 +5196,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection sqref="A1:D104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4727,13 +5271,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>0.11577999999999999</v>
+        <v>0.93415999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>0.35547000000000001</v>
+        <v>1.0281</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,13 +5285,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.65156999999999998</v>
+        <v>0.11577999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>0.78402000000000005</v>
+        <v>0.35547000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,13 +5299,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>0.17327999999999999</v>
+        <v>0.65156999999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>0.42318</v>
+        <v>0.78402000000000005</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4769,13 +5313,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0193000000000001</v>
+        <v>0.17327999999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0819000000000001</v>
+        <v>0.42318</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4783,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>0.37109999999999999</v>
+        <v>1.0193000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>0.59060999999999997</v>
+        <v>1.0819000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4797,13 +5341,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0931</v>
+        <v>0.37109999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0185999999999999</v>
+        <v>0.59060999999999997</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4811,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>0.40536</v>
+        <v>1.0931</v>
       </c>
       <c r="C11" s="1">
-        <v>0.73382999999999998</v>
+        <v>1.0185999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4825,13 +5369,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0546</v>
+        <v>0.40536</v>
       </c>
       <c r="C12" s="1">
-        <v>0.94147000000000003</v>
+        <v>0.73382999999999998</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>0.82247000000000003</v>
+        <v>0.39566000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>0.91876999999999998</v>
+        <v>0.63356999999999997</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,41 +5397,41 @@
         <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0565</v>
+        <v>1.0546</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0954999999999999</v>
+        <v>0.94147000000000003</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1">
-        <v>1310.7851000000001</v>
+        <v>0.82247000000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>1690.2430999999999</v>
+        <v>0.91876999999999998</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>2502.7004999999999</v>
+        <v>1.0565</v>
       </c>
       <c r="C16" s="1">
-        <v>2479.7013999999999</v>
+        <v>1.0954999999999999</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4895,13 +5439,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>8887.7505000000001</v>
+        <v>1310.7851000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>5500.2790000000005</v>
+        <v>1690.2430999999999</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4909,13 +5453,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>3804.5691000000002</v>
+        <v>2502.7004999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>4727.7174999999997</v>
+        <v>2479.7013999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,13 +5467,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>1538.2989</v>
+        <v>8887.7505000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1677.1995999999999</v>
+        <v>5500.2790000000005</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,13 +5481,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>728.85</v>
+        <v>4200.0474000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>847.08619999999996</v>
+        <v>5357.5236999999997</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4951,13 +5495,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>2350.1511</v>
+        <v>3804.5691000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>2729.0173</v>
+        <v>4727.7174999999997</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4965,13 +5509,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>1649.626</v>
+        <v>1538.2989</v>
       </c>
       <c r="C22" s="1">
-        <v>1720.9751000000001</v>
+        <v>1677.1995999999999</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,13 +5523,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>3224.2993000000001</v>
+        <v>728.85</v>
       </c>
       <c r="C23" s="1">
-        <v>4524.5727999999999</v>
+        <v>847.08619999999996</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,13 +5537,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>1209.5853</v>
+        <v>2350.1511</v>
       </c>
       <c r="C24" s="1">
-        <v>1036.2772</v>
+        <v>2729.0173</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,13 +5551,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>2330.5221000000001</v>
+        <v>1649.626</v>
       </c>
       <c r="C25" s="1">
-        <v>2811.6718999999998</v>
+        <v>1720.9751000000001</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,83 +5565,83 @@
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>5230.0884999999998</v>
+        <v>3224.2993000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>5838.1057000000001</v>
+        <v>4524.5727999999999</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>45.325899999999997</v>
+        <v>1209.5853</v>
       </c>
       <c r="C27" s="1">
-        <v>22.864899999999999</v>
+        <v>1036.2772</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>8.5025999999999993</v>
+        <v>1958.4936</v>
       </c>
       <c r="C28" s="1">
-        <v>4.6494</v>
+        <v>3993.2379000000001</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>5.3220999999999998</v>
+        <v>2330.5221000000001</v>
       </c>
       <c r="C29" s="1">
-        <v>8.3316999999999997</v>
+        <v>2811.6718999999998</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.19661000000000001</v>
+        <v>4135.9156999999996</v>
       </c>
       <c r="C30" s="1">
-        <v>9.1377E-2</v>
+        <v>5652.5312999999996</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>24.166399999999999</v>
+        <v>5230.0884999999998</v>
       </c>
       <c r="C31" s="1">
-        <v>11.1571</v>
+        <v>5838.1057000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,13 +5649,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1">
-        <v>40.462600000000002</v>
+        <v>45.325899999999997</v>
       </c>
       <c r="C32" s="1">
-        <v>15.5252</v>
+        <v>22.864899999999999</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5119,13 +5663,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1">
-        <v>1.4035</v>
+        <v>8.5025999999999993</v>
       </c>
       <c r="C33" s="1">
-        <v>1.361</v>
+        <v>4.6494</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,13 +5677,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1">
-        <v>36.278100000000002</v>
+        <v>5.3220999999999998</v>
       </c>
       <c r="C34" s="1">
-        <v>12.810700000000001</v>
+        <v>8.3316999999999997</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5147,13 +5691,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>2.2789000000000001</v>
+        <v>1.6894</v>
       </c>
       <c r="C35" s="1">
-        <v>2.2635000000000001</v>
+        <v>2.4969000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,13 +5705,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>37.276600000000002</v>
+        <v>0.19661000000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>15.2461</v>
+        <v>9.1377E-2</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,13 +5719,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>2.2025999999999999</v>
+        <v>24.166399999999999</v>
       </c>
       <c r="C37" s="1">
-        <v>2.4834000000000001</v>
+        <v>11.1571</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,125 +5733,125 @@
         <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>9.9668000000000007E-2</v>
+        <v>40.462600000000002</v>
       </c>
       <c r="C38" s="1">
-        <v>8.6430999999999994E-2</v>
+        <v>15.5252</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2.8275999999999999E-21</v>
-      </c>
-      <c r="C39" s="2">
-        <v>9.4604999999999995E-21</v>
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.4035</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.361</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="2">
-        <v>3.9280999999999999E-18</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1.7442E-17</v>
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>36.278100000000002</v>
+      </c>
+      <c r="C40" s="1">
+        <v>12.810700000000001</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1">
-        <v>1.3707999999999999E-3</v>
+        <v>2.2789000000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>3.6275000000000001E-3</v>
+        <v>2.2635000000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1.2329E-15</v>
-      </c>
-      <c r="C42" s="2">
-        <v>3.2233999999999999E-15</v>
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>37.276600000000002</v>
+      </c>
+      <c r="C42" s="1">
+        <v>15.2461</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="2">
-        <v>5.5770000000000003E-22</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1.2648999999999999E-21</v>
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>41.0931</v>
+      </c>
+      <c r="C43" s="1">
+        <v>18.4771</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="2">
-        <v>4.8427999999999996E-22</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1.2064E-21</v>
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.2025999999999999</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.4834000000000001</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="2">
-        <v>7.2103999999999995E-20</v>
-      </c>
-      <c r="C45" s="2">
-        <v>2.8135E-19</v>
+        <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.4417</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.3210999999999999</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="2">
-        <v>3.8923999999999999E-20</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1.573E-19</v>
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9.9668000000000007E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8.6430999999999994E-2</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,13 +5859,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="2">
-        <v>3.6155000000000001E-19</v>
+        <v>2.8275999999999999E-21</v>
       </c>
       <c r="C47" s="2">
-        <v>1.2527000000000001E-18</v>
+        <v>9.4604999999999995E-21</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5329,801 +5873,1249 @@
         <v>5</v>
       </c>
       <c r="B48" s="2">
-        <v>7.6439000000000002E-22</v>
+        <v>3.9280999999999999E-18</v>
       </c>
       <c r="C48" s="2">
-        <v>1.6073E-21</v>
+        <v>1.7442E-17</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="2">
-        <v>4.7260000000000003E-20</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1.4315999999999999E-19</v>
+      <c r="B49" s="1">
+        <v>1.3707999999999999E-3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.6275000000000001E-3</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="1">
-        <v>14.675599999999999</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5.7914000000000003</v>
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2.5741999999999998E-19</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1.1084999999999999E-18</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="1">
-        <v>18.307200000000002</v>
-      </c>
-      <c r="C51" s="1">
-        <v>8.5309000000000008</v>
+        <v>5</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.2329E-15</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3.2233999999999999E-15</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="1">
-        <v>26.962199999999999</v>
-      </c>
-      <c r="C52" s="1">
-        <v>8.8048999999999999</v>
+        <v>5</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5.5770000000000003E-22</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.2648999999999999E-21</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="1">
-        <v>12.295999999999999</v>
-      </c>
-      <c r="C53" s="1">
-        <v>6.3822000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4.8427999999999996E-22</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.2064E-21</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="1">
-        <v>17.212800000000001</v>
-      </c>
-      <c r="C54" s="1">
-        <v>5.3929</v>
+        <v>5</v>
+      </c>
+      <c r="B54" s="2">
+        <v>7.2103999999999995E-20</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2.8135E-19</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="1">
-        <v>14.0289</v>
-      </c>
-      <c r="C55" s="1">
-        <v>7.0198</v>
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3.8923999999999999E-20</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.573E-19</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="1">
-        <v>17.4117</v>
-      </c>
-      <c r="C56" s="1">
-        <v>5.8685</v>
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3.6155000000000001E-19</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.2527000000000001E-18</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="1">
-        <v>13.232900000000001</v>
-      </c>
-      <c r="C57" s="1">
-        <v>6.1001000000000003</v>
+        <v>5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>7.6439000000000002E-22</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.6073E-21</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="1">
-        <v>18.754899999999999</v>
-      </c>
-      <c r="C58" s="1">
-        <v>7.968</v>
+        <v>5</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2.7598999999999999E-18</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.2337E-17</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="1">
-        <v>12.039</v>
-      </c>
-      <c r="C59" s="1">
-        <v>4.4950000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4.7260000000000003E-20</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1.4315999999999999E-19</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="1">
-        <v>18.5062</v>
-      </c>
-      <c r="C60" s="1">
-        <v>6.3536000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2.6586999999999998E-19</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1.0868000000000001E-18</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="1">
-        <v>7.1628999999999996</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2.6150000000000002</v>
+        <v>5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3.0273000000000001E-20</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1.0676E-19</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>8.0383999999999993</v>
+        <v>14.675599999999999</v>
       </c>
       <c r="C62" s="1">
-        <v>1.0750999999999999</v>
+        <v>5.7914000000000003</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1">
-        <v>12.505699999999999</v>
+        <v>18.307200000000002</v>
       </c>
       <c r="C63" s="1">
-        <v>21.101700000000001</v>
+        <v>8.5309000000000008</v>
       </c>
       <c r="D63" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1">
-        <v>9.6522000000000006</v>
+        <v>26.962199999999999</v>
       </c>
       <c r="C64" s="1">
-        <v>9.7284000000000006</v>
+        <v>8.8048999999999999</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" s="1">
-        <v>8.0624000000000002</v>
+        <v>18.1082</v>
       </c>
       <c r="C65" s="1">
-        <v>1.3561000000000001</v>
+        <v>8.4091000000000005</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1">
-        <v>8.2196999999999996</v>
+        <v>12.295999999999999</v>
       </c>
       <c r="C66" s="1">
-        <v>1.4567000000000001</v>
+        <v>6.3822000000000001</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1">
-        <v>8.2787000000000006</v>
+        <v>17.212800000000001</v>
       </c>
       <c r="C67" s="1">
-        <v>1.1943999999999999</v>
+        <v>5.3929</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
-        <v>9.1309000000000005</v>
+        <v>14.0289</v>
       </c>
       <c r="C68" s="1">
-        <v>6.6860999999999997</v>
+        <v>7.0198</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" s="1">
-        <v>8.5561000000000007</v>
+        <v>17.4117</v>
       </c>
       <c r="C69" s="1">
-        <v>2.0752000000000002</v>
+        <v>5.8685</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1">
-        <v>7.5399000000000003</v>
+        <v>13.232900000000001</v>
       </c>
       <c r="C70" s="1">
-        <v>1.9607000000000001</v>
+        <v>6.1001000000000003</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71" s="1">
-        <v>14.1906</v>
+        <v>18.754899999999999</v>
       </c>
       <c r="C71" s="1">
-        <v>24.2148</v>
+        <v>7.968</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1">
-        <v>1423.3471999999999</v>
+        <v>12.039</v>
       </c>
       <c r="C72" s="1">
-        <v>340.95920000000001</v>
+        <v>4.4950000000000001</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1">
-        <v>1375.1252999999999</v>
+        <v>12.9842</v>
       </c>
       <c r="C73" s="1">
-        <v>383.8603</v>
+        <v>4.4668000000000001</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1">
-        <v>1069.6797999999999</v>
+        <v>18.5062</v>
       </c>
       <c r="C74" s="1">
-        <v>218.8646</v>
+        <v>6.3536000000000001</v>
       </c>
       <c r="D74" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
-        <v>549.11300000000006</v>
+        <v>19.0534</v>
       </c>
       <c r="C75" s="1">
-        <v>171.0745</v>
+        <v>7.9614000000000003</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1">
-        <v>1372.5319</v>
+        <v>21.0931</v>
       </c>
       <c r="C76" s="1">
-        <v>327.3082</v>
+        <v>9.5191999999999997</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
-        <v>1636.1071999999999</v>
+        <v>7.1628999999999996</v>
       </c>
       <c r="C77" s="1">
-        <v>335.95679999999999</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1">
-        <v>1370.3562999999999</v>
+        <v>8.0383999999999993</v>
       </c>
       <c r="C78" s="1">
-        <v>284.8057</v>
+        <v>1.0750999999999999</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" s="1">
-        <v>1527.1045999999999</v>
+        <v>12.505699999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>330.00970000000001</v>
+        <v>21.101700000000001</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" s="1">
-        <v>1294.4862000000001</v>
+        <v>11.4617</v>
       </c>
       <c r="C80" s="1">
-        <v>317.26670000000001</v>
+        <v>16.2258</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" s="1">
-        <v>1296.6931</v>
+        <v>9.6522000000000006</v>
       </c>
       <c r="C81" s="1">
-        <v>371.90300000000002</v>
+        <v>9.7284000000000006</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="1">
-        <v>1394.6229000000001</v>
+        <v>8.0624000000000002</v>
       </c>
       <c r="C82" s="1">
-        <v>372.78449999999998</v>
+        <v>1.3561000000000001</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="2">
-        <v>4.2105000000000003E-12</v>
-      </c>
-      <c r="C83" s="2">
-        <v>3.8561000000000001E-12</v>
+        <v>7</v>
+      </c>
+      <c r="B83" s="1">
+        <v>8.2196999999999996</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1.4567000000000001</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="2">
-        <v>7.5251000000000007E-12</v>
-      </c>
-      <c r="C84" s="2">
-        <v>5.7062000000000001E-12</v>
+        <v>7</v>
+      </c>
+      <c r="B84" s="1">
+        <v>8.2787000000000006</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.1943999999999999</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1">
-        <v>0.17716000000000001</v>
+        <v>9.1309000000000005</v>
       </c>
       <c r="C85" s="1">
-        <v>0.30209000000000003</v>
+        <v>6.6860999999999997</v>
       </c>
       <c r="D85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1.1147E-8</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1.2258E-8</v>
+        <v>7</v>
+      </c>
+      <c r="B86" s="1">
+        <v>8.5561000000000007</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2.0752000000000002</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="2">
-        <v>5.0438E-12</v>
-      </c>
-      <c r="C87" s="2">
-        <v>4.1042000000000002E-12</v>
+        <v>7</v>
+      </c>
+      <c r="B87" s="1">
+        <v>7.5399000000000003</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.9607000000000001</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="2">
-        <v>4.9802999999999997E-12</v>
-      </c>
-      <c r="C88" s="2">
-        <v>4.9915000000000003E-12</v>
+        <v>7</v>
+      </c>
+      <c r="B88" s="1">
+        <v>7.5692000000000004</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.5130999999999999</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="2">
-        <v>1.2909E-11</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1.8179999999999999E-11</v>
+        <v>7</v>
+      </c>
+      <c r="B89" s="1">
+        <v>14.1906</v>
+      </c>
+      <c r="C89" s="1">
+        <v>24.2148</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="2">
-        <v>4.8802999999999997E-12</v>
-      </c>
-      <c r="C90" s="2">
-        <v>5.2480999999999998E-12</v>
+        <v>7</v>
+      </c>
+      <c r="B90" s="1">
+        <v>7.9138000000000002</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3.3929999999999998</v>
       </c>
       <c r="D90" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1.5594999999999999E-11</v>
-      </c>
-      <c r="C91" s="2">
-        <v>2.008E-11</v>
+        <v>7</v>
+      </c>
+      <c r="B91" s="1">
+        <v>8.9878999999999998</v>
+      </c>
+      <c r="C91" s="1">
+        <v>6.5968</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="2">
-        <v>4.6010000000000003E-12</v>
-      </c>
-      <c r="C92" s="2">
-        <v>4.6471000000000003E-12</v>
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1423.3471999999999</v>
+      </c>
+      <c r="C92" s="1">
+        <v>340.95920000000001</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="2">
-        <v>1.3819E-11</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1.0172E-11</v>
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1375.1252999999999</v>
+      </c>
+      <c r="C93" s="1">
+        <v>383.8603</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B94" s="1">
-        <v>0.9</v>
+        <v>1069.6797999999999</v>
       </c>
       <c r="C94" s="1">
-        <v>1.0207999999999999</v>
+        <v>218.8646</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B95" s="1">
-        <v>1.9</v>
+        <v>1203.6559</v>
       </c>
       <c r="C95" s="1">
-        <v>1.2937000000000001</v>
+        <v>325.81400000000002</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B96" s="1">
-        <v>9.35</v>
+        <v>549.11300000000006</v>
       </c>
       <c r="C96" s="1">
-        <v>11.9308</v>
+        <v>171.0745</v>
       </c>
       <c r="D96" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B97" s="1">
-        <v>5.4</v>
+        <v>1372.5319</v>
       </c>
       <c r="C97" s="1">
-        <v>3.6040999999999999</v>
+        <v>327.3082</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B98" s="1">
-        <v>1.1499999999999999</v>
+        <v>1636.1071999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>0.74516000000000004</v>
+        <v>335.95679999999999</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B99" s="1">
-        <v>1.2</v>
+        <v>1370.3562999999999</v>
       </c>
       <c r="C99" s="1">
-        <v>1.105</v>
+        <v>284.8057</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B100" s="1">
-        <v>2.9</v>
+        <v>1527.1045999999999</v>
       </c>
       <c r="C100" s="1">
-        <v>1.1653</v>
+        <v>330.00970000000001</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B101" s="1">
-        <v>0.7</v>
+        <v>1294.4862000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>0.80130999999999997</v>
+        <v>317.26670000000001</v>
       </c>
       <c r="D101" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B102" s="1">
-        <v>2.5</v>
+        <v>1296.6931</v>
       </c>
       <c r="C102" s="1">
-        <v>1.1002000000000001</v>
+        <v>371.90300000000002</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B103" s="1">
-        <v>1.1499999999999999</v>
+        <v>1349.4981</v>
       </c>
       <c r="C103" s="1">
-        <v>0.74516000000000004</v>
+        <v>408.1943</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B104" s="1">
-        <v>2.2999999999999998</v>
+        <v>1394.6229000000001</v>
       </c>
       <c r="C104" s="1">
-        <v>1.7502</v>
+        <v>372.78449999999998</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1404.3931</v>
+      </c>
+      <c r="C105" s="1">
+        <v>349.923</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1244.6669999999999</v>
+      </c>
+      <c r="C106" s="1">
+        <v>289.09140000000002</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="2">
+        <v>4.2105000000000003E-12</v>
+      </c>
+      <c r="C107" s="2">
+        <v>3.8561000000000001E-12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="2">
+        <v>7.5251000000000007E-12</v>
+      </c>
+      <c r="C108" s="2">
+        <v>5.7062000000000001E-12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.17716000000000001</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.30209000000000003</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1.8785E-11</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1.1956E-11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1.1147E-8</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1.2258E-8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="2">
+        <v>5.0438E-12</v>
+      </c>
+      <c r="C112" s="2">
+        <v>4.1042000000000002E-12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="2">
+        <v>4.9802999999999997E-12</v>
+      </c>
+      <c r="C113" s="2">
+        <v>4.9915000000000003E-12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1.2909E-11</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1.8179999999999999E-11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="2">
+        <v>4.8802999999999997E-12</v>
+      </c>
+      <c r="C115" s="2">
+        <v>5.2480999999999998E-12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1.5594999999999999E-11</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2.008E-11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="2">
+        <v>4.6010000000000003E-12</v>
+      </c>
+      <c r="C117" s="2">
+        <v>4.6471000000000003E-12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="2">
+        <v>3.9808999999999997E-12</v>
+      </c>
+      <c r="C118" s="2">
+        <v>4.2689000000000001E-12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1.3819E-11</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1.0172E-11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1.8711000000000001E-11</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1.7785999999999999E-11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="2">
+        <v>4.3078999999999999E-11</v>
+      </c>
+      <c r="C121" s="2">
+        <v>3.5935999999999999E-11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1.0207999999999999</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1.2937000000000001</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1">
+        <v>9.35</v>
+      </c>
+      <c r="C124" s="1">
+        <v>11.9308</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1.5927</v>
+      </c>
+      <c r="D125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3.6040999999999999</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.74516000000000004</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1.105</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1.1653</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.80130999999999997</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1.1002000000000001</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.74516000000000004</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.71818000000000004</v>
+      </c>
+      <c r="D133" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1.7502</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1.3563000000000001</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2.0545</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:D104">
+  <sortState ref="A2:D136">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vakili\OneDrive\EOA-MATLAB\"/>
@@ -16,10 +16,10 @@
     <sheet name="By STD" sheetId="3" r:id="rId2"/>
     <sheet name="Result" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
-    <pivotCache cacheId="19" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -438,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -553,6 +553,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -598,16 +616,34 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -653,7 +689,1907 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="192">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -912,11 +2848,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="268152400"/>
-        <c:axId val="268152960"/>
+        <c:axId val="194862672"/>
+        <c:axId val="194863232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="268152400"/>
+        <c:axId val="194862672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +2895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268152960"/>
+        <c:crossAx val="194863232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -967,7 +2903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268152960"/>
+        <c:axId val="194863232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +2954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268152400"/>
+        <c:crossAx val="194862672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1316,11 +3252,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="264947520"/>
-        <c:axId val="268153520"/>
+        <c:axId val="194865472"/>
+        <c:axId val="194866032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="264947520"/>
+        <c:axId val="194865472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +3299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268153520"/>
+        <c:crossAx val="194866032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1371,7 +3307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268153520"/>
+        <c:axId val="194866032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +3358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264947520"/>
+        <c:crossAx val="194865472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4368,7 +6304,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4494,7 +6430,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4629,8 +6565,8 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="BencFunc"/>
-    <tableColumn id="2" name=" MeanMin" dataDxfId="1"/>
-    <tableColumn id="3" name=" STD" dataDxfId="0"/>
+    <tableColumn id="2" name=" MeanMin" dataDxfId="191"/>
+    <tableColumn id="3" name=" STD" dataDxfId="190"/>
     <tableColumn id="4" name="CMFunc"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4913,7 +6849,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -4924,7 +6860,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>311.37444222222268</v>
       </c>
     </row>
@@ -4932,7 +6868,7 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>435.07252222222309</v>
       </c>
     </row>
@@ -4940,7 +6876,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1112.7723811999999</v>
       </c>
     </row>
@@ -4948,7 +6884,7 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>604.28852888889094</v>
       </c>
     </row>
@@ -4956,7 +6892,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>486.81585444568293</v>
       </c>
     </row>
@@ -4964,7 +6900,7 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>329.11933000000056</v>
       </c>
     </row>
@@ -4972,7 +6908,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>269.89352000000054</v>
       </c>
     </row>
@@ -4980,7 +6916,7 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>416.83562222222361</v>
       </c>
     </row>
@@ -4988,7 +6924,7 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>359.60484444444495</v>
       </c>
     </row>
@@ -4996,7 +6932,7 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>505.7742777777795</v>
       </c>
     </row>
@@ -5004,7 +6940,7 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>284.96547333333382</v>
       </c>
     </row>
@@ -5012,7 +6948,7 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>374.54820666666711</v>
       </c>
     </row>
@@ -5020,7 +6956,7 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>418.155444444446</v>
       </c>
     </row>
@@ -5028,7 +6964,7 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>619.06557444444661</v>
       </c>
     </row>
@@ -5036,7 +6972,7 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>723.29918533333796</v>
       </c>
     </row>
@@ -5051,7 +6987,7 @@
   <dimension ref="A3:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5061,7 +6997,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -5072,7 +7008,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>229.32417555555594</v>
       </c>
     </row>
@@ -5080,7 +7016,7 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>320.01056222222292</v>
       </c>
     </row>
@@ -5088,7 +7024,7 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>641.2053019444445</v>
       </c>
     </row>
@@ -5096,7 +7032,7 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>634.78781111111255</v>
       </c>
     </row>
@@ -5104,7 +7040,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>546.55039411247299</v>
       </c>
     </row>
@@ -5112,7 +7048,7 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>224.88256444444488</v>
       </c>
     </row>
@@ -5120,7 +7056,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>134.28587555555612</v>
       </c>
     </row>
@@ -5128,7 +7064,7 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>336.05490000000202</v>
       </c>
     </row>
@@ -5136,7 +7072,7 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>230.88595777777834</v>
       </c>
     </row>
@@ -5144,7 +7080,7 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>539.58500000000231</v>
       </c>
     </row>
@@ -5152,7 +7088,7 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>159.04011000000048</v>
       </c>
     </row>
@@ -5160,7 +7096,7 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>491.91566111111166</v>
       </c>
     </row>
@@ -5168,7 +7104,7 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>357.79998555555665</v>
       </c>
     </row>
@@ -5176,7 +7112,7 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>668.60054111111322</v>
       </c>
     </row>
@@ -5184,7 +7120,7 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>682.94994788889301</v>
       </c>
     </row>
@@ -5198,8 +7134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5225,1686 +7161,1686 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>0.17327999999999999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>0.42318</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>1.0787</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>0.98426000000000002</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>3.2025999999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>1.2293000000000001</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>0.93415999999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>1.0281</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>0.11577999999999999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>0.35547000000000001</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>0.65156999999999998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>0.78402000000000005</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>0.17327999999999999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>0.42318</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>1.0193000000000001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>1.0819000000000001</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>0.37109999999999999</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>0.59060999999999997</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>1.0931</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>1.0185999999999999</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>0.40536</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>0.73382999999999998</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>0.39566000000000001</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>0.63356999999999997</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>1.0546</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>0.94147000000000003</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>0.82247000000000003</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>0.91876999999999998</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>1.0565</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>1.0954999999999999</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="9">
         <v>1310.7851000000001</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="9">
         <v>1690.2430999999999</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>2502.7004999999999</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>2479.7013999999999</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>8887.7505000000001</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>5500.2790000000005</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>4200.0474000000004</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>5357.5236999999997</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>3804.5691000000002</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>4727.7174999999997</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>1538.2989</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>1677.1995999999999</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>728.85</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>847.08619999999996</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>2350.1511</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>2729.0173</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>1649.626</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>1720.9751000000001</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>3224.2993000000001</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>4524.5727999999999</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>1209.5853</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>1036.2772</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>1958.4936</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>3993.2379000000001</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>2330.5221000000001</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>2811.6718999999998</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>4135.9156999999996</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>5652.5312999999996</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="5">
         <v>5230.0884999999998</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>5838.1057000000001</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="9">
         <v>45.325899999999997</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="9">
         <v>22.864899999999999</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>8.5025999999999993</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>4.6494</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>5.3220999999999998</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>8.3316999999999997</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>1.6894</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>2.4969000000000001</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="4">
         <v>0.19661000000000001</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="4">
         <v>9.1377E-2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>24.166399999999999</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="4">
         <v>11.1571</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>40.462600000000002</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>15.5252</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="4">
         <v>1.4035</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="4">
         <v>1.361</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>36.278100000000002</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>12.810700000000001</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="4">
         <v>2.2789000000000001</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="4">
         <v>2.2635000000000001</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>37.276600000000002</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <v>15.2461</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>41.0931</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="4">
         <v>18.4771</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>2.2025999999999999</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <v>2.4834000000000001</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>1.4417</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="4">
         <v>1.3210999999999999</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="5">
         <v>9.9668000000000007E-2</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="5">
         <v>8.6430999999999994E-2</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="10">
         <v>2.8275999999999999E-21</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="10">
         <v>9.4604999999999995E-21</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="11">
         <v>3.9280999999999999E-18</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="11">
         <v>1.7442E-17</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="4">
         <v>1.3707999999999999E-3</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="4">
         <v>3.6275000000000001E-3</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="11">
         <v>2.5741999999999998E-19</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="11">
         <v>1.1084999999999999E-18</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="11">
         <v>1.2329E-15</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="11">
         <v>3.2233999999999999E-15</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="11">
         <v>5.5770000000000003E-22</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="11">
         <v>1.2648999999999999E-21</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="11">
         <v>4.8427999999999996E-22</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="11">
         <v>1.2064E-21</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="11">
         <v>7.2103999999999995E-20</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="11">
         <v>2.8135E-19</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="11">
         <v>3.8923999999999999E-20</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="11">
         <v>1.573E-19</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="11">
         <v>3.6155000000000001E-19</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="11">
         <v>1.2527000000000001E-18</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="11">
         <v>7.6439000000000002E-22</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="11">
         <v>1.6073E-21</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="11">
         <v>2.7598999999999999E-18</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="11">
         <v>1.2337E-17</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="11">
         <v>4.7260000000000003E-20</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="11">
         <v>1.4315999999999999E-19</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="11">
         <v>2.6586999999999998E-19</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="11">
         <v>1.0868000000000001E-18</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="12">
         <v>3.0273000000000001E-20</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="12">
         <v>1.0676E-19</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="9">
         <v>14.675599999999999</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="9">
         <v>5.7914000000000003</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="4">
         <v>18.307200000000002</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="4">
         <v>8.5309000000000008</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="4">
         <v>26.962199999999999</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="4">
         <v>8.8048999999999999</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="4">
         <v>18.1082</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="4">
         <v>8.4091000000000005</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="4">
         <v>12.295999999999999</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="4">
         <v>6.3822000000000001</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="4">
         <v>17.212800000000001</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="4">
         <v>5.3929</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="4">
         <v>14.0289</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="4">
         <v>7.0198</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="4">
         <v>17.4117</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="4">
         <v>5.8685</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="4">
         <v>13.232900000000001</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="4">
         <v>6.1001000000000003</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="4">
         <v>18.754899999999999</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="4">
         <v>7.968</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="4">
         <v>12.039</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="4">
         <v>4.4950000000000001</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="4">
         <v>12.9842</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="4">
         <v>4.4668000000000001</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="4">
         <v>18.5062</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="4">
         <v>6.3536000000000001</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="4">
         <v>19.0534</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="4">
         <v>7.9614000000000003</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="5">
         <v>21.0931</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="5">
         <v>9.5191999999999997</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="9">
         <v>7.1628999999999996</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="9">
         <v>2.6150000000000002</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="4">
         <v>8.0383999999999993</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="4">
         <v>1.0750999999999999</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="4">
         <v>12.505699999999999</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="4">
         <v>21.101700000000001</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="4">
         <v>11.4617</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="4">
         <v>16.2258</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="4">
         <v>9.6522000000000006</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="4">
         <v>9.7284000000000006</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="4">
         <v>8.0624000000000002</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="4">
         <v>1.3561000000000001</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="4">
         <v>8.2196999999999996</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="4">
         <v>1.4567000000000001</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="4">
         <v>8.2787000000000006</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="4">
         <v>1.1943999999999999</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="4">
         <v>9.1309000000000005</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="4">
         <v>6.6860999999999997</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="4">
         <v>8.5561000000000007</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="4">
         <v>2.0752000000000002</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="4">
         <v>7.5399000000000003</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="4">
         <v>1.9607000000000001</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="4">
         <v>7.5692000000000004</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="4">
         <v>1.5130999999999999</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="4">
         <v>14.1906</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="4">
         <v>24.2148</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="4">
         <v>7.9138000000000002</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="4">
         <v>3.3929999999999998</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="5">
         <v>8.9878999999999998</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="5">
         <v>6.5968</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="9">
         <v>1423.3471999999999</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="9">
         <v>340.95920000000001</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="4">
         <v>1375.1252999999999</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="4">
         <v>383.8603</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="4">
         <v>1069.6797999999999</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="4">
         <v>218.8646</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="4">
         <v>1203.6559</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="4">
         <v>325.81400000000002</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="4">
         <v>549.11300000000006</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="4">
         <v>171.0745</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="4">
         <v>1372.5319</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="4">
         <v>327.3082</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="4">
         <v>1636.1071999999999</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="4">
         <v>335.95679999999999</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="4">
         <v>1370.3562999999999</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="4">
         <v>284.8057</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="4">
         <v>1527.1045999999999</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="4">
         <v>330.00970000000001</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="4">
         <v>1294.4862000000001</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="4">
         <v>317.26670000000001</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="4">
         <v>1296.6931</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="4">
         <v>371.90300000000002</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="4">
         <v>1349.4981</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="4">
         <v>408.1943</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="4">
         <v>1394.6229000000001</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="4">
         <v>372.78449999999998</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="4">
         <v>1404.3931</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="4">
         <v>349.923</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="5">
         <v>1244.6669999999999</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="5">
         <v>289.09140000000002</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="10">
         <v>4.2105000000000003E-12</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="10">
         <v>3.8561000000000001E-12</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="11">
         <v>7.5251000000000007E-12</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="11">
         <v>5.7062000000000001E-12</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="4">
         <v>0.17716000000000001</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="4">
         <v>0.30209000000000003</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="11">
         <v>1.8785E-11</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="11">
         <v>1.1956E-11</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="11">
         <v>1.1147E-8</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="11">
         <v>1.2258E-8</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="11">
         <v>5.0438E-12</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="11">
         <v>4.1042000000000002E-12</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="11">
         <v>4.9802999999999997E-12</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="11">
         <v>4.9915000000000003E-12</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="11">
         <v>1.2909E-11</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="11">
         <v>1.8179999999999999E-11</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="11">
         <v>4.8802999999999997E-12</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="11">
         <v>5.2480999999999998E-12</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="11">
         <v>1.5594999999999999E-11</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="11">
         <v>2.008E-11</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="11">
         <v>4.6010000000000003E-12</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="11">
         <v>4.6471000000000003E-12</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="11">
         <v>3.9808999999999997E-12</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="11">
         <v>4.2689000000000001E-12</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="11">
         <v>1.3819E-11</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="11">
         <v>1.0172E-11</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="11">
         <v>1.8711000000000001E-11</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="11">
         <v>1.7785999999999999E-11</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="12">
         <v>4.3078999999999999E-11</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="12">
         <v>3.5935999999999999E-11</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -6961,16 +8897,16 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="4">
         <v>5.4</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="4">
         <v>3.6040999999999999</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7087,16 +9023,16 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="4">
         <v>1.3563000000000001</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7118,9 +9054,63 @@
   <sortState ref="A2:D136">
     <sortCondition ref="A2"/>
   </sortState>
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="top10" dxfId="36" priority="19" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C16">
+    <cfRule type="top10" dxfId="35" priority="18" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:C31">
+    <cfRule type="top10" dxfId="34" priority="17" percent="1" bottom="1" rank="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B46">
+    <cfRule type="top10" dxfId="33" priority="16" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C46">
+    <cfRule type="top10" dxfId="32" priority="15" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:B61">
+    <cfRule type="top10" dxfId="31" priority="14" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C61">
+    <cfRule type="top10" dxfId="30" priority="13" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:B76">
+    <cfRule type="top10" dxfId="29" priority="12" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="10" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:C76">
+    <cfRule type="top10" dxfId="27" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="9" percent="1" bottom="1" rank="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:B91">
+    <cfRule type="top10" dxfId="25" priority="8" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77:C91">
+    <cfRule type="top10" dxfId="24" priority="7" percent="1" bottom="1" rank="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92:B106">
+    <cfRule type="top10" dxfId="23" priority="6" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C106">
+    <cfRule type="top10" dxfId="22" priority="5" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107:B121">
+    <cfRule type="top10" dxfId="21" priority="4" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:C121">
+    <cfRule type="top10" dxfId="20" priority="3" percent="1" bottom="1" rank="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:B136">
+    <cfRule type="top10" dxfId="19" priority="2" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122:C136">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="27"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>